--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK356"/>
+  <dimension ref="A1:AN356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,21 @@
           <t>odds_match_goals_3.5_under</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>result_home</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>result_away</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -752,6 +767,17 @@
       <c r="AK2" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -881,6 +907,17 @@
       <c r="AK3" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1010,6 +1047,17 @@
       <c r="AK4" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1139,6 +1187,17 @@
       <c r="AK5" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1268,6 +1327,17 @@
       <c r="AK6" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1397,6 +1467,17 @@
       <c r="AK7" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1522,6 +1603,17 @@
       <c r="AK8" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1651,6 +1743,17 @@
       <c r="AK9" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1776,6 +1879,17 @@
       <c r="AK10" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1905,6 +2019,17 @@
       <c r="AK11" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2034,6 +2159,17 @@
       <c r="AK12" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2163,6 +2299,17 @@
       <c r="AK13" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2292,6 +2439,13 @@
       <c r="AK14" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2421,6 +2575,13 @@
       <c r="AK15" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2550,6 +2711,13 @@
       <c r="AK16" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2679,6 +2847,13 @@
       <c r="AK17" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2808,6 +2983,13 @@
       <c r="AK18" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2937,6 +3119,13 @@
       <c r="AK19" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3066,6 +3255,13 @@
       <c r="AK20" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -3195,6 +3391,13 @@
       <c r="AK21" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3316,6 +3519,13 @@
       <c r="AK22" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3437,6 +3647,13 @@
       <c r="AK23" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3566,6 +3783,13 @@
       <c r="AK24" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3691,6 +3915,13 @@
       <c r="AK25" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3820,6 +4051,13 @@
       <c r="AK26" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3949,6 +4187,13 @@
       <c r="AK27" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -4078,6 +4323,13 @@
       <c r="AK28" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -4207,6 +4459,13 @@
       <c r="AK29" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -4336,6 +4595,13 @@
       <c r="AK30" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -4457,6 +4723,13 @@
       <c r="AK31" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -4586,6 +4859,13 @@
       <c r="AK32" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -4707,6 +4987,13 @@
       <c r="AK33" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -4835,6 +5122,13 @@
       </c>
       <c r="AK34" t="n">
         <v>1.4</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4941,6 +5235,13 @@
       <c r="AK35" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -5070,6 +5371,13 @@
       <c r="AK36" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -5199,6 +5507,13 @@
       <c r="AK37" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -5328,6 +5643,13 @@
       <c r="AK38" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -5452,6 +5774,13 @@
       </c>
       <c r="AK39" t="n">
         <v>2</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5558,6 +5887,13 @@
       <c r="AK40" t="n">
         <v>2</v>
       </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -5687,6 +6023,13 @@
       <c r="AK41" t="n">
         <v>2</v>
       </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -5816,6 +6159,13 @@
       <c r="AK42" t="n">
         <v>2</v>
       </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -5937,6 +6287,13 @@
       <c r="AK43" t="n">
         <v>2</v>
       </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -6065,6 +6422,13 @@
       </c>
       <c r="AK44" t="n">
         <v>1.44</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -6171,6 +6535,13 @@
       <c r="AK45" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -6300,6 +6671,13 @@
       <c r="AK46" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -6429,6 +6807,13 @@
       <c r="AK47" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -6550,6 +6935,13 @@
       <c r="AK48" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -6678,6 +7070,13 @@
       </c>
       <c r="AK49" t="n">
         <v>1.5</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -6784,6 +7183,13 @@
       <c r="AK50" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -6905,6 +7311,13 @@
       <c r="AK51" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -7026,6 +7439,13 @@
       <c r="AK52" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -7155,6 +7575,13 @@
       <c r="AK53" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -7276,6 +7703,13 @@
       <c r="AK54" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -7405,6 +7839,13 @@
       <c r="AK55" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -7534,6 +7975,13 @@
       <c r="AK56" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -7663,6 +8111,13 @@
       <c r="AK57" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -7784,6 +8239,13 @@
       <c r="AK58" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -7913,6 +8375,13 @@
       <c r="AK59" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -8042,6 +8511,13 @@
       <c r="AK60" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -8171,6 +8647,13 @@
       <c r="AK61" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -8300,6 +8783,13 @@
       <c r="AK62" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -8425,6 +8915,13 @@
       <c r="AK63" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -8554,6 +9051,13 @@
       <c r="AK64" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -8683,6 +9187,13 @@
       <c r="AK65" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -8812,6 +9323,13 @@
       <c r="AK66" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -8941,6 +9459,13 @@
       <c r="AK67" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -9070,6 +9595,13 @@
       <c r="AK68" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -9199,6 +9731,13 @@
       <c r="AK69" t="n">
         <v>1.57</v>
       </c>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -9328,6 +9867,13 @@
       <c r="AK70" t="n">
         <v>1.57</v>
       </c>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -9457,6 +10003,13 @@
       <c r="AK71" t="n">
         <v>1.57</v>
       </c>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -9586,6 +10139,13 @@
       <c r="AK72" t="n">
         <v>1.57</v>
       </c>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -9707,6 +10267,13 @@
       <c r="AK73" t="n">
         <v>1.57</v>
       </c>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -9828,6 +10395,13 @@
       <c r="AK74" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -9957,6 +10531,13 @@
       <c r="AK75" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -10082,6 +10663,13 @@
       <c r="AK76" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -10211,6 +10799,13 @@
       <c r="AK77" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -10340,6 +10935,13 @@
       <c r="AK78" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -10469,6 +11071,13 @@
       <c r="AK79" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -10598,6 +11207,13 @@
       <c r="AK80" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -10719,6 +11335,13 @@
       <c r="AK81" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -10848,6 +11471,13 @@
       <c r="AK82" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -10977,6 +11607,13 @@
       <c r="AK83" t="n">
         <v>1.62</v>
       </c>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -11101,6 +11738,13 @@
       </c>
       <c r="AK84" t="n">
         <v>2.3</v>
+      </c>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -11207,6 +11851,13 @@
       <c r="AK85" t="n">
         <v>2.3</v>
       </c>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -11328,6 +11979,13 @@
       <c r="AK86" t="n">
         <v>2.3</v>
       </c>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -11453,6 +12111,13 @@
       <c r="AK87" t="n">
         <v>2.3</v>
       </c>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -11578,6 +12243,13 @@
       <c r="AK88" t="n">
         <v>2.3</v>
       </c>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -11699,6 +12371,13 @@
       <c r="AK89" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -11828,6 +12507,13 @@
       <c r="AK90" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -11957,6 +12643,13 @@
       <c r="AK91" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -12086,6 +12779,13 @@
       <c r="AK92" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -12215,6 +12915,13 @@
       <c r="AK93" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -12344,6 +13051,17 @@
       <c r="AK94" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -12473,6 +13191,17 @@
       <c r="AK95" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -12602,6 +13331,17 @@
       <c r="AK96" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -12731,6 +13471,17 @@
       <c r="AK97" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -12860,6 +13611,17 @@
       <c r="AK98" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -12989,6 +13751,17 @@
       <c r="AK99" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -13110,6 +13883,13 @@
       <c r="AK100" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -13239,6 +14019,13 @@
       <c r="AK101" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -13368,6 +14155,13 @@
       <c r="AK102" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -13497,6 +14291,13 @@
       <c r="AK103" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -13622,6 +14423,13 @@
       <c r="AK104" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -13751,6 +14559,17 @@
       <c r="AK105" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -13872,6 +14691,17 @@
       <c r="AK106" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -14001,6 +14831,17 @@
       <c r="AK107" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -14130,6 +14971,17 @@
       <c r="AK108" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -14259,6 +15111,17 @@
       <c r="AK109" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -14388,6 +15251,17 @@
       <c r="AK110" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -14517,6 +15391,17 @@
       <c r="AK111" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -14646,6 +15531,17 @@
       <c r="AK112" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -14775,6 +15671,17 @@
       <c r="AK113" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -14904,6 +15811,17 @@
       <c r="AK114" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -15033,6 +15951,17 @@
       <c r="AK115" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -15154,6 +16083,17 @@
       <c r="AK116" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -15283,6 +16223,17 @@
       <c r="AK117" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -15412,6 +16363,17 @@
       <c r="AK118" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -15541,6 +16503,17 @@
       <c r="AK119" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -15670,6 +16643,17 @@
       <c r="AK120" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -15799,6 +16783,17 @@
       <c r="AK121" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -15928,6 +16923,17 @@
       <c r="AK122" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN122" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -16057,6 +17063,17 @@
       <c r="AK123" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN123" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -16186,6 +17203,17 @@
       <c r="AK124" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN124" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -16315,6 +17343,17 @@
       <c r="AK125" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN125" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -16444,6 +17483,17 @@
       <c r="AK126" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN126" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -16573,6 +17623,17 @@
       <c r="AK127" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN127" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -16702,6 +17763,17 @@
       <c r="AK128" t="n">
         <v>1.14</v>
       </c>
+      <c r="AL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN128" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -16823,6 +17895,17 @@
       <c r="AK129" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN129" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -16952,6 +18035,17 @@
       <c r="AK130" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN130" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -17073,6 +18167,17 @@
       <c r="AK131" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN131" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -17202,6 +18307,17 @@
       <c r="AK132" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN132" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -17331,6 +18447,17 @@
       <c r="AK133" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN133" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -17460,6 +18587,17 @@
       <c r="AK134" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN134" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -17589,6 +18727,17 @@
       <c r="AK135" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -17718,6 +18867,17 @@
       <c r="AK136" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN136" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -17847,6 +19007,17 @@
       <c r="AK137" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -17976,6 +19147,17 @@
       <c r="AK138" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN138" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -18105,6 +19287,17 @@
       <c r="AK139" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -18234,6 +19427,17 @@
       <c r="AK140" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -18363,6 +19567,13 @@
       <c r="AK141" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -18492,6 +19703,13 @@
       <c r="AK142" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -18621,6 +19839,13 @@
       <c r="AK143" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -18750,6 +19975,13 @@
       <c r="AK144" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -18879,6 +20111,13 @@
       <c r="AK145" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -19000,6 +20239,13 @@
       <c r="AK146" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -19121,6 +20367,13 @@
       <c r="AK147" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -19250,6 +20503,13 @@
       <c r="AK148" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -19379,6 +20639,13 @@
       <c r="AK149" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -19508,6 +20775,13 @@
       <c r="AK150" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -19637,6 +20911,13 @@
       <c r="AK151" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -19766,6 +21047,13 @@
       <c r="AK152" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -19895,6 +21183,13 @@
       <c r="AK153" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -20024,6 +21319,13 @@
       <c r="AK154" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -20153,6 +21455,13 @@
       <c r="AK155" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -20282,6 +21591,13 @@
       <c r="AK156" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -20411,6 +21727,13 @@
       <c r="AK157" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -20540,6 +21863,13 @@
       <c r="AK158" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -20669,6 +21999,13 @@
       <c r="AK159" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -20798,6 +22135,13 @@
       <c r="AK160" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -20927,6 +22271,13 @@
       <c r="AK161" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -21056,6 +22407,13 @@
       <c r="AK162" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -21185,6 +22543,13 @@
       <c r="AK163" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -21314,6 +22679,13 @@
       <c r="AK164" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -21443,6 +22815,13 @@
       <c r="AK165" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -21572,6 +22951,13 @@
       <c r="AK166" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -21701,6 +23087,13 @@
       <c r="AK167" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -21830,6 +23223,13 @@
       <c r="AK168" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -21959,6 +23359,13 @@
       <c r="AK169" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -22080,6 +23487,13 @@
       <c r="AK170" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -22201,6 +23615,13 @@
       <c r="AK171" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -22322,6 +23743,13 @@
       <c r="AK172" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -22451,6 +23879,13 @@
       <c r="AK173" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -22572,6 +24007,13 @@
       <c r="AK174" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -22693,6 +24135,13 @@
       <c r="AK175" t="n">
         <v>1.5</v>
       </c>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -22822,6 +24271,13 @@
       <c r="AK176" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -22951,6 +24407,13 @@
       <c r="AK177" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -23080,6 +24543,13 @@
       <c r="AK178" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -23209,6 +24679,13 @@
       <c r="AK179" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -23338,6 +24815,13 @@
       <c r="AK180" t="n">
         <v>1.4</v>
       </c>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -23462,6 +24946,13 @@
       </c>
       <c r="AK181" t="n">
         <v>1.67</v>
+      </c>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -23568,6 +25059,13 @@
       <c r="AK182" t="n">
         <v>1.67</v>
       </c>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -23697,6 +25195,13 @@
       <c r="AK183" t="n">
         <v>1.67</v>
       </c>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -23818,6 +25323,13 @@
       <c r="AK184" t="n">
         <v>1.67</v>
       </c>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -23947,6 +25459,13 @@
       <c r="AK185" t="n">
         <v>1.67</v>
       </c>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -24072,6 +25591,13 @@
       <c r="AK186" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -24201,6 +25727,13 @@
       <c r="AK187" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -24330,6 +25863,13 @@
       <c r="AK188" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -24459,6 +25999,13 @@
       <c r="AK189" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -24580,6 +26127,13 @@
       <c r="AK190" t="n">
         <v>1.73</v>
       </c>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -24709,6 +26263,13 @@
       <c r="AK191" t="n">
         <v>1.53</v>
       </c>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -24830,6 +26391,13 @@
       <c r="AK192" t="n">
         <v>1.53</v>
       </c>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -24959,6 +26527,13 @@
       <c r="AK193" t="n">
         <v>1.53</v>
       </c>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -25088,6 +26663,13 @@
       <c r="AK194" t="n">
         <v>1.53</v>
       </c>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -25209,6 +26791,13 @@
       <c r="AK195" t="n">
         <v>1.53</v>
       </c>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -25337,6 +26926,13 @@
       </c>
       <c r="AK196" t="n">
         <v>1.44</v>
+      </c>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -25443,6 +27039,13 @@
       <c r="AK197" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -25572,6 +27175,13 @@
       <c r="AK198" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -25701,6 +27311,13 @@
       <c r="AK199" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -25826,6 +27443,13 @@
       <c r="AK200" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -25951,6 +27575,13 @@
       <c r="AK201" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -26080,6 +27711,13 @@
       <c r="AK202" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -26209,6 +27847,13 @@
       <c r="AK203" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -26338,6 +27983,13 @@
       <c r="AK204" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -26467,6 +28119,13 @@
       <c r="AK205" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -26596,6 +28255,13 @@
       <c r="AK206" t="n">
         <v>1.36</v>
       </c>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -26725,6 +28391,13 @@
       <c r="AK207" t="n">
         <v>1.36</v>
       </c>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -26854,6 +28527,13 @@
       <c r="AK208" t="n">
         <v>1.36</v>
       </c>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -26983,6 +28663,13 @@
       <c r="AK209" t="n">
         <v>1.36</v>
       </c>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -27112,6 +28799,13 @@
       <c r="AK210" t="n">
         <v>1.36</v>
       </c>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -27241,6 +28935,13 @@
       <c r="AK211" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -27362,6 +29063,13 @@
       <c r="AK212" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -27491,6 +29199,13 @@
       <c r="AK213" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -27620,6 +29335,13 @@
       <c r="AK214" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -27749,6 +29471,13 @@
       <c r="AK215" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -27877,6 +29606,13 @@
       </c>
       <c r="AK216" t="n">
         <v>1.44</v>
+      </c>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -27983,6 +29719,13 @@
       <c r="AK217" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -28112,6 +29855,13 @@
       <c r="AK218" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -28233,6 +29983,13 @@
       <c r="AK219" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -28354,6 +30111,13 @@
       <c r="AK220" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -28483,6 +30247,13 @@
       <c r="AK221" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -28612,6 +30383,13 @@
       <c r="AK222" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -28741,6 +30519,13 @@
       <c r="AK223" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -28870,6 +30655,13 @@
       <c r="AK224" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -28999,6 +30791,13 @@
       <c r="AK225" t="n">
         <v>1.29</v>
       </c>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -29128,6 +30927,13 @@
       <c r="AK226" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -29257,6 +31063,13 @@
       <c r="AK227" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -29386,6 +31199,13 @@
       <c r="AK228" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -29515,6 +31335,13 @@
       <c r="AK229" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -29644,6 +31471,13 @@
       <c r="AK230" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -29773,6 +31607,17 @@
       <c r="AK231" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN231" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -29902,6 +31747,17 @@
       <c r="AK232" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN232" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -30031,6 +31887,17 @@
       <c r="AK233" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN233" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -30160,6 +32027,17 @@
       <c r="AK234" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN234" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -30289,6 +32167,17 @@
       <c r="AK235" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN235" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -30418,6 +32307,17 @@
       <c r="AK236" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -30547,6 +32447,17 @@
       <c r="AK237" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -30676,6 +32587,17 @@
       <c r="AK238" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -30805,6 +32727,17 @@
       <c r="AK239" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -30934,6 +32867,17 @@
       <c r="AK240" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -31063,6 +33007,17 @@
       <c r="AK241" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -31192,6 +33147,17 @@
       <c r="AK242" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN242" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -31321,6 +33287,17 @@
       <c r="AK243" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN243" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -31442,6 +33419,17 @@
       <c r="AK244" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL244" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN244" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -31571,6 +33559,17 @@
       <c r="AK245" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN245" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -31692,6 +33691,17 @@
       <c r="AK246" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN246" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -31813,6 +33823,17 @@
       <c r="AK247" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN247" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -31942,6 +33963,17 @@
       <c r="AK248" t="n">
         <v>1.3</v>
       </c>
+      <c r="AL248" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN248" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -32071,6 +34103,17 @@
       <c r="AK249" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN249" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -32192,6 +34235,17 @@
       <c r="AK250" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN250" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -32321,6 +34375,17 @@
       <c r="AK251" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN251" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -32450,6 +34515,17 @@
       <c r="AK252" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN252" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -32579,6 +34655,17 @@
       <c r="AK253" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -32700,6 +34787,17 @@
       <c r="AK254" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -32829,6 +34927,17 @@
       <c r="AK255" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -32958,6 +35067,17 @@
       <c r="AK256" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -33087,6 +35207,17 @@
       <c r="AK257" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -33208,6 +35339,17 @@
       <c r="AK258" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -33337,6 +35479,17 @@
       <c r="AK259" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -33466,6 +35619,17 @@
       <c r="AK260" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -33595,6 +35759,17 @@
       <c r="AK261" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -33716,6 +35891,17 @@
       <c r="AK262" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -33845,6 +36031,17 @@
       <c r="AK263" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -33970,6 +36167,17 @@
       <c r="AK264" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -34099,6 +36307,17 @@
       <c r="AK265" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN265" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -34228,6 +36447,17 @@
       <c r="AK266" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL266" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN266" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -34349,6 +36579,17 @@
       <c r="AK267" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN267" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -34478,6 +36719,17 @@
       <c r="AK268" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL268" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN268" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -34599,6 +36851,17 @@
       <c r="AK269" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN269" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -34728,6 +36991,17 @@
       <c r="AK270" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL270" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN270" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -34857,6 +37131,17 @@
       <c r="AK271" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN271" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -34986,6 +37271,17 @@
       <c r="AK272" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL272" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN272" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -35115,6 +37411,17 @@
       <c r="AK273" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN273" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -35244,6 +37551,17 @@
       <c r="AK274" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL274" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN274" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -35373,6 +37691,17 @@
       <c r="AK275" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN275" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -35502,6 +37831,17 @@
       <c r="AK276" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN276" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -35631,6 +37971,17 @@
       <c r="AK277" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN277" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -35760,6 +38111,17 @@
       <c r="AK278" t="n">
         <v>1.33</v>
       </c>
+      <c r="AL278" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN278" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -35889,6 +38251,13 @@
       <c r="AK279" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL279" t="inlineStr"/>
+      <c r="AM279" t="inlineStr"/>
+      <c r="AN279" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -36018,6 +38387,13 @@
       <c r="AK280" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL280" t="inlineStr"/>
+      <c r="AM280" t="inlineStr"/>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -36147,6 +38523,13 @@
       <c r="AK281" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL281" t="inlineStr"/>
+      <c r="AM281" t="inlineStr"/>
+      <c r="AN281" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -36276,6 +38659,13 @@
       <c r="AK282" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL282" t="inlineStr"/>
+      <c r="AM282" t="inlineStr"/>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -36397,6 +38787,13 @@
       <c r="AK283" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL283" t="inlineStr"/>
+      <c r="AM283" t="inlineStr"/>
+      <c r="AN283" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -36526,6 +38923,13 @@
       <c r="AK284" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL284" t="inlineStr"/>
+      <c r="AM284" t="inlineStr"/>
+      <c r="AN284" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -36655,6 +39059,13 @@
       <c r="AK285" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL285" t="inlineStr"/>
+      <c r="AM285" t="inlineStr"/>
+      <c r="AN285" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -36784,6 +39195,13 @@
       <c r="AK286" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL286" t="inlineStr"/>
+      <c r="AM286" t="inlineStr"/>
+      <c r="AN286" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -36913,6 +39331,13 @@
       <c r="AK287" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL287" t="inlineStr"/>
+      <c r="AM287" t="inlineStr"/>
+      <c r="AN287" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -37042,6 +39467,13 @@
       <c r="AK288" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL288" t="inlineStr"/>
+      <c r="AM288" t="inlineStr"/>
+      <c r="AN288" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -37171,6 +39603,13 @@
       <c r="AK289" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL289" t="inlineStr"/>
+      <c r="AM289" t="inlineStr"/>
+      <c r="AN289" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -37292,6 +39731,13 @@
       <c r="AK290" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL290" t="inlineStr"/>
+      <c r="AM290" t="inlineStr"/>
+      <c r="AN290" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -37413,6 +39859,13 @@
       <c r="AK291" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL291" t="inlineStr"/>
+      <c r="AM291" t="inlineStr"/>
+      <c r="AN291" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -37542,6 +39995,13 @@
       <c r="AK292" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL292" t="inlineStr"/>
+      <c r="AM292" t="inlineStr"/>
+      <c r="AN292" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -37663,6 +40123,13 @@
       <c r="AK293" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL293" t="inlineStr"/>
+      <c r="AM293" t="inlineStr"/>
+      <c r="AN293" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -37792,6 +40259,13 @@
       <c r="AK294" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL294" t="inlineStr"/>
+      <c r="AM294" t="inlineStr"/>
+      <c r="AN294" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -37921,6 +40395,13 @@
       <c r="AK295" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL295" t="inlineStr"/>
+      <c r="AM295" t="inlineStr"/>
+      <c r="AN295" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -38042,6 +40523,13 @@
       <c r="AK296" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL296" t="inlineStr"/>
+      <c r="AM296" t="inlineStr"/>
+      <c r="AN296" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -38171,6 +40659,13 @@
       <c r="AK297" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL297" t="inlineStr"/>
+      <c r="AM297" t="inlineStr"/>
+      <c r="AN297" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -38300,6 +40795,13 @@
       <c r="AK298" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL298" t="inlineStr"/>
+      <c r="AM298" t="inlineStr"/>
+      <c r="AN298" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -38429,6 +40931,13 @@
       <c r="AK299" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL299" t="inlineStr"/>
+      <c r="AM299" t="inlineStr"/>
+      <c r="AN299" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -38554,6 +41063,13 @@
       <c r="AK300" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL300" t="inlineStr"/>
+      <c r="AM300" t="inlineStr"/>
+      <c r="AN300" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -38683,6 +41199,13 @@
       <c r="AK301" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL301" t="inlineStr"/>
+      <c r="AM301" t="inlineStr"/>
+      <c r="AN301" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -38812,6 +41335,13 @@
       <c r="AK302" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL302" t="inlineStr"/>
+      <c r="AM302" t="inlineStr"/>
+      <c r="AN302" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -38941,6 +41471,13 @@
       <c r="AK303" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL303" t="inlineStr"/>
+      <c r="AM303" t="inlineStr"/>
+      <c r="AN303" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -39070,6 +41607,13 @@
       <c r="AK304" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL304" t="inlineStr"/>
+      <c r="AM304" t="inlineStr"/>
+      <c r="AN304" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -39199,6 +41743,13 @@
       <c r="AK305" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL305" t="inlineStr"/>
+      <c r="AM305" t="inlineStr"/>
+      <c r="AN305" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -39328,6 +41879,13 @@
       <c r="AK306" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL306" t="inlineStr"/>
+      <c r="AM306" t="inlineStr"/>
+      <c r="AN306" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -39449,6 +42007,13 @@
       <c r="AK307" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL307" t="inlineStr"/>
+      <c r="AM307" t="inlineStr"/>
+      <c r="AN307" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -39578,6 +42143,13 @@
       <c r="AK308" t="n">
         <v>1.12</v>
       </c>
+      <c r="AL308" t="inlineStr"/>
+      <c r="AM308" t="inlineStr"/>
+      <c r="AN308" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -39707,6 +42279,13 @@
       <c r="AK309" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL309" t="inlineStr"/>
+      <c r="AM309" t="inlineStr"/>
+      <c r="AN309" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -39836,6 +42415,13 @@
       <c r="AK310" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL310" t="inlineStr"/>
+      <c r="AM310" t="inlineStr"/>
+      <c r="AN310" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -39965,6 +42551,13 @@
       <c r="AK311" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL311" t="inlineStr"/>
+      <c r="AM311" t="inlineStr"/>
+      <c r="AN311" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -40094,6 +42687,13 @@
       <c r="AK312" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL312" t="inlineStr"/>
+      <c r="AM312" t="inlineStr"/>
+      <c r="AN312" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -40223,6 +42823,13 @@
       <c r="AK313" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
+      <c r="AN313" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -40344,6 +42951,13 @@
       <c r="AK314" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL314" t="inlineStr"/>
+      <c r="AM314" t="inlineStr"/>
+      <c r="AN314" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -40473,6 +43087,13 @@
       <c r="AK315" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL315" t="inlineStr"/>
+      <c r="AM315" t="inlineStr"/>
+      <c r="AN315" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -40602,6 +43223,13 @@
       <c r="AK316" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL316" t="inlineStr"/>
+      <c r="AM316" t="inlineStr"/>
+      <c r="AN316" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -40731,6 +43359,13 @@
       <c r="AK317" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL317" t="inlineStr"/>
+      <c r="AM317" t="inlineStr"/>
+      <c r="AN317" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -40860,6 +43495,13 @@
       <c r="AK318" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL318" t="inlineStr"/>
+      <c r="AM318" t="inlineStr"/>
+      <c r="AN318" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -40989,6 +43631,13 @@
       <c r="AK319" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL319" t="inlineStr"/>
+      <c r="AM319" t="inlineStr"/>
+      <c r="AN319" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -41110,6 +43759,13 @@
       <c r="AK320" t="n">
         <v>1.25</v>
       </c>
+      <c r="AL320" t="inlineStr"/>
+      <c r="AM320" t="inlineStr"/>
+      <c r="AN320" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -41239,6 +43895,13 @@
       <c r="AK321" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL321" t="inlineStr"/>
+      <c r="AM321" t="inlineStr"/>
+      <c r="AN321" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -41368,6 +44031,13 @@
       <c r="AK322" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL322" t="inlineStr"/>
+      <c r="AM322" t="inlineStr"/>
+      <c r="AN322" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -41497,6 +44167,13 @@
       <c r="AK323" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL323" t="inlineStr"/>
+      <c r="AM323" t="inlineStr"/>
+      <c r="AN323" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -41622,6 +44299,13 @@
       <c r="AK324" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL324" t="inlineStr"/>
+      <c r="AM324" t="inlineStr"/>
+      <c r="AN324" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -41751,6 +44435,13 @@
       <c r="AK325" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL325" t="inlineStr"/>
+      <c r="AM325" t="inlineStr"/>
+      <c r="AN325" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -41880,6 +44571,13 @@
       <c r="AK326" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL326" t="inlineStr"/>
+      <c r="AM326" t="inlineStr"/>
+      <c r="AN326" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -42009,6 +44707,13 @@
       <c r="AK327" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL327" t="inlineStr"/>
+      <c r="AM327" t="inlineStr"/>
+      <c r="AN327" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -42138,6 +44843,13 @@
       <c r="AK328" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL328" t="inlineStr"/>
+      <c r="AM328" t="inlineStr"/>
+      <c r="AN328" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -42267,6 +44979,13 @@
       <c r="AK329" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL329" t="inlineStr"/>
+      <c r="AM329" t="inlineStr"/>
+      <c r="AN329" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -42396,6 +45115,13 @@
       <c r="AK330" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL330" t="inlineStr"/>
+      <c r="AM330" t="inlineStr"/>
+      <c r="AN330" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -42525,6 +45251,13 @@
       <c r="AK331" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL331" t="inlineStr"/>
+      <c r="AM331" t="inlineStr"/>
+      <c r="AN331" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -42654,6 +45387,13 @@
       <c r="AK332" t="n">
         <v>1.18</v>
       </c>
+      <c r="AL332" t="inlineStr"/>
+      <c r="AM332" t="inlineStr"/>
+      <c r="AN332" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -42775,6 +45515,13 @@
       <c r="AK333" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL333" t="inlineStr"/>
+      <c r="AM333" t="inlineStr"/>
+      <c r="AN333" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -42904,6 +45651,13 @@
       <c r="AK334" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL334" t="inlineStr"/>
+      <c r="AM334" t="inlineStr"/>
+      <c r="AN334" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -43025,6 +45779,13 @@
       <c r="AK335" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL335" t="inlineStr"/>
+      <c r="AM335" t="inlineStr"/>
+      <c r="AN335" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -43154,6 +45915,13 @@
       <c r="AK336" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL336" t="inlineStr"/>
+      <c r="AM336" t="inlineStr"/>
+      <c r="AN336" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -43283,6 +46051,13 @@
       <c r="AK337" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL337" t="inlineStr"/>
+      <c r="AM337" t="inlineStr"/>
+      <c r="AN337" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -43412,6 +46187,13 @@
       <c r="AK338" t="n">
         <v>1.22</v>
       </c>
+      <c r="AL338" t="inlineStr"/>
+      <c r="AM338" t="inlineStr"/>
+      <c r="AN338" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -43541,6 +46323,13 @@
       <c r="AK339" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL339" t="inlineStr"/>
+      <c r="AM339" t="inlineStr"/>
+      <c r="AN339" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -43670,6 +46459,13 @@
       <c r="AK340" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL340" t="inlineStr"/>
+      <c r="AM340" t="inlineStr"/>
+      <c r="AN340" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -43799,6 +46595,13 @@
       <c r="AK341" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL341" t="inlineStr"/>
+      <c r="AM341" t="inlineStr"/>
+      <c r="AN341" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -43928,6 +46731,13 @@
       <c r="AK342" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL342" t="inlineStr"/>
+      <c r="AM342" t="inlineStr"/>
+      <c r="AN342" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -44057,6 +46867,13 @@
       <c r="AK343" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL343" t="inlineStr"/>
+      <c r="AM343" t="inlineStr"/>
+      <c r="AN343" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -44186,6 +47003,13 @@
       <c r="AK344" t="n">
         <v>1.17</v>
       </c>
+      <c r="AL344" t="inlineStr"/>
+      <c r="AM344" t="inlineStr"/>
+      <c r="AN344" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -44315,6 +47139,13 @@
       <c r="AK345" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL345" t="inlineStr"/>
+      <c r="AM345" t="inlineStr"/>
+      <c r="AN345" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -44444,6 +47275,13 @@
       <c r="AK346" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL346" t="inlineStr"/>
+      <c r="AM346" t="inlineStr"/>
+      <c r="AN346" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -44573,6 +47411,13 @@
       <c r="AK347" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL347" t="inlineStr"/>
+      <c r="AM347" t="inlineStr"/>
+      <c r="AN347" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -44698,6 +47543,13 @@
       <c r="AK348" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL348" t="inlineStr"/>
+      <c r="AM348" t="inlineStr"/>
+      <c r="AN348" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -44827,6 +47679,13 @@
       <c r="AK349" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL349" t="inlineStr"/>
+      <c r="AM349" t="inlineStr"/>
+      <c r="AN349" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -44956,6 +47815,13 @@
       <c r="AK350" t="n">
         <v>1.2</v>
       </c>
+      <c r="AL350" t="inlineStr"/>
+      <c r="AM350" t="inlineStr"/>
+      <c r="AN350" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -45085,6 +47951,13 @@
       <c r="AK351" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL351" t="inlineStr"/>
+      <c r="AM351" t="inlineStr"/>
+      <c r="AN351" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -45214,6 +48087,13 @@
       <c r="AK352" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL352" t="inlineStr"/>
+      <c r="AM352" t="inlineStr"/>
+      <c r="AN352" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -45343,6 +48223,13 @@
       <c r="AK353" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL353" t="inlineStr"/>
+      <c r="AM353" t="inlineStr"/>
+      <c r="AN353" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -45472,6 +48359,13 @@
       <c r="AK354" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL354" t="inlineStr"/>
+      <c r="AM354" t="inlineStr"/>
+      <c r="AN354" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -45601,6 +48495,13 @@
       <c r="AK355" t="n">
         <v>1.44</v>
       </c>
+      <c r="AL355" t="inlineStr"/>
+      <c r="AM355" t="inlineStr"/>
+      <c r="AN355" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -45721,6 +48622,13 @@
       </c>
       <c r="AK356" t="n">
         <v>1.44</v>
+      </c>
+      <c r="AL356" t="inlineStr"/>
+      <c r="AM356" t="inlineStr"/>
+      <c r="AN356" t="inlineStr">
+        <is>
+          <t>nostarted</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -2439,11 +2439,15 @@
       <c r="AK14" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2</v>
+      </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2575,11 +2579,15 @@
       <c r="AK15" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2</v>
+      </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2711,11 +2719,15 @@
       <c r="AK16" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2</v>
+      </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2847,11 +2859,15 @@
       <c r="AK17" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2</v>
+      </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2983,11 +2999,15 @@
       <c r="AK18" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3119,11 +3139,15 @@
       <c r="AK19" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3279,15 @@
       <c r="AK20" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3391,11 +3419,15 @@
       <c r="AK21" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3519,11 +3551,15 @@
       <c r="AK22" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3647,11 +3683,15 @@
       <c r="AK23" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>2</v>
+      </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3823,15 @@
       <c r="AK24" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>3</v>
+      </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3915,11 +3959,15 @@
       <c r="AK25" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>3</v>
+      </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4051,11 +4099,15 @@
       <c r="AK26" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3</v>
+      </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4187,11 +4239,15 @@
       <c r="AK27" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>3</v>
+      </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4379,15 @@
       <c r="AK28" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>3</v>
+      </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4459,11 +4519,15 @@
       <c r="AK29" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4595,11 +4659,15 @@
       <c r="AK30" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4723,11 +4791,15 @@
       <c r="AK31" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4859,11 +4931,15 @@
       <c r="AK32" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4987,11 +5063,15 @@
       <c r="AK33" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5123,11 +5203,15 @@
       <c r="AK34" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5235,11 +5319,15 @@
       <c r="AK35" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5371,11 +5459,15 @@
       <c r="AK36" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5507,11 +5599,15 @@
       <c r="AK37" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5643,11 +5739,15 @@
       <c r="AK38" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5775,11 +5875,15 @@
       <c r="AK39" t="n">
         <v>2</v>
       </c>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5887,11 +5991,15 @@
       <c r="AK40" t="n">
         <v>2</v>
       </c>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6023,11 +6131,15 @@
       <c r="AK41" t="n">
         <v>2</v>
       </c>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6159,11 +6271,15 @@
       <c r="AK42" t="n">
         <v>2</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="AL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1</v>
+      </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6287,11 +6403,15 @@
       <c r="AK43" t="n">
         <v>2</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6423,11 +6543,15 @@
       <c r="AK44" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6535,11 +6659,15 @@
       <c r="AK45" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6671,11 +6799,15 @@
       <c r="AK46" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6807,11 +6939,15 @@
       <c r="AK47" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
+      <c r="AL47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6935,11 +7071,15 @@
       <c r="AK48" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1</v>
+      </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7071,11 +7211,15 @@
       <c r="AK49" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
+      <c r="AL49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7183,11 +7327,15 @@
       <c r="AK50" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
+      <c r="AL50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7311,11 +7459,15 @@
       <c r="AK51" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7439,11 +7591,15 @@
       <c r="AK52" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7575,11 +7731,15 @@
       <c r="AK53" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
+      <c r="AL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7703,11 +7863,15 @@
       <c r="AK54" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7839,11 +8003,15 @@
       <c r="AK55" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
+      <c r="AL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7975,11 +8143,15 @@
       <c r="AK56" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8111,11 +8283,15 @@
       <c r="AK57" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8239,11 +8415,15 @@
       <c r="AK58" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8375,11 +8555,15 @@
       <c r="AK59" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8511,11 +8695,15 @@
       <c r="AK60" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8647,11 +8835,15 @@
       <c r="AK61" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8783,11 +8975,15 @@
       <c r="AK62" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8915,11 +9111,15 @@
       <c r="AK63" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9051,11 +9251,15 @@
       <c r="AK64" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
+      <c r="AL64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1</v>
+      </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9187,11 +9391,15 @@
       <c r="AK65" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1</v>
+      </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9323,11 +9531,15 @@
       <c r="AK66" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
+      <c r="AL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1</v>
+      </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9459,11 +9671,15 @@
       <c r="AK67" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
+      <c r="AL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1</v>
+      </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9595,11 +9811,15 @@
       <c r="AK68" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
+      <c r="AL68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1</v>
+      </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9731,11 +9951,15 @@
       <c r="AK69" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
+      <c r="AL69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1</v>
+      </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9867,11 +10091,15 @@
       <c r="AK70" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
+      <c r="AL70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1</v>
+      </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10003,11 +10231,15 @@
       <c r="AK71" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
+      <c r="AL71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1</v>
+      </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10139,11 +10371,15 @@
       <c r="AK72" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
+      <c r="AL72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1</v>
+      </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10267,11 +10503,15 @@
       <c r="AK73" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1</v>
+      </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10395,11 +10635,15 @@
       <c r="AK74" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
+      <c r="AL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1</v>
+      </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10531,11 +10775,15 @@
       <c r="AK75" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr"/>
+      <c r="AL75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1</v>
+      </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10663,11 +10911,15 @@
       <c r="AK76" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
+      <c r="AL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1</v>
+      </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10799,11 +11051,15 @@
       <c r="AK77" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
+      <c r="AL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1</v>
+      </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10935,11 +11191,15 @@
       <c r="AK78" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
+      <c r="AL78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1</v>
+      </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11071,11 +11331,15 @@
       <c r="AK79" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
+      <c r="AL79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1</v>
+      </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11207,11 +11471,15 @@
       <c r="AK80" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
+      <c r="AL80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1</v>
+      </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11335,11 +11603,15 @@
       <c r="AK81" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
+      <c r="AL81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1</v>
+      </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11471,11 +11743,15 @@
       <c r="AK82" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
+      <c r="AL82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1</v>
+      </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11607,11 +11883,15 @@
       <c r="AK83" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
+      <c r="AL83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1</v>
+      </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11739,11 +12019,15 @@
       <c r="AK84" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
+      <c r="AL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>3</v>
+      </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11851,11 +12135,15 @@
       <c r="AK85" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>3</v>
+      </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11979,11 +12267,15 @@
       <c r="AK86" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>3</v>
+      </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12111,11 +12403,15 @@
       <c r="AK87" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>3</v>
+      </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12243,11 +12539,15 @@
       <c r="AK88" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3</v>
+      </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12371,11 +12671,15 @@
       <c r="AK89" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
+      <c r="AL89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1</v>
+      </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12507,11 +12811,15 @@
       <c r="AK90" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
+      <c r="AL90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1</v>
+      </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12643,11 +12951,15 @@
       <c r="AK91" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
+      <c r="AL91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1</v>
+      </c>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12779,11 +13091,15 @@
       <c r="AK92" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
+      <c r="AL92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1</v>
+      </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12915,11 +13231,15 @@
       <c r="AK93" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
+      <c r="AL93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1</v>
+      </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13883,11 +14203,15 @@
       <c r="AK100" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
+      <c r="AL100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1</v>
+      </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14019,11 +14343,15 @@
       <c r="AK101" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL101" t="inlineStr"/>
-      <c r="AM101" t="inlineStr"/>
+      <c r="AL101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1</v>
+      </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14155,11 +14483,15 @@
       <c r="AK102" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
+      <c r="AL102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1</v>
+      </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14291,11 +14623,15 @@
       <c r="AK103" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
+      <c r="AL103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1</v>
+      </c>
       <c r="AN103" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14423,11 +14759,15 @@
       <c r="AK104" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
+      <c r="AL104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1</v>
+      </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19567,11 +19907,15 @@
       <c r="AK141" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL141" t="inlineStr"/>
-      <c r="AM141" t="inlineStr"/>
+      <c r="AL141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1</v>
+      </c>
       <c r="AN141" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19703,11 +20047,15 @@
       <c r="AK142" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
+      <c r="AL142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1</v>
+      </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19839,11 +20187,15 @@
       <c r="AK143" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL143" t="inlineStr"/>
-      <c r="AM143" t="inlineStr"/>
+      <c r="AL143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1</v>
+      </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19975,11 +20327,15 @@
       <c r="AK144" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL144" t="inlineStr"/>
-      <c r="AM144" t="inlineStr"/>
+      <c r="AL144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1</v>
+      </c>
       <c r="AN144" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20111,11 +20467,15 @@
       <c r="AK145" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL145" t="inlineStr"/>
-      <c r="AM145" t="inlineStr"/>
+      <c r="AL145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1</v>
+      </c>
       <c r="AN145" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20239,11 +20599,15 @@
       <c r="AK146" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL146" t="inlineStr"/>
-      <c r="AM146" t="inlineStr"/>
+      <c r="AL146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1</v>
+      </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20367,11 +20731,15 @@
       <c r="AK147" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL147" t="inlineStr"/>
-      <c r="AM147" t="inlineStr"/>
+      <c r="AL147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1</v>
+      </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20503,11 +20871,15 @@
       <c r="AK148" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL148" t="inlineStr"/>
-      <c r="AM148" t="inlineStr"/>
+      <c r="AL148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1</v>
+      </c>
       <c r="AN148" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20639,11 +21011,15 @@
       <c r="AK149" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL149" t="inlineStr"/>
-      <c r="AM149" t="inlineStr"/>
+      <c r="AL149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1</v>
+      </c>
       <c r="AN149" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20775,11 +21151,15 @@
       <c r="AK150" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL150" t="inlineStr"/>
-      <c r="AM150" t="inlineStr"/>
+      <c r="AL150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1</v>
+      </c>
       <c r="AN150" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20911,11 +21291,15 @@
       <c r="AK151" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL151" t="inlineStr"/>
-      <c r="AM151" t="inlineStr"/>
+      <c r="AL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1</v>
+      </c>
       <c r="AN151" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21047,11 +21431,15 @@
       <c r="AK152" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL152" t="inlineStr"/>
-      <c r="AM152" t="inlineStr"/>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1</v>
+      </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21183,11 +21571,15 @@
       <c r="AK153" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL153" t="inlineStr"/>
-      <c r="AM153" t="inlineStr"/>
+      <c r="AL153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1</v>
+      </c>
       <c r="AN153" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21319,11 +21711,15 @@
       <c r="AK154" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL154" t="inlineStr"/>
-      <c r="AM154" t="inlineStr"/>
+      <c r="AL154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1</v>
+      </c>
       <c r="AN154" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21455,11 +21851,15 @@
       <c r="AK155" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL155" t="inlineStr"/>
-      <c r="AM155" t="inlineStr"/>
+      <c r="AL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1</v>
+      </c>
       <c r="AN155" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21591,11 +21991,15 @@
       <c r="AK156" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
+      <c r="AL156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
       <c r="AN156" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21727,11 +22131,15 @@
       <c r="AK157" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL157" t="inlineStr"/>
-      <c r="AM157" t="inlineStr"/>
+      <c r="AL157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21863,11 +22271,15 @@
       <c r="AK158" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL158" t="inlineStr"/>
-      <c r="AM158" t="inlineStr"/>
+      <c r="AL158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
       <c r="AN158" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21999,11 +22411,15 @@
       <c r="AK159" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL159" t="inlineStr"/>
-      <c r="AM159" t="inlineStr"/>
+      <c r="AL159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22135,11 +22551,15 @@
       <c r="AK160" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
+      <c r="AL160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>0</v>
+      </c>
       <c r="AN160" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22271,11 +22691,15 @@
       <c r="AK161" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL161" t="inlineStr"/>
-      <c r="AM161" t="inlineStr"/>
+      <c r="AL161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1</v>
+      </c>
       <c r="AN161" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22407,11 +22831,15 @@
       <c r="AK162" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL162" t="inlineStr"/>
-      <c r="AM162" t="inlineStr"/>
+      <c r="AL162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1</v>
+      </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22543,11 +22971,15 @@
       <c r="AK163" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL163" t="inlineStr"/>
-      <c r="AM163" t="inlineStr"/>
+      <c r="AL163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1</v>
+      </c>
       <c r="AN163" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22679,11 +23111,15 @@
       <c r="AK164" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL164" t="inlineStr"/>
-      <c r="AM164" t="inlineStr"/>
+      <c r="AL164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1</v>
+      </c>
       <c r="AN164" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22815,11 +23251,15 @@
       <c r="AK165" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL165" t="inlineStr"/>
-      <c r="AM165" t="inlineStr"/>
+      <c r="AL165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1</v>
+      </c>
       <c r="AN165" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22951,11 +23391,15 @@
       <c r="AK166" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL166" t="inlineStr"/>
-      <c r="AM166" t="inlineStr"/>
+      <c r="AL166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2</v>
+      </c>
       <c r="AN166" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23087,11 +23531,15 @@
       <c r="AK167" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL167" t="inlineStr"/>
-      <c r="AM167" t="inlineStr"/>
+      <c r="AL167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2</v>
+      </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23223,11 +23671,15 @@
       <c r="AK168" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL168" t="inlineStr"/>
-      <c r="AM168" t="inlineStr"/>
+      <c r="AL168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
       <c r="AN168" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23359,11 +23811,15 @@
       <c r="AK169" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL169" t="inlineStr"/>
-      <c r="AM169" t="inlineStr"/>
+      <c r="AL169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2</v>
+      </c>
       <c r="AN169" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23487,11 +23943,15 @@
       <c r="AK170" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL170" t="inlineStr"/>
-      <c r="AM170" t="inlineStr"/>
+      <c r="AL170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23615,11 +24075,15 @@
       <c r="AK171" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL171" t="inlineStr"/>
-      <c r="AM171" t="inlineStr"/>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
       <c r="AN171" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23743,11 +24207,15 @@
       <c r="AK172" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL172" t="inlineStr"/>
-      <c r="AM172" t="inlineStr"/>
+      <c r="AL172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23879,11 +24347,15 @@
       <c r="AK173" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL173" t="inlineStr"/>
-      <c r="AM173" t="inlineStr"/>
+      <c r="AL173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0</v>
+      </c>
       <c r="AN173" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24007,11 +24479,15 @@
       <c r="AK174" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL174" t="inlineStr"/>
-      <c r="AM174" t="inlineStr"/>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>0</v>
+      </c>
       <c r="AN174" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24135,11 +24611,15 @@
       <c r="AK175" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL175" t="inlineStr"/>
-      <c r="AM175" t="inlineStr"/>
+      <c r="AL175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0</v>
+      </c>
       <c r="AN175" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24271,11 +24751,15 @@
       <c r="AK176" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL176" t="inlineStr"/>
-      <c r="AM176" t="inlineStr"/>
+      <c r="AL176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1</v>
+      </c>
       <c r="AN176" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24407,11 +24891,15 @@
       <c r="AK177" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL177" t="inlineStr"/>
-      <c r="AM177" t="inlineStr"/>
+      <c r="AL177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1</v>
+      </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24543,11 +25031,15 @@
       <c r="AK178" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL178" t="inlineStr"/>
-      <c r="AM178" t="inlineStr"/>
+      <c r="AL178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1</v>
+      </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24679,11 +25171,15 @@
       <c r="AK179" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL179" t="inlineStr"/>
-      <c r="AM179" t="inlineStr"/>
+      <c r="AL179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1</v>
+      </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24815,11 +25311,15 @@
       <c r="AK180" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL180" t="inlineStr"/>
-      <c r="AM180" t="inlineStr"/>
+      <c r="AL180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1</v>
+      </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24947,11 +25447,15 @@
       <c r="AK181" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL181" t="inlineStr"/>
-      <c r="AM181" t="inlineStr"/>
+      <c r="AL181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>0</v>
+      </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25059,11 +25563,15 @@
       <c r="AK182" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL182" t="inlineStr"/>
-      <c r="AM182" t="inlineStr"/>
+      <c r="AL182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>0</v>
+      </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25195,11 +25703,15 @@
       <c r="AK183" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL183" t="inlineStr"/>
-      <c r="AM183" t="inlineStr"/>
+      <c r="AL183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>0</v>
+      </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25323,11 +25835,15 @@
       <c r="AK184" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL184" t="inlineStr"/>
-      <c r="AM184" t="inlineStr"/>
+      <c r="AL184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>0</v>
+      </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25459,11 +25975,15 @@
       <c r="AK185" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL185" t="inlineStr"/>
-      <c r="AM185" t="inlineStr"/>
+      <c r="AL185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>0</v>
+      </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25591,11 +26111,15 @@
       <c r="AK186" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL186" t="inlineStr"/>
-      <c r="AM186" t="inlineStr"/>
+      <c r="AL186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1</v>
+      </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25727,11 +26251,15 @@
       <c r="AK187" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL187" t="inlineStr"/>
-      <c r="AM187" t="inlineStr"/>
+      <c r="AL187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1</v>
+      </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25863,11 +26391,15 @@
       <c r="AK188" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL188" t="inlineStr"/>
-      <c r="AM188" t="inlineStr"/>
+      <c r="AL188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1</v>
+      </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25999,11 +26531,15 @@
       <c r="AK189" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL189" t="inlineStr"/>
-      <c r="AM189" t="inlineStr"/>
+      <c r="AL189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1</v>
+      </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26127,11 +26663,15 @@
       <c r="AK190" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL190" t="inlineStr"/>
-      <c r="AM190" t="inlineStr"/>
+      <c r="AL190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1</v>
+      </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26263,11 +26803,15 @@
       <c r="AK191" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL191" t="inlineStr"/>
-      <c r="AM191" t="inlineStr"/>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1</v>
+      </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26391,11 +26935,15 @@
       <c r="AK192" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL192" t="inlineStr"/>
-      <c r="AM192" t="inlineStr"/>
+      <c r="AL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1</v>
+      </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26527,11 +27075,15 @@
       <c r="AK193" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL193" t="inlineStr"/>
-      <c r="AM193" t="inlineStr"/>
+      <c r="AL193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1</v>
+      </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26663,11 +27215,15 @@
       <c r="AK194" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL194" t="inlineStr"/>
-      <c r="AM194" t="inlineStr"/>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1</v>
+      </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26791,11 +27347,15 @@
       <c r="AK195" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL195" t="inlineStr"/>
-      <c r="AM195" t="inlineStr"/>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1</v>
+      </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26927,11 +27487,15 @@
       <c r="AK196" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL196" t="inlineStr"/>
-      <c r="AM196" t="inlineStr"/>
+      <c r="AL196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>0</v>
+      </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27039,11 +27603,15 @@
       <c r="AK197" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL197" t="inlineStr"/>
-      <c r="AM197" t="inlineStr"/>
+      <c r="AL197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>0</v>
+      </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27175,11 +27743,15 @@
       <c r="AK198" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL198" t="inlineStr"/>
-      <c r="AM198" t="inlineStr"/>
+      <c r="AL198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0</v>
+      </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27311,11 +27883,15 @@
       <c r="AK199" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL199" t="inlineStr"/>
-      <c r="AM199" t="inlineStr"/>
+      <c r="AL199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27443,11 +28019,15 @@
       <c r="AK200" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL200" t="inlineStr"/>
-      <c r="AM200" t="inlineStr"/>
+      <c r="AL200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27575,11 +28155,15 @@
       <c r="AK201" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL201" t="inlineStr"/>
-      <c r="AM201" t="inlineStr"/>
+      <c r="AL201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1</v>
+      </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27711,11 +28295,15 @@
       <c r="AK202" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL202" t="inlineStr"/>
-      <c r="AM202" t="inlineStr"/>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1</v>
+      </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27847,11 +28435,15 @@
       <c r="AK203" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL203" t="inlineStr"/>
-      <c r="AM203" t="inlineStr"/>
+      <c r="AL203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1</v>
+      </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27983,11 +28575,15 @@
       <c r="AK204" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL204" t="inlineStr"/>
-      <c r="AM204" t="inlineStr"/>
+      <c r="AL204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1</v>
+      </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28119,11 +28715,15 @@
       <c r="AK205" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL205" t="inlineStr"/>
-      <c r="AM205" t="inlineStr"/>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1</v>
+      </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28255,11 +28855,15 @@
       <c r="AK206" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL206" t="inlineStr"/>
-      <c r="AM206" t="inlineStr"/>
+      <c r="AL206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2</v>
+      </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28391,11 +28995,15 @@
       <c r="AK207" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL207" t="inlineStr"/>
-      <c r="AM207" t="inlineStr"/>
+      <c r="AL207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2</v>
+      </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28527,11 +29135,15 @@
       <c r="AK208" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL208" t="inlineStr"/>
-      <c r="AM208" t="inlineStr"/>
+      <c r="AL208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2</v>
+      </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28663,11 +29275,15 @@
       <c r="AK209" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL209" t="inlineStr"/>
-      <c r="AM209" t="inlineStr"/>
+      <c r="AL209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2</v>
+      </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28799,11 +29415,15 @@
       <c r="AK210" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL210" t="inlineStr"/>
-      <c r="AM210" t="inlineStr"/>
+      <c r="AL210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2</v>
+      </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28935,11 +29555,15 @@
       <c r="AK211" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL211" t="inlineStr"/>
-      <c r="AM211" t="inlineStr"/>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1</v>
+      </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29063,11 +29687,15 @@
       <c r="AK212" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL212" t="inlineStr"/>
-      <c r="AM212" t="inlineStr"/>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1</v>
+      </c>
       <c r="AN212" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29199,11 +29827,15 @@
       <c r="AK213" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL213" t="inlineStr"/>
-      <c r="AM213" t="inlineStr"/>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1</v>
+      </c>
       <c r="AN213" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29335,11 +29967,15 @@
       <c r="AK214" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL214" t="inlineStr"/>
-      <c r="AM214" t="inlineStr"/>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1</v>
+      </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29471,11 +30107,15 @@
       <c r="AK215" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL215" t="inlineStr"/>
-      <c r="AM215" t="inlineStr"/>
+      <c r="AL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1</v>
+      </c>
       <c r="AN215" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29607,11 +30247,15 @@
       <c r="AK216" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL216" t="inlineStr"/>
-      <c r="AM216" t="inlineStr"/>
+      <c r="AL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>0</v>
+      </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29719,11 +30363,15 @@
       <c r="AK217" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL217" t="inlineStr"/>
-      <c r="AM217" t="inlineStr"/>
+      <c r="AL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>0</v>
+      </c>
       <c r="AN217" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29855,11 +30503,15 @@
       <c r="AK218" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL218" t="inlineStr"/>
-      <c r="AM218" t="inlineStr"/>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>0</v>
+      </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29983,11 +30635,15 @@
       <c r="AK219" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL219" t="inlineStr"/>
-      <c r="AM219" t="inlineStr"/>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>0</v>
+      </c>
       <c r="AN219" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30111,11 +30767,15 @@
       <c r="AK220" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL220" t="inlineStr"/>
-      <c r="AM220" t="inlineStr"/>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>0</v>
+      </c>
       <c r="AN220" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30247,11 +30907,15 @@
       <c r="AK221" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL221" t="inlineStr"/>
-      <c r="AM221" t="inlineStr"/>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>0</v>
+      </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30383,11 +31047,15 @@
       <c r="AK222" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL222" t="inlineStr"/>
-      <c r="AM222" t="inlineStr"/>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>0</v>
+      </c>
       <c r="AN222" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30519,11 +31187,15 @@
       <c r="AK223" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL223" t="inlineStr"/>
-      <c r="AM223" t="inlineStr"/>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>0</v>
+      </c>
       <c r="AN223" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30655,11 +31327,15 @@
       <c r="AK224" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL224" t="inlineStr"/>
-      <c r="AM224" t="inlineStr"/>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>0</v>
+      </c>
       <c r="AN224" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30791,11 +31467,15 @@
       <c r="AK225" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL225" t="inlineStr"/>
-      <c r="AM225" t="inlineStr"/>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>0</v>
+      </c>
       <c r="AN225" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30927,11 +31607,15 @@
       <c r="AK226" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL226" t="inlineStr"/>
-      <c r="AM226" t="inlineStr"/>
+      <c r="AL226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1</v>
+      </c>
       <c r="AN226" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31063,11 +31747,15 @@
       <c r="AK227" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL227" t="inlineStr"/>
-      <c r="AM227" t="inlineStr"/>
+      <c r="AL227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1</v>
+      </c>
       <c r="AN227" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31199,11 +31887,15 @@
       <c r="AK228" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL228" t="inlineStr"/>
-      <c r="AM228" t="inlineStr"/>
+      <c r="AL228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1</v>
+      </c>
       <c r="AN228" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31335,11 +32027,15 @@
       <c r="AK229" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL229" t="inlineStr"/>
-      <c r="AM229" t="inlineStr"/>
+      <c r="AL229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1</v>
+      </c>
       <c r="AN229" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31471,11 +32167,15 @@
       <c r="AK230" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL230" t="inlineStr"/>
-      <c r="AM230" t="inlineStr"/>
+      <c r="AL230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1</v>
+      </c>
       <c r="AN230" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -2447,7 +2447,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="AN103" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AN105" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="AN106" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="AN108" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="AN109" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AN110" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="AN111" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="AN113" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AN114" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="AN115" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="AN118" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="AN135" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AN136" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="AN138" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="AN139" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="AN140" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="AN141" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="AN144" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="AN145" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="AN148" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="AN149" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       </c>
       <c r="AN150" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="AN151" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21439,7 +21439,7 @@
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="AN153" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="AN154" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="AN155" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="AN156" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22279,7 +22279,7 @@
       </c>
       <c r="AN158" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="AN160" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="AN161" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="AN163" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="AN164" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="AN165" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="AN166" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23679,7 +23679,7 @@
       </c>
       <c r="AN168" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="AN169" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="AN171" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="AN173" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="AN174" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="AN175" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="AN176" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25039,7 +25039,7 @@
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26259,7 +26259,7 @@
       </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26399,7 +26399,7 @@
       </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29003,7 +29003,7 @@
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29423,7 +29423,7 @@
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="AN212" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="AN213" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="AN215" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="AN217" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="AN219" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="AN220" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="AN222" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31195,7 +31195,7 @@
       </c>
       <c r="AN223" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="AN224" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="AN225" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31615,7 +31615,7 @@
       </c>
       <c r="AN226" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="AN227" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31895,7 +31895,7 @@
       </c>
       <c r="AN228" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="AN229" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32175,7 +32175,7 @@
       </c>
       <c r="AN230" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="AN237" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="AN238" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33855,7 +33855,7 @@
       </c>
       <c r="AN242" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AN243" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="AN244" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="AN245" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="AN246" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="AN247" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="AN248" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="AN249" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="AN250" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="AN252" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35363,7 +35363,7 @@
       </c>
       <c r="AN253" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="AN254" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="AN255" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="AN256" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="AN257" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36047,7 +36047,7 @@
       </c>
       <c r="AN258" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="AN259" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36327,7 +36327,7 @@
       </c>
       <c r="AN260" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37287,7 +37287,7 @@
       </c>
       <c r="AN267" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       </c>
       <c r="AN268" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37559,7 +37559,7 @@
       </c>
       <c r="AN269" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37839,7 +37839,7 @@
       </c>
       <c r="AN271" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="AN272" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       </c>
       <c r="AN273" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="AN274" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38399,7 +38399,7 @@
       </c>
       <c r="AN275" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="AN276" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38679,7 +38679,7 @@
       </c>
       <c r="AN277" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38819,7 +38819,7 @@
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38951,11 +38951,15 @@
       <c r="AK279" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL279" t="inlineStr"/>
-      <c r="AM279" t="inlineStr"/>
+      <c r="AL279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1</v>
+      </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39087,11 +39091,15 @@
       <c r="AK280" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL280" t="inlineStr"/>
-      <c r="AM280" t="inlineStr"/>
+      <c r="AL280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1</v>
+      </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39223,11 +39231,15 @@
       <c r="AK281" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL281" t="inlineStr"/>
-      <c r="AM281" t="inlineStr"/>
+      <c r="AL281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1</v>
+      </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39359,11 +39371,15 @@
       <c r="AK282" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL282" t="inlineStr"/>
-      <c r="AM282" t="inlineStr"/>
+      <c r="AL282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1</v>
+      </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39487,11 +39503,15 @@
       <c r="AK283" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL283" t="inlineStr"/>
-      <c r="AM283" t="inlineStr"/>
+      <c r="AL283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1</v>
+      </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39623,11 +39643,15 @@
       <c r="AK284" t="n">
         <v>1.18</v>
       </c>
-      <c r="AL284" t="inlineStr"/>
-      <c r="AM284" t="inlineStr"/>
+      <c r="AL284" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1</v>
+      </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39759,11 +39783,15 @@
       <c r="AK285" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL285" t="inlineStr"/>
-      <c r="AM285" t="inlineStr"/>
+      <c r="AL285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2</v>
+      </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39895,11 +39923,15 @@
       <c r="AK286" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL286" t="inlineStr"/>
-      <c r="AM286" t="inlineStr"/>
+      <c r="AL286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2</v>
+      </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40031,11 +40063,15 @@
       <c r="AK287" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL287" t="inlineStr"/>
-      <c r="AM287" t="inlineStr"/>
+      <c r="AL287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2</v>
+      </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40167,11 +40203,15 @@
       <c r="AK288" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL288" t="inlineStr"/>
-      <c r="AM288" t="inlineStr"/>
+      <c r="AL288" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2</v>
+      </c>
       <c r="AN288" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40303,11 +40343,15 @@
       <c r="AK289" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL289" t="inlineStr"/>
-      <c r="AM289" t="inlineStr"/>
+      <c r="AL289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>2</v>
+      </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40431,11 +40475,15 @@
       <c r="AK290" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL290" t="inlineStr"/>
-      <c r="AM290" t="inlineStr"/>
+      <c r="AL290" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2</v>
+      </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40559,11 +40607,15 @@
       <c r="AK291" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL291" t="inlineStr"/>
-      <c r="AM291" t="inlineStr"/>
+      <c r="AL291" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>0</v>
+      </c>
       <c r="AN291" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40695,11 +40747,15 @@
       <c r="AK292" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL292" t="inlineStr"/>
-      <c r="AM292" t="inlineStr"/>
+      <c r="AL292" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>0</v>
+      </c>
       <c r="AN292" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40823,11 +40879,15 @@
       <c r="AK293" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL293" t="inlineStr"/>
-      <c r="AM293" t="inlineStr"/>
+      <c r="AL293" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>0</v>
+      </c>
       <c r="AN293" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40959,11 +41019,15 @@
       <c r="AK294" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL294" t="inlineStr"/>
-      <c r="AM294" t="inlineStr"/>
+      <c r="AL294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>0</v>
+      </c>
       <c r="AN294" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41095,11 +41159,15 @@
       <c r="AK295" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL295" t="inlineStr"/>
-      <c r="AM295" t="inlineStr"/>
+      <c r="AL295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>0</v>
+      </c>
       <c r="AN295" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41223,11 +41291,15 @@
       <c r="AK296" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL296" t="inlineStr"/>
-      <c r="AM296" t="inlineStr"/>
+      <c r="AL296" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>0</v>
+      </c>
       <c r="AN296" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -48113,7 +48113,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B351" t="n">
         <v>390</v>
@@ -48141,10 +48141,14 @@
           <t>2025-10-11 16:00</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -48158,13 +48162,13 @@
         </is>
       </c>
       <c r="L351" t="n">
-        <v>0.3429659269431761</v>
+        <v>0.2011418822184691</v>
       </c>
       <c r="M351" t="n">
-        <v>0.3322993245014852</v>
+        <v>0.2907877178053431</v>
       </c>
       <c r="N351" t="n">
-        <v>0.3247347485553387</v>
+        <v>0.5080703999761879</v>
       </c>
       <c r="O351" t="n">
         <v>0.1020704514520514</v>
@@ -48245,7 +48249,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B352" t="n">
         <v>390</v>
@@ -48381,7 +48385,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B353" t="n">
         <v>390</v>
@@ -48517,7 +48521,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B354" t="n">
         <v>390</v>
@@ -48645,7 +48649,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B355" t="n">
         <v>390</v>
@@ -48781,7 +48785,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B356" t="n">
         <v>390</v>
@@ -48836,7 +48840,7 @@
         <v>0.3322993245014852</v>
       </c>
       <c r="N356" t="n">
-        <v>0.3247347485553387</v>
+        <v>0.3247347485553388</v>
       </c>
       <c r="O356" t="n">
         <v>0.1594213890890545</v>
@@ -48845,28 +48849,28 @@
         <v>0.8405786109109455</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.3438578129164602</v>
+        <v>0.3438578129164601</v>
       </c>
       <c r="R356" t="n">
-        <v>0.6561421870835398</v>
+        <v>0.6561421870835399</v>
       </c>
       <c r="S356" t="n">
-        <v>0.6069396571986343</v>
+        <v>0.6069396571986342</v>
       </c>
       <c r="T356" t="n">
-        <v>0.3930603428013657</v>
+        <v>0.3930603428013658</v>
       </c>
       <c r="U356" t="n">
         <v>0.7901421824726422</v>
       </c>
       <c r="V356" t="n">
-        <v>0.2098578175273577</v>
+        <v>0.2098578175273578</v>
       </c>
       <c r="W356" t="n">
-        <v>0.4526499008485075</v>
+        <v>0.4526499008485076</v>
       </c>
       <c r="X356" t="n">
-        <v>0.5473500991514925</v>
+        <v>0.5473500991514924</v>
       </c>
       <c r="Y356" t="n">
         <v>2.55</v>
@@ -48917,7 +48921,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B357" t="n">
         <v>325</v>
@@ -49053,7 +49057,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B358" t="n">
         <v>325</v>
@@ -49189,7 +49193,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B359" t="n">
         <v>325</v>
@@ -49325,7 +49329,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B360" t="n">
         <v>325</v>
@@ -49461,7 +49465,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B361" t="n">
         <v>325</v>
@@ -49589,7 +49593,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B362" t="n">
         <v>325</v>
@@ -49630,7 +49634,7 @@
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
-        <v>0.6506919052177617</v>
+        <v>0.6506919052177619</v>
       </c>
       <c r="M362" t="n">
         <v>0.2452004030999282</v>
@@ -49660,13 +49664,13 @@
         <v>0.607249393639822</v>
       </c>
       <c r="V362" t="n">
-        <v>0.392750606360178</v>
+        <v>0.3927506063601779</v>
       </c>
       <c r="W362" t="n">
-        <v>0.4158445681314062</v>
+        <v>0.4158445681314064</v>
       </c>
       <c r="X362" t="n">
-        <v>0.5841554318685938</v>
+        <v>0.5841554318685936</v>
       </c>
       <c r="Y362" t="n">
         <v>1.22</v>
@@ -49717,7 +49721,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B363" t="n">
         <v>390</v>
@@ -49745,10 +49749,14 @@
           <t>2025-10-12 16:00</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr"/>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -49762,13 +49770,13 @@
         </is>
       </c>
       <c r="L363" t="n">
-        <v>0.5503132402106192</v>
+        <v>0.6085261239854647</v>
       </c>
       <c r="M363" t="n">
-        <v>0.2444196178791189</v>
+        <v>0.243796652524204</v>
       </c>
       <c r="N363" t="n">
-        <v>0.2052671419102617</v>
+        <v>0.1476772234903314</v>
       </c>
       <c r="O363" t="n">
         <v>0.09485128740002835</v>
@@ -49849,7 +49857,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B364" t="n">
         <v>390</v>
@@ -49985,7 +49993,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B365" t="n">
         <v>390</v>
@@ -50121,7 +50129,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B366" t="n">
         <v>390</v>
@@ -50257,7 +50265,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B367" t="n">
         <v>390</v>
@@ -50393,7 +50401,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B368" t="n">
         <v>390</v>
@@ -50445,16 +50453,16 @@
         <v>0.5503132402106192</v>
       </c>
       <c r="M368" t="n">
-        <v>0.2444196178791189</v>
+        <v>0.244419617879119</v>
       </c>
       <c r="N368" t="n">
         <v>0.2052671419102617</v>
       </c>
       <c r="O368" t="n">
-        <v>0.09386840194002266</v>
+        <v>0.09386840194002277</v>
       </c>
       <c r="P368" t="n">
-        <v>0.9061315980599773</v>
+        <v>0.9061315980599772</v>
       </c>
       <c r="Q368" t="n">
         <v>0.2907946001345738</v>
@@ -50463,16 +50471,16 @@
         <v>0.7092053998654262</v>
       </c>
       <c r="S368" t="n">
-        <v>0.5601939395715148</v>
+        <v>0.5601939395715149</v>
       </c>
       <c r="T368" t="n">
-        <v>0.4398060604284853</v>
+        <v>0.4398060604284851</v>
       </c>
       <c r="U368" t="n">
-        <v>0.8389483496533512</v>
+        <v>0.8389483496533513</v>
       </c>
       <c r="V368" t="n">
-        <v>0.1610516503466488</v>
+        <v>0.1610516503466487</v>
       </c>
       <c r="W368" t="n">
         <v>0.5500981273529454</v>
@@ -50529,7 +50537,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B369" t="n">
         <v>390</v>
@@ -50557,10 +50565,14 @@
           <t>2025-10-12 18:30</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr"/>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -50574,13 +50586,13 @@
         </is>
       </c>
       <c r="L369" t="n">
-        <v>0.5032479285748984</v>
+        <v>0.5640704465102414</v>
       </c>
       <c r="M369" t="n">
-        <v>0.313933159221518</v>
+        <v>0.2690406285215215</v>
       </c>
       <c r="N369" t="n">
-        <v>0.1828189122035837</v>
+        <v>0.166888924968237</v>
       </c>
       <c r="O369" t="n">
         <v>0.06102815402948403</v>
@@ -50661,7 +50673,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B370" t="n">
         <v>390</v>
@@ -50797,7 +50809,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B371" t="n">
         <v>390</v>
@@ -50933,7 +50945,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B372" t="n">
         <v>390</v>
@@ -51061,7 +51073,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B373" t="n">
         <v>390</v>
@@ -51189,7 +51201,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B374" t="n">
         <v>390</v>
@@ -51230,31 +51242,31 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
-        <v>0.5032479285748984</v>
+        <v>0.5032479285748983</v>
       </c>
       <c r="M374" t="n">
-        <v>0.313933159221518</v>
+        <v>0.3139331592215179</v>
       </c>
       <c r="N374" t="n">
         <v>0.1828189122035837</v>
       </c>
       <c r="O374" t="n">
-        <v>0.03290281907865755</v>
+        <v>0.03290281907865744</v>
       </c>
       <c r="P374" t="n">
-        <v>0.9670971809213424</v>
+        <v>0.9670971809213426</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.368586231980446</v>
+        <v>0.3685862319804459</v>
       </c>
       <c r="R374" t="n">
-        <v>0.631413768019554</v>
+        <v>0.6314137680195541</v>
       </c>
       <c r="S374" t="n">
-        <v>0.5982532627776025</v>
+        <v>0.5982532627776024</v>
       </c>
       <c r="T374" t="n">
-        <v>0.4017467372223975</v>
+        <v>0.4017467372223976</v>
       </c>
       <c r="U374" t="n">
         <v>0.8273966579308216</v>
@@ -51263,10 +51275,10 @@
         <v>0.1726033420691783</v>
       </c>
       <c r="W374" t="n">
-        <v>0.5515892768954773</v>
+        <v>0.5515892768954772</v>
       </c>
       <c r="X374" t="n">
-        <v>0.4484107231045227</v>
+        <v>0.4484107231045228</v>
       </c>
       <c r="Y374" t="n">
         <v>1.91</v>
@@ -51317,7 +51329,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B375" t="n">
         <v>390</v>
@@ -51345,7 +51357,11 @@
           <t>2025-10-12 18:30</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I375" t="inlineStr">
         <is>
           <t>1-1</t>
@@ -51362,13 +51378,13 @@
         </is>
       </c>
       <c r="L375" t="n">
-        <v>0.4297381803308904</v>
+        <v>0.4093210062914372</v>
       </c>
       <c r="M375" t="n">
-        <v>0.3372471649105066</v>
+        <v>0.3678741805175928</v>
       </c>
       <c r="N375" t="n">
-        <v>0.233014654758603</v>
+        <v>0.2228048131909701</v>
       </c>
       <c r="O375" t="n">
         <v>0.13885858945712</v>
@@ -51449,7 +51465,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B376" t="n">
         <v>390</v>
@@ -51585,7 +51601,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B377" t="n">
         <v>390</v>
@@ -51721,7 +51737,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B378" t="n">
         <v>390</v>
@@ -51857,7 +51873,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B379" t="n">
         <v>390</v>
@@ -51993,7 +52009,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B380" t="n">
         <v>390</v>
@@ -52042,19 +52058,19 @@
         </is>
       </c>
       <c r="L380" t="n">
-        <v>0.4297381803308904</v>
+        <v>0.4297381803308905</v>
       </c>
       <c r="M380" t="n">
-        <v>0.3372471649105066</v>
+        <v>0.3372471649105065</v>
       </c>
       <c r="N380" t="n">
         <v>0.233014654758603</v>
       </c>
       <c r="O380" t="n">
-        <v>0.06509688016033366</v>
+        <v>0.06509688016033399</v>
       </c>
       <c r="P380" t="n">
-        <v>0.9349031198396663</v>
+        <v>0.934903119839666</v>
       </c>
       <c r="Q380" t="n">
         <v>0.2903066358449774</v>
@@ -52063,16 +52079,16 @@
         <v>0.7096933641550226</v>
       </c>
       <c r="S380" t="n">
-        <v>0.64783451056643</v>
+        <v>0.6478345105664303</v>
       </c>
       <c r="T380" t="n">
-        <v>0.3521654894335699</v>
+        <v>0.3521654894335697</v>
       </c>
       <c r="U380" t="n">
         <v>0.7887373925621955</v>
       </c>
       <c r="V380" t="n">
-        <v>0.2112626074378045</v>
+        <v>0.2112626074378044</v>
       </c>
       <c r="W380" t="n">
         <v>0.4400353883571009</v>
@@ -52129,7 +52145,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B381" t="n">
         <v>390</v>
@@ -52157,7 +52173,11 @@
           <t>2025-10-12 20:30</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr"/>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I381" t="inlineStr">
         <is>
           <t>1-1</t>
@@ -52174,13 +52194,13 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>0.4134723763376074</v>
+        <v>0.3783493792247689</v>
       </c>
       <c r="M381" t="n">
-        <v>0.2757685288000668</v>
+        <v>0.2850503593122609</v>
       </c>
       <c r="N381" t="n">
-        <v>0.3107590948623259</v>
+        <v>0.3366002614629702</v>
       </c>
       <c r="O381" t="n">
         <v>0.2527962945917361</v>
@@ -52261,7 +52281,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B382" t="n">
         <v>390</v>
@@ -52397,7 +52417,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B383" t="n">
         <v>390</v>
@@ -52525,7 +52545,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B384" t="n">
         <v>390</v>
@@ -52661,7 +52681,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B385" t="n">
         <v>390</v>
@@ -52797,7 +52817,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B386" t="n">
         <v>390</v>
@@ -52849,10 +52869,10 @@
         <v>0.4134723763376074</v>
       </c>
       <c r="M386" t="n">
-        <v>0.2757685288000668</v>
+        <v>0.2757685288000669</v>
       </c>
       <c r="N386" t="n">
-        <v>0.3107590948623259</v>
+        <v>0.3107590948623258</v>
       </c>
       <c r="O386" t="n">
         <v>0.07404933541947822</v>
@@ -52861,16 +52881,16 @@
         <v>0.9259506645805218</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.38127902680665</v>
+        <v>0.3812790268066502</v>
       </c>
       <c r="R386" t="n">
-        <v>0.61872097319335</v>
+        <v>0.6187209731933498</v>
       </c>
       <c r="S386" t="n">
-        <v>0.7120694267462799</v>
+        <v>0.7120694267462797</v>
       </c>
       <c r="T386" t="n">
-        <v>0.2879305732537201</v>
+        <v>0.2879305732537203</v>
       </c>
       <c r="U386" t="n">
         <v>0.8868522984459558</v>
@@ -52879,10 +52899,10 @@
         <v>0.1131477015540442</v>
       </c>
       <c r="W386" t="n">
-        <v>0.444325399565536</v>
+        <v>0.4443253995655359</v>
       </c>
       <c r="X386" t="n">
-        <v>0.555674600434464</v>
+        <v>0.5556746004344641</v>
       </c>
       <c r="Y386" t="n">
         <v>2.3</v>
@@ -52933,7 +52953,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B387" t="n">
         <v>390</v>
@@ -52961,7 +52981,11 @@
           <t>2025-10-13 19:00</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
       <c r="I387" t="inlineStr">
         <is>
           <t>1-1</t>
@@ -52978,13 +53002,13 @@
         </is>
       </c>
       <c r="L387" t="n">
-        <v>0.3815985662401618</v>
+        <v>0.2674762025986382</v>
       </c>
       <c r="M387" t="n">
-        <v>0.3334133461757773</v>
+        <v>0.3323066825251967</v>
       </c>
       <c r="N387" t="n">
-        <v>0.2849880875840612</v>
+        <v>0.4002171148761652</v>
       </c>
       <c r="O387" t="n">
         <v>0.143264303018712</v>
@@ -53065,7 +53089,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B388" t="n">
         <v>390</v>
@@ -53201,7 +53225,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B389" t="n">
         <v>390</v>
@@ -53337,7 +53361,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B390" t="n">
         <v>390</v>
@@ -53473,7 +53497,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B391" t="n">
         <v>390</v>
@@ -53609,7 +53633,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B392" t="n">
         <v>390</v>
@@ -53659,16 +53683,16 @@
         <v>0.2849880875840612</v>
       </c>
       <c r="O392" t="n">
-        <v>0.1444480827458108</v>
+        <v>0.1444480827458106</v>
       </c>
       <c r="P392" t="n">
-        <v>0.8555519172541892</v>
+        <v>0.8555519172541894</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.398928412299504</v>
+        <v>0.3989284122995038</v>
       </c>
       <c r="R392" t="n">
-        <v>0.601071587700496</v>
+        <v>0.6010715877004962</v>
       </c>
       <c r="S392" t="n">
         <v>0.593455876156892</v>
@@ -53683,10 +53707,10 @@
         <v>0.1497494045938861</v>
       </c>
       <c r="W392" t="n">
-        <v>0.4373463133143936</v>
+        <v>0.4373463133143933</v>
       </c>
       <c r="X392" t="n">
-        <v>0.5626536866856064</v>
+        <v>0.5626536866856067</v>
       </c>
       <c r="Y392" t="n">
         <v>2.5</v>
@@ -53737,7 +53761,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B393" t="n">
         <v>390</v>
@@ -53765,10 +53789,14 @@
           <t>2025-10-13 21:30</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr"/>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -53782,13 +53810,13 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>0.5792133233484629</v>
+        <v>0.4656075114594619</v>
       </c>
       <c r="M393" t="n">
-        <v>0.2324624955755505</v>
+        <v>0.2838489780337718</v>
       </c>
       <c r="N393" t="n">
-        <v>0.1883241810759867</v>
+        <v>0.2505435105067663</v>
       </c>
       <c r="O393" t="n">
         <v>0.09159665960081764</v>
@@ -53869,7 +53897,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B394" t="n">
         <v>390</v>
@@ -54005,7 +54033,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B395" t="n">
         <v>390</v>
@@ -54141,7 +54169,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B396" t="n">
         <v>390</v>
@@ -54277,7 +54305,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B397" t="n">
         <v>390</v>
@@ -54413,7 +54441,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B398" t="n">
         <v>390</v>
@@ -54468,13 +54496,13 @@
         <v>0.2324624955755505</v>
       </c>
       <c r="N398" t="n">
-        <v>0.1883241810759867</v>
+        <v>0.1883241810759868</v>
       </c>
       <c r="O398" t="n">
-        <v>0.05445591112131898</v>
+        <v>0.05445591112131876</v>
       </c>
       <c r="P398" t="n">
-        <v>0.945544088878681</v>
+        <v>0.9455440888786812</v>
       </c>
       <c r="Q398" t="n">
         <v>0.3258649482344571</v>
@@ -54495,10 +54523,10 @@
         <v>0.2331971554824679</v>
       </c>
       <c r="W398" t="n">
-        <v>0.4920442711405159</v>
+        <v>0.4920442711405158</v>
       </c>
       <c r="X398" t="n">
-        <v>0.507955728859484</v>
+        <v>0.5079557288594843</v>
       </c>
       <c r="Y398" t="n">
         <v>1.57</v>
@@ -54549,7 +54577,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B399" t="n">
         <v>390</v>
@@ -54577,10 +54605,14 @@
           <t>2025-10-14 19:30</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr"/>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -54594,13 +54626,13 @@
         </is>
       </c>
       <c r="L399" t="n">
-        <v>0.6353262209473194</v>
+        <v>0.4754403614542098</v>
       </c>
       <c r="M399" t="n">
-        <v>0.1711855435829157</v>
+        <v>0.1433167424138836</v>
       </c>
       <c r="N399" t="n">
-        <v>0.1934882354697649</v>
+        <v>0.3812428961319068</v>
       </c>
       <c r="O399" t="n">
         <v>0.05373764801376313</v>
@@ -54681,7 +54713,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B400" t="n">
         <v>390</v>
@@ -54817,7 +54849,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B401" t="n">
         <v>390</v>
@@ -54953,7 +54985,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B402" t="n">
         <v>390</v>
@@ -55089,7 +55121,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B403" t="n">
         <v>390</v>
@@ -55225,7 +55257,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B404" t="n">
         <v>390</v>
@@ -55274,7 +55306,7 @@
         </is>
       </c>
       <c r="L404" t="n">
-        <v>0.6353262209473194</v>
+        <v>0.6353262209473198</v>
       </c>
       <c r="M404" t="n">
         <v>0.1711855435829157</v>
@@ -55289,10 +55321,10 @@
         <v>0.968509173335794</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.2652485056649185</v>
+        <v>0.2652485056649188</v>
       </c>
       <c r="R404" t="n">
-        <v>0.7347514943350815</v>
+        <v>0.7347514943350812</v>
       </c>
       <c r="S404" t="n">
         <v>0.4982202925848063</v>
@@ -55301,16 +55333,16 @@
         <v>0.5017797074151937</v>
       </c>
       <c r="U404" t="n">
-        <v>0.7086189245957711</v>
+        <v>0.7086189245957712</v>
       </c>
       <c r="V404" t="n">
-        <v>0.2913810754042289</v>
+        <v>0.2913810754042288</v>
       </c>
       <c r="W404" t="n">
-        <v>0.5470911664608166</v>
+        <v>0.5470911664608165</v>
       </c>
       <c r="X404" t="n">
-        <v>0.4529088335391834</v>
+        <v>0.4529088335391835</v>
       </c>
       <c r="Y404" t="n">
         <v>1.61</v>
@@ -55361,7 +55393,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B405" t="n">
         <v>390</v>
@@ -55389,10 +55421,14 @@
           <t>2025-10-14 19:30</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -55406,13 +55442,13 @@
         </is>
       </c>
       <c r="L405" t="n">
-        <v>0.3678274953893951</v>
+        <v>0.2243854660371182</v>
       </c>
       <c r="M405" t="n">
-        <v>0.2761646625437316</v>
+        <v>0.1729616485866504</v>
       </c>
       <c r="N405" t="n">
-        <v>0.3560078420668735</v>
+        <v>0.6026528853762314</v>
       </c>
       <c r="O405" t="n">
         <v>0.09564563809742621</v>
@@ -55493,7 +55529,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B406" t="n">
         <v>390</v>
@@ -55629,7 +55665,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B407" t="n">
         <v>390</v>
@@ -55765,7 +55801,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B408" t="n">
         <v>390</v>
@@ -55901,7 +55937,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B409" t="n">
         <v>390</v>
@@ -56037,7 +56073,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B410" t="n">
         <v>390</v>
@@ -56078,19 +56114,19 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
-        <v>0.3678274953893951</v>
+        <v>0.3678274953893952</v>
       </c>
       <c r="M410" t="n">
         <v>0.2761646625437316</v>
       </c>
       <c r="N410" t="n">
-        <v>0.3560078420668735</v>
+        <v>0.3560078420668732</v>
       </c>
       <c r="O410" t="n">
-        <v>0.1306546269481101</v>
+        <v>0.1306546269481099</v>
       </c>
       <c r="P410" t="n">
-        <v>0.8693453730518899</v>
+        <v>0.8693453730518901</v>
       </c>
       <c r="Q410" t="n">
         <v>0.3877514148942766</v>
@@ -56099,19 +56135,19 @@
         <v>0.6122485851057234</v>
       </c>
       <c r="S410" t="n">
-        <v>0.6274450384917454</v>
+        <v>0.6274450384917455</v>
       </c>
       <c r="T410" t="n">
-        <v>0.3725549615082546</v>
+        <v>0.3725549615082545</v>
       </c>
       <c r="U410" t="n">
         <v>0.8337786548610733</v>
       </c>
       <c r="V410" t="n">
-        <v>0.1662213451389268</v>
+        <v>0.1662213451389267</v>
       </c>
       <c r="W410" t="n">
-        <v>0.4427436752676188</v>
+        <v>0.4427436752676189</v>
       </c>
       <c r="X410" t="n">
         <v>0.5572563247323812</v>
@@ -56165,7 +56201,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B411" t="n">
         <v>390</v>
@@ -56193,7 +56229,11 @@
           <t>2025-10-14 21:30</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr"/>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
       <c r="I411" t="inlineStr">
         <is>
           <t>1-1</t>
@@ -56210,13 +56250,13 @@
         </is>
       </c>
       <c r="L411" t="n">
-        <v>0.6290405024071873</v>
+        <v>0.441358442087512</v>
       </c>
       <c r="M411" t="n">
-        <v>0.1816944810979464</v>
+        <v>0.2636707203278639</v>
       </c>
       <c r="N411" t="n">
-        <v>0.1892650164948664</v>
+        <v>0.2949708375846241</v>
       </c>
       <c r="O411" t="n">
         <v>0.07656947436946315</v>
@@ -56297,7 +56337,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B412" t="n">
         <v>390</v>
@@ -56433,7 +56473,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B413" t="n">
         <v>390</v>
@@ -56569,7 +56609,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B414" t="n">
         <v>390</v>
@@ -56705,7 +56745,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B415" t="n">
         <v>390</v>
@@ -56841,7 +56881,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45940.49006944444</v>
+        <v>45940.49365740741</v>
       </c>
       <c r="B416" t="n">
         <v>390</v>
@@ -56890,7 +56930,7 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>0.6290405024071873</v>
+        <v>0.6290405024071876</v>
       </c>
       <c r="M416" t="n">
         <v>0.1816944810979464</v>
@@ -56899,34 +56939,34 @@
         <v>0.1892650164948664</v>
       </c>
       <c r="O416" t="n">
-        <v>0.03122995870045764</v>
+        <v>0.03122995870045731</v>
       </c>
       <c r="P416" t="n">
-        <v>0.9687700412995424</v>
+        <v>0.9687700412995427</v>
       </c>
       <c r="Q416" t="n">
-        <v>0.3242852105707751</v>
+        <v>0.3242852105707752</v>
       </c>
       <c r="R416" t="n">
-        <v>0.6757147894292249</v>
+        <v>0.6757147894292248</v>
       </c>
       <c r="S416" t="n">
-        <v>0.6268205566972485</v>
+        <v>0.6268205566972486</v>
       </c>
       <c r="T416" t="n">
-        <v>0.3731794433027515</v>
+        <v>0.3731794433027514</v>
       </c>
       <c r="U416" t="n">
         <v>0.8472269609792713</v>
       </c>
       <c r="V416" t="n">
-        <v>0.1527730390207288</v>
+        <v>0.1527730390207287</v>
       </c>
       <c r="W416" t="n">
-        <v>0.5225373595199284</v>
+        <v>0.5225373595199285</v>
       </c>
       <c r="X416" t="n">
-        <v>0.4774626404800716</v>
+        <v>0.4774626404800715</v>
       </c>
       <c r="Y416" t="n">
         <v>1.51</v>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2439,11 +2439,15 @@
       <c r="AK14" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2</v>
+      </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2575,11 +2579,15 @@
       <c r="AK15" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2</v>
+      </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2711,11 +2719,15 @@
       <c r="AK16" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2</v>
+      </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2847,11 +2859,15 @@
       <c r="AK17" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2</v>
+      </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2983,11 +2999,15 @@
       <c r="AK18" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2</v>
+      </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3119,11 +3139,15 @@
       <c r="AK19" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2</v>
+      </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3279,15 @@
       <c r="AK20" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2</v>
+      </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3391,11 +3419,15 @@
       <c r="AK21" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2</v>
+      </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3519,11 +3551,15 @@
       <c r="AK22" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3647,11 +3683,15 @@
       <c r="AK23" t="n">
         <v>1.3</v>
       </c>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>2</v>
+      </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3783,11 +3823,15 @@
       <c r="AK24" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>3</v>
+      </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3915,11 +3959,15 @@
       <c r="AK25" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>3</v>
+      </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4051,11 +4099,15 @@
       <c r="AK26" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3</v>
+      </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4187,11 +4239,15 @@
       <c r="AK27" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>3</v>
+      </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4323,11 +4379,15 @@
       <c r="AK28" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>3</v>
+      </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4459,11 +4519,15 @@
       <c r="AK29" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4595,11 +4659,15 @@
       <c r="AK30" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4723,11 +4791,15 @@
       <c r="AK31" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4859,11 +4931,15 @@
       <c r="AK32" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4987,11 +5063,15 @@
       <c r="AK33" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5123,11 +5203,15 @@
       <c r="AK34" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5235,11 +5319,15 @@
       <c r="AK35" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5371,11 +5459,15 @@
       <c r="AK36" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5507,11 +5599,15 @@
       <c r="AK37" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5643,11 +5739,15 @@
       <c r="AK38" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5775,11 +5875,15 @@
       <c r="AK39" t="n">
         <v>2</v>
       </c>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5887,11 +5991,15 @@
       <c r="AK40" t="n">
         <v>2</v>
       </c>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="AL40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6023,11 +6131,15 @@
       <c r="AK41" t="n">
         <v>2</v>
       </c>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="AL41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6159,11 +6271,15 @@
       <c r="AK42" t="n">
         <v>2</v>
       </c>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="AL42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1</v>
+      </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6287,11 +6403,15 @@
       <c r="AK43" t="n">
         <v>2</v>
       </c>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="AL43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6423,11 +6543,15 @@
       <c r="AK44" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
+      <c r="AL44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6535,11 +6659,15 @@
       <c r="AK45" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AL45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6671,11 +6799,15 @@
       <c r="AK46" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
+      <c r="AL46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6807,11 +6939,15 @@
       <c r="AK47" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
+      <c r="AL47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6935,11 +7071,15 @@
       <c r="AK48" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
+      <c r="AL48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1</v>
+      </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7071,11 +7211,15 @@
       <c r="AK49" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
+      <c r="AL49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7183,11 +7327,15 @@
       <c r="AK50" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
+      <c r="AL50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7311,11 +7459,15 @@
       <c r="AK51" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AL51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7439,11 +7591,15 @@
       <c r="AK52" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7575,11 +7731,15 @@
       <c r="AK53" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
+      <c r="AL53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7703,11 +7863,15 @@
       <c r="AK54" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7839,11 +8003,15 @@
       <c r="AK55" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
+      <c r="AL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7975,11 +8143,15 @@
       <c r="AK56" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8111,11 +8283,15 @@
       <c r="AK57" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8239,11 +8415,15 @@
       <c r="AK58" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0</v>
+      </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8375,11 +8555,15 @@
       <c r="AK59" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8511,11 +8695,15 @@
       <c r="AK60" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8647,11 +8835,15 @@
       <c r="AK61" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8783,11 +8975,15 @@
       <c r="AK62" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8915,11 +9111,15 @@
       <c r="AK63" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
+      <c r="AL63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9051,11 +9251,15 @@
       <c r="AK64" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
+      <c r="AL64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1</v>
+      </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9187,11 +9391,15 @@
       <c r="AK65" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1</v>
+      </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9323,11 +9531,15 @@
       <c r="AK66" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
+      <c r="AL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1</v>
+      </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9459,11 +9671,15 @@
       <c r="AK67" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
+      <c r="AL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1</v>
+      </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9595,11 +9811,15 @@
       <c r="AK68" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
+      <c r="AL68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1</v>
+      </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9731,11 +9951,15 @@
       <c r="AK69" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
+      <c r="AL69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1</v>
+      </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9867,11 +10091,15 @@
       <c r="AK70" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
+      <c r="AL70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1</v>
+      </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10003,11 +10231,15 @@
       <c r="AK71" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
+      <c r="AL71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1</v>
+      </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10139,11 +10371,15 @@
       <c r="AK72" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
+      <c r="AL72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1</v>
+      </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10267,11 +10503,15 @@
       <c r="AK73" t="n">
         <v>1.57</v>
       </c>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1</v>
+      </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10395,11 +10635,15 @@
       <c r="AK74" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
+      <c r="AL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1</v>
+      </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10531,11 +10775,15 @@
       <c r="AK75" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr"/>
+      <c r="AL75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1</v>
+      </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10663,11 +10911,15 @@
       <c r="AK76" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
+      <c r="AL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1</v>
+      </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10799,11 +11051,15 @@
       <c r="AK77" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
+      <c r="AL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1</v>
+      </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10935,11 +11191,15 @@
       <c r="AK78" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
+      <c r="AL78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1</v>
+      </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11071,11 +11331,15 @@
       <c r="AK79" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
+      <c r="AL79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1</v>
+      </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11207,11 +11471,15 @@
       <c r="AK80" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
+      <c r="AL80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1</v>
+      </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11335,11 +11603,15 @@
       <c r="AK81" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
+      <c r="AL81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1</v>
+      </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11471,11 +11743,15 @@
       <c r="AK82" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
+      <c r="AL82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1</v>
+      </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11607,11 +11883,15 @@
       <c r="AK83" t="n">
         <v>1.62</v>
       </c>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
+      <c r="AL83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1</v>
+      </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11739,11 +12019,15 @@
       <c r="AK84" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
+      <c r="AL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>3</v>
+      </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11851,11 +12135,15 @@
       <c r="AK85" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>3</v>
+      </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11979,11 +12267,15 @@
       <c r="AK86" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>3</v>
+      </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12111,11 +12403,15 @@
       <c r="AK87" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>3</v>
+      </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12243,11 +12539,15 @@
       <c r="AK88" t="n">
         <v>2.3</v>
       </c>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3</v>
+      </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12371,11 +12671,15 @@
       <c r="AK89" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
+      <c r="AL89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1</v>
+      </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12507,11 +12811,15 @@
       <c r="AK90" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
+      <c r="AL90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1</v>
+      </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12643,11 +12951,15 @@
       <c r="AK91" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
+      <c r="AL91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1</v>
+      </c>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12779,11 +13091,15 @@
       <c r="AK92" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
+      <c r="AL92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1</v>
+      </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12915,11 +13231,15 @@
       <c r="AK93" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
+      <c r="AL93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1</v>
+      </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13379,7 @@
       </c>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13199,7 +13519,7 @@
       </c>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13339,7 +13659,7 @@
       </c>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13479,7 +13799,7 @@
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13619,7 +13939,7 @@
       </c>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13759,7 +14079,7 @@
       </c>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13883,11 +14203,15 @@
       <c r="AK100" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
+      <c r="AL100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1</v>
+      </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14019,11 +14343,15 @@
       <c r="AK101" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL101" t="inlineStr"/>
-      <c r="AM101" t="inlineStr"/>
+      <c r="AL101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1</v>
+      </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14155,11 +14483,15 @@
       <c r="AK102" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
+      <c r="AL102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1</v>
+      </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14291,11 +14623,15 @@
       <c r="AK103" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
+      <c r="AL103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1</v>
+      </c>
       <c r="AN103" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14423,11 +14759,15 @@
       <c r="AK104" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
+      <c r="AL104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1</v>
+      </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14907,7 @@
       </c>
       <c r="AN105" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14699,7 +15039,7 @@
       </c>
       <c r="AN106" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14839,7 +15179,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14979,7 +15319,7 @@
       </c>
       <c r="AN108" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15459,7 @@
       </c>
       <c r="AN109" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15259,7 +15599,7 @@
       </c>
       <c r="AN110" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15739,7 @@
       </c>
       <c r="AN111" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15539,7 +15879,7 @@
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15679,7 +16019,7 @@
       </c>
       <c r="AN113" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15819,7 +16159,7 @@
       </c>
       <c r="AN114" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15959,7 +16299,7 @@
       </c>
       <c r="AN115" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16091,7 +16431,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16571,7 @@
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16371,7 +16711,7 @@
       </c>
       <c r="AN118" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16851,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16651,7 +16991,7 @@
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16791,7 +17131,7 @@
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16931,7 +17271,7 @@
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17411,7 @@
       </c>
       <c r="AN123" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17211,7 +17551,7 @@
       </c>
       <c r="AN124" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17691,7 @@
       </c>
       <c r="AN125" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17831,7 @@
       </c>
       <c r="AN126" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17971,7 @@
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17771,7 +18111,7 @@
       </c>
       <c r="AN128" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17903,7 +18243,7 @@
       </c>
       <c r="AN129" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18043,7 +18383,7 @@
       </c>
       <c r="AN130" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18175,7 +18515,7 @@
       </c>
       <c r="AN131" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18315,7 +18655,7 @@
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18455,7 +18795,7 @@
       </c>
       <c r="AN133" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18935,7 @@
       </c>
       <c r="AN134" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18735,7 +19075,7 @@
       </c>
       <c r="AN135" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -18875,7 +19215,7 @@
       </c>
       <c r="AN136" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19015,7 +19355,7 @@
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19155,7 +19495,7 @@
       </c>
       <c r="AN138" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19635,7 @@
       </c>
       <c r="AN139" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19435,7 +19775,7 @@
       </c>
       <c r="AN140" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19567,11 +19907,15 @@
       <c r="AK141" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL141" t="inlineStr"/>
-      <c r="AM141" t="inlineStr"/>
+      <c r="AL141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1</v>
+      </c>
       <c r="AN141" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19703,11 +20047,15 @@
       <c r="AK142" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
+      <c r="AL142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1</v>
+      </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19839,11 +20187,15 @@
       <c r="AK143" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL143" t="inlineStr"/>
-      <c r="AM143" t="inlineStr"/>
+      <c r="AL143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1</v>
+      </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19975,11 +20327,15 @@
       <c r="AK144" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL144" t="inlineStr"/>
-      <c r="AM144" t="inlineStr"/>
+      <c r="AL144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1</v>
+      </c>
       <c r="AN144" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20111,11 +20467,15 @@
       <c r="AK145" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL145" t="inlineStr"/>
-      <c r="AM145" t="inlineStr"/>
+      <c r="AL145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1</v>
+      </c>
       <c r="AN145" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20239,11 +20599,15 @@
       <c r="AK146" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL146" t="inlineStr"/>
-      <c r="AM146" t="inlineStr"/>
+      <c r="AL146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1</v>
+      </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20367,11 +20731,15 @@
       <c r="AK147" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL147" t="inlineStr"/>
-      <c r="AM147" t="inlineStr"/>
+      <c r="AL147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1</v>
+      </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20503,11 +20871,15 @@
       <c r="AK148" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL148" t="inlineStr"/>
-      <c r="AM148" t="inlineStr"/>
+      <c r="AL148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1</v>
+      </c>
       <c r="AN148" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20639,11 +21011,15 @@
       <c r="AK149" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL149" t="inlineStr"/>
-      <c r="AM149" t="inlineStr"/>
+      <c r="AL149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1</v>
+      </c>
       <c r="AN149" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20775,11 +21151,15 @@
       <c r="AK150" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL150" t="inlineStr"/>
-      <c r="AM150" t="inlineStr"/>
+      <c r="AL150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1</v>
+      </c>
       <c r="AN150" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20911,11 +21291,15 @@
       <c r="AK151" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL151" t="inlineStr"/>
-      <c r="AM151" t="inlineStr"/>
+      <c r="AL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1</v>
+      </c>
       <c r="AN151" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21047,11 +21431,15 @@
       <c r="AK152" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL152" t="inlineStr"/>
-      <c r="AM152" t="inlineStr"/>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1</v>
+      </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21183,11 +21571,15 @@
       <c r="AK153" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL153" t="inlineStr"/>
-      <c r="AM153" t="inlineStr"/>
+      <c r="AL153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1</v>
+      </c>
       <c r="AN153" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21319,11 +21711,15 @@
       <c r="AK154" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL154" t="inlineStr"/>
-      <c r="AM154" t="inlineStr"/>
+      <c r="AL154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1</v>
+      </c>
       <c r="AN154" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21455,11 +21851,15 @@
       <c r="AK155" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL155" t="inlineStr"/>
-      <c r="AM155" t="inlineStr"/>
+      <c r="AL155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1</v>
+      </c>
       <c r="AN155" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21591,11 +21991,15 @@
       <c r="AK156" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
+      <c r="AL156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
       <c r="AN156" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21727,11 +22131,15 @@
       <c r="AK157" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL157" t="inlineStr"/>
-      <c r="AM157" t="inlineStr"/>
+      <c r="AL157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21863,11 +22271,15 @@
       <c r="AK158" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL158" t="inlineStr"/>
-      <c r="AM158" t="inlineStr"/>
+      <c r="AL158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
       <c r="AN158" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21999,11 +22411,15 @@
       <c r="AK159" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL159" t="inlineStr"/>
-      <c r="AM159" t="inlineStr"/>
+      <c r="AL159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22135,11 +22551,15 @@
       <c r="AK160" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL160" t="inlineStr"/>
-      <c r="AM160" t="inlineStr"/>
+      <c r="AL160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>0</v>
+      </c>
       <c r="AN160" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22271,11 +22691,15 @@
       <c r="AK161" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL161" t="inlineStr"/>
-      <c r="AM161" t="inlineStr"/>
+      <c r="AL161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1</v>
+      </c>
       <c r="AN161" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22407,11 +22831,15 @@
       <c r="AK162" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL162" t="inlineStr"/>
-      <c r="AM162" t="inlineStr"/>
+      <c r="AL162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1</v>
+      </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22543,11 +22971,15 @@
       <c r="AK163" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL163" t="inlineStr"/>
-      <c r="AM163" t="inlineStr"/>
+      <c r="AL163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1</v>
+      </c>
       <c r="AN163" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22679,11 +23111,15 @@
       <c r="AK164" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL164" t="inlineStr"/>
-      <c r="AM164" t="inlineStr"/>
+      <c r="AL164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1</v>
+      </c>
       <c r="AN164" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22815,11 +23251,15 @@
       <c r="AK165" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL165" t="inlineStr"/>
-      <c r="AM165" t="inlineStr"/>
+      <c r="AL165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1</v>
+      </c>
       <c r="AN165" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22951,11 +23391,15 @@
       <c r="AK166" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL166" t="inlineStr"/>
-      <c r="AM166" t="inlineStr"/>
+      <c r="AL166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2</v>
+      </c>
       <c r="AN166" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23087,11 +23531,15 @@
       <c r="AK167" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL167" t="inlineStr"/>
-      <c r="AM167" t="inlineStr"/>
+      <c r="AL167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2</v>
+      </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23223,11 +23671,15 @@
       <c r="AK168" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL168" t="inlineStr"/>
-      <c r="AM168" t="inlineStr"/>
+      <c r="AL168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
       <c r="AN168" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23359,11 +23811,15 @@
       <c r="AK169" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL169" t="inlineStr"/>
-      <c r="AM169" t="inlineStr"/>
+      <c r="AL169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2</v>
+      </c>
       <c r="AN169" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23487,11 +23943,15 @@
       <c r="AK170" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL170" t="inlineStr"/>
-      <c r="AM170" t="inlineStr"/>
+      <c r="AL170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23615,11 +24075,15 @@
       <c r="AK171" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL171" t="inlineStr"/>
-      <c r="AM171" t="inlineStr"/>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>0</v>
+      </c>
       <c r="AN171" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23743,11 +24207,15 @@
       <c r="AK172" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL172" t="inlineStr"/>
-      <c r="AM172" t="inlineStr"/>
+      <c r="AL172" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23879,11 +24347,15 @@
       <c r="AK173" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL173" t="inlineStr"/>
-      <c r="AM173" t="inlineStr"/>
+      <c r="AL173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0</v>
+      </c>
       <c r="AN173" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24007,11 +24479,15 @@
       <c r="AK174" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL174" t="inlineStr"/>
-      <c r="AM174" t="inlineStr"/>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>0</v>
+      </c>
       <c r="AN174" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24135,11 +24611,15 @@
       <c r="AK175" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL175" t="inlineStr"/>
-      <c r="AM175" t="inlineStr"/>
+      <c r="AL175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>0</v>
+      </c>
       <c r="AN175" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24271,11 +24751,15 @@
       <c r="AK176" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL176" t="inlineStr"/>
-      <c r="AM176" t="inlineStr"/>
+      <c r="AL176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1</v>
+      </c>
       <c r="AN176" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24407,11 +24891,15 @@
       <c r="AK177" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL177" t="inlineStr"/>
-      <c r="AM177" t="inlineStr"/>
+      <c r="AL177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1</v>
+      </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24543,11 +25031,15 @@
       <c r="AK178" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL178" t="inlineStr"/>
-      <c r="AM178" t="inlineStr"/>
+      <c r="AL178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1</v>
+      </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24679,11 +25171,15 @@
       <c r="AK179" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL179" t="inlineStr"/>
-      <c r="AM179" t="inlineStr"/>
+      <c r="AL179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1</v>
+      </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24815,11 +25311,15 @@
       <c r="AK180" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL180" t="inlineStr"/>
-      <c r="AM180" t="inlineStr"/>
+      <c r="AL180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1</v>
+      </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24947,11 +25447,15 @@
       <c r="AK181" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL181" t="inlineStr"/>
-      <c r="AM181" t="inlineStr"/>
+      <c r="AL181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>0</v>
+      </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25059,11 +25563,15 @@
       <c r="AK182" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL182" t="inlineStr"/>
-      <c r="AM182" t="inlineStr"/>
+      <c r="AL182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>0</v>
+      </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25195,11 +25703,15 @@
       <c r="AK183" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL183" t="inlineStr"/>
-      <c r="AM183" t="inlineStr"/>
+      <c r="AL183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>0</v>
+      </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25323,11 +25835,15 @@
       <c r="AK184" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL184" t="inlineStr"/>
-      <c r="AM184" t="inlineStr"/>
+      <c r="AL184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>0</v>
+      </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25459,11 +25975,15 @@
       <c r="AK185" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL185" t="inlineStr"/>
-      <c r="AM185" t="inlineStr"/>
+      <c r="AL185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>0</v>
+      </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25591,11 +26111,15 @@
       <c r="AK186" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL186" t="inlineStr"/>
-      <c r="AM186" t="inlineStr"/>
+      <c r="AL186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1</v>
+      </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25727,11 +26251,15 @@
       <c r="AK187" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL187" t="inlineStr"/>
-      <c r="AM187" t="inlineStr"/>
+      <c r="AL187" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1</v>
+      </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25863,11 +26391,15 @@
       <c r="AK188" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL188" t="inlineStr"/>
-      <c r="AM188" t="inlineStr"/>
+      <c r="AL188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1</v>
+      </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25999,11 +26531,15 @@
       <c r="AK189" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL189" t="inlineStr"/>
-      <c r="AM189" t="inlineStr"/>
+      <c r="AL189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1</v>
+      </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26127,11 +26663,15 @@
       <c r="AK190" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL190" t="inlineStr"/>
-      <c r="AM190" t="inlineStr"/>
+      <c r="AL190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1</v>
+      </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26263,11 +26803,15 @@
       <c r="AK191" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL191" t="inlineStr"/>
-      <c r="AM191" t="inlineStr"/>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1</v>
+      </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26391,11 +26935,15 @@
       <c r="AK192" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL192" t="inlineStr"/>
-      <c r="AM192" t="inlineStr"/>
+      <c r="AL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1</v>
+      </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26527,11 +27075,15 @@
       <c r="AK193" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL193" t="inlineStr"/>
-      <c r="AM193" t="inlineStr"/>
+      <c r="AL193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1</v>
+      </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26663,11 +27215,15 @@
       <c r="AK194" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL194" t="inlineStr"/>
-      <c r="AM194" t="inlineStr"/>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1</v>
+      </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26791,11 +27347,15 @@
       <c r="AK195" t="n">
         <v>1.53</v>
       </c>
-      <c r="AL195" t="inlineStr"/>
-      <c r="AM195" t="inlineStr"/>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1</v>
+      </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26927,11 +27487,15 @@
       <c r="AK196" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL196" t="inlineStr"/>
-      <c r="AM196" t="inlineStr"/>
+      <c r="AL196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>0</v>
+      </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27039,11 +27603,15 @@
       <c r="AK197" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL197" t="inlineStr"/>
-      <c r="AM197" t="inlineStr"/>
+      <c r="AL197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>0</v>
+      </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27175,11 +27743,15 @@
       <c r="AK198" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL198" t="inlineStr"/>
-      <c r="AM198" t="inlineStr"/>
+      <c r="AL198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>0</v>
+      </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27311,11 +27883,15 @@
       <c r="AK199" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL199" t="inlineStr"/>
-      <c r="AM199" t="inlineStr"/>
+      <c r="AL199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>0</v>
+      </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27443,11 +28019,15 @@
       <c r="AK200" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL200" t="inlineStr"/>
-      <c r="AM200" t="inlineStr"/>
+      <c r="AL200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>0</v>
+      </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27575,11 +28155,15 @@
       <c r="AK201" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL201" t="inlineStr"/>
-      <c r="AM201" t="inlineStr"/>
+      <c r="AL201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1</v>
+      </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27711,11 +28295,15 @@
       <c r="AK202" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL202" t="inlineStr"/>
-      <c r="AM202" t="inlineStr"/>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1</v>
+      </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27847,11 +28435,15 @@
       <c r="AK203" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL203" t="inlineStr"/>
-      <c r="AM203" t="inlineStr"/>
+      <c r="AL203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1</v>
+      </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27983,11 +28575,15 @@
       <c r="AK204" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL204" t="inlineStr"/>
-      <c r="AM204" t="inlineStr"/>
+      <c r="AL204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1</v>
+      </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28119,11 +28715,15 @@
       <c r="AK205" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL205" t="inlineStr"/>
-      <c r="AM205" t="inlineStr"/>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1</v>
+      </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28255,11 +28855,15 @@
       <c r="AK206" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL206" t="inlineStr"/>
-      <c r="AM206" t="inlineStr"/>
+      <c r="AL206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2</v>
+      </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28391,11 +28995,15 @@
       <c r="AK207" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL207" t="inlineStr"/>
-      <c r="AM207" t="inlineStr"/>
+      <c r="AL207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2</v>
+      </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28527,11 +29135,15 @@
       <c r="AK208" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL208" t="inlineStr"/>
-      <c r="AM208" t="inlineStr"/>
+      <c r="AL208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2</v>
+      </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28663,11 +29275,15 @@
       <c r="AK209" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL209" t="inlineStr"/>
-      <c r="AM209" t="inlineStr"/>
+      <c r="AL209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2</v>
+      </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28799,11 +29415,15 @@
       <c r="AK210" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL210" t="inlineStr"/>
-      <c r="AM210" t="inlineStr"/>
+      <c r="AL210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2</v>
+      </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28935,11 +29555,15 @@
       <c r="AK211" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL211" t="inlineStr"/>
-      <c r="AM211" t="inlineStr"/>
+      <c r="AL211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1</v>
+      </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29063,11 +29687,15 @@
       <c r="AK212" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL212" t="inlineStr"/>
-      <c r="AM212" t="inlineStr"/>
+      <c r="AL212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1</v>
+      </c>
       <c r="AN212" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29199,11 +29827,15 @@
       <c r="AK213" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL213" t="inlineStr"/>
-      <c r="AM213" t="inlineStr"/>
+      <c r="AL213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1</v>
+      </c>
       <c r="AN213" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29335,11 +29967,15 @@
       <c r="AK214" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL214" t="inlineStr"/>
-      <c r="AM214" t="inlineStr"/>
+      <c r="AL214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1</v>
+      </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29471,11 +30107,15 @@
       <c r="AK215" t="n">
         <v>1.25</v>
       </c>
-      <c r="AL215" t="inlineStr"/>
-      <c r="AM215" t="inlineStr"/>
+      <c r="AL215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1</v>
+      </c>
       <c r="AN215" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29607,11 +30247,15 @@
       <c r="AK216" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL216" t="inlineStr"/>
-      <c r="AM216" t="inlineStr"/>
+      <c r="AL216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>0</v>
+      </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29719,11 +30363,15 @@
       <c r="AK217" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL217" t="inlineStr"/>
-      <c r="AM217" t="inlineStr"/>
+      <c r="AL217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>0</v>
+      </c>
       <c r="AN217" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29855,11 +30503,15 @@
       <c r="AK218" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL218" t="inlineStr"/>
-      <c r="AM218" t="inlineStr"/>
+      <c r="AL218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>0</v>
+      </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29983,11 +30635,15 @@
       <c r="AK219" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL219" t="inlineStr"/>
-      <c r="AM219" t="inlineStr"/>
+      <c r="AL219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>0</v>
+      </c>
       <c r="AN219" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30111,11 +30767,15 @@
       <c r="AK220" t="n">
         <v>1.44</v>
       </c>
-      <c r="AL220" t="inlineStr"/>
-      <c r="AM220" t="inlineStr"/>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>0</v>
+      </c>
       <c r="AN220" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30247,11 +30907,15 @@
       <c r="AK221" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL221" t="inlineStr"/>
-      <c r="AM221" t="inlineStr"/>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>0</v>
+      </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30383,11 +31047,15 @@
       <c r="AK222" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL222" t="inlineStr"/>
-      <c r="AM222" t="inlineStr"/>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>0</v>
+      </c>
       <c r="AN222" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30519,11 +31187,15 @@
       <c r="AK223" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL223" t="inlineStr"/>
-      <c r="AM223" t="inlineStr"/>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>0</v>
+      </c>
       <c r="AN223" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30655,11 +31327,15 @@
       <c r="AK224" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL224" t="inlineStr"/>
-      <c r="AM224" t="inlineStr"/>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>0</v>
+      </c>
       <c r="AN224" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30791,11 +31467,15 @@
       <c r="AK225" t="n">
         <v>1.29</v>
       </c>
-      <c r="AL225" t="inlineStr"/>
-      <c r="AM225" t="inlineStr"/>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>0</v>
+      </c>
       <c r="AN225" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30927,11 +31607,15 @@
       <c r="AK226" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL226" t="inlineStr"/>
-      <c r="AM226" t="inlineStr"/>
+      <c r="AL226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1</v>
+      </c>
       <c r="AN226" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31063,11 +31747,15 @@
       <c r="AK227" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL227" t="inlineStr"/>
-      <c r="AM227" t="inlineStr"/>
+      <c r="AL227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1</v>
+      </c>
       <c r="AN227" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31199,11 +31887,15 @@
       <c r="AK228" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL228" t="inlineStr"/>
-      <c r="AM228" t="inlineStr"/>
+      <c r="AL228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1</v>
+      </c>
       <c r="AN228" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31335,11 +32027,15 @@
       <c r="AK229" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL229" t="inlineStr"/>
-      <c r="AM229" t="inlineStr"/>
+      <c r="AL229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1</v>
+      </c>
       <c r="AN229" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31471,11 +32167,15 @@
       <c r="AK230" t="n">
         <v>1.33</v>
       </c>
-      <c r="AL230" t="inlineStr"/>
-      <c r="AM230" t="inlineStr"/>
+      <c r="AL230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1</v>
+      </c>
       <c r="AN230" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31615,7 +32315,7 @@
       </c>
       <c r="AN231" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31755,7 +32455,7 @@
       </c>
       <c r="AN232" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31895,7 +32595,7 @@
       </c>
       <c r="AN233" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32035,7 +32735,7 @@
       </c>
       <c r="AN234" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32175,7 +32875,7 @@
       </c>
       <c r="AN235" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32315,7 +33015,7 @@
       </c>
       <c r="AN236" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32455,7 +33155,7 @@
       </c>
       <c r="AN237" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32595,7 +33295,7 @@
       </c>
       <c r="AN238" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32735,7 +33435,7 @@
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32875,7 +33575,7 @@
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33015,7 +33715,7 @@
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33855,7 @@
       </c>
       <c r="AN242" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33995,7 @@
       </c>
       <c r="AN243" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33427,7 +34127,7 @@
       </c>
       <c r="AN244" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33567,7 +34267,7 @@
       </c>
       <c r="AN245" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33699,7 +34399,7 @@
       </c>
       <c r="AN246" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33831,7 +34531,7 @@
       </c>
       <c r="AN247" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33971,7 +34671,7 @@
       </c>
       <c r="AN248" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34111,7 +34811,7 @@
       </c>
       <c r="AN249" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34243,7 +34943,7 @@
       </c>
       <c r="AN250" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34383,7 +35083,7 @@
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34523,7 +35223,7 @@
       </c>
       <c r="AN252" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34663,7 +35363,7 @@
       </c>
       <c r="AN253" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34795,7 +35495,7 @@
       </c>
       <c r="AN254" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34935,7 +35635,7 @@
       </c>
       <c r="AN255" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35075,7 +35775,7 @@
       </c>
       <c r="AN256" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35215,7 +35915,7 @@
       </c>
       <c r="AN257" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35347,7 +36047,7 @@
       </c>
       <c r="AN258" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35487,7 +36187,7 @@
       </c>
       <c r="AN259" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35627,7 +36327,7 @@
       </c>
       <c r="AN260" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35767,7 +36467,7 @@
       </c>
       <c r="AN261" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35899,7 +36599,7 @@
       </c>
       <c r="AN262" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36039,7 +36739,7 @@
       </c>
       <c r="AN263" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36175,7 +36875,7 @@
       </c>
       <c r="AN264" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36315,7 +37015,7 @@
       </c>
       <c r="AN265" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36455,7 +37155,7 @@
       </c>
       <c r="AN266" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36587,7 +37287,7 @@
       </c>
       <c r="AN267" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36727,7 +37427,7 @@
       </c>
       <c r="AN268" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36859,7 +37559,7 @@
       </c>
       <c r="AN269" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36999,7 +37699,7 @@
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37139,7 +37839,7 @@
       </c>
       <c r="AN271" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37279,7 +37979,7 @@
       </c>
       <c r="AN272" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37419,7 +38119,7 @@
       </c>
       <c r="AN273" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37559,7 +38259,7 @@
       </c>
       <c r="AN274" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37699,7 +38399,7 @@
       </c>
       <c r="AN275" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37839,7 +38539,7 @@
       </c>
       <c r="AN276" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37979,7 +38679,7 @@
       </c>
       <c r="AN277" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38819,7 @@
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38259,7 +38959,7 @@
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38399,7 +39099,7 @@
       </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38539,7 +39239,7 @@
       </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38679,7 +39379,7 @@
       </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38811,7 +39511,7 @@
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38951,7 +39651,7 @@
       </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39091,7 +39791,7 @@
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39231,7 +39931,7 @@
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39371,7 +40071,7 @@
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39511,7 +40211,7 @@
       </c>
       <c r="AN288" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39651,7 +40351,7 @@
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39783,7 +40483,7 @@
       </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -39915,7 +40615,7 @@
       </c>
       <c r="AN291" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40055,7 +40755,7 @@
       </c>
       <c r="AN292" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40187,7 +40887,7 @@
       </c>
       <c r="AN293" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40327,7 +41027,7 @@
       </c>
       <c r="AN294" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40467,7 +41167,7 @@
       </c>
       <c r="AN295" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40599,7 +41299,7 @@
       </c>
       <c r="AN296" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40739,7 +41439,7 @@
       </c>
       <c r="AN297" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -40879,7 +41579,7 @@
       </c>
       <c r="AN298" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41019,7 +41719,7 @@
       </c>
       <c r="AN299" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41155,7 +41855,7 @@
       </c>
       <c r="AN300" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41295,7 +41995,7 @@
       </c>
       <c r="AN301" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41435,7 +42135,7 @@
       </c>
       <c r="AN302" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41575,7 +42275,7 @@
       </c>
       <c r="AN303" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41715,7 +42415,7 @@
       </c>
       <c r="AN304" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41855,7 +42555,7 @@
       </c>
       <c r="AN305" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41995,7 +42695,7 @@
       </c>
       <c r="AN306" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42127,7 +42827,7 @@
       </c>
       <c r="AN307" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42267,7 +42967,7 @@
       </c>
       <c r="AN308" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42407,7 +43107,7 @@
       </c>
       <c r="AN309" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42547,7 +43247,7 @@
       </c>
       <c r="AN310" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42687,7 +43387,7 @@
       </c>
       <c r="AN311" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42827,7 +43527,7 @@
       </c>
       <c r="AN312" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42967,7 +43667,7 @@
       </c>
       <c r="AN313" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43099,7 +43799,7 @@
       </c>
       <c r="AN314" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43239,7 +43939,7 @@
       </c>
       <c r="AN315" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43379,7 +44079,7 @@
       </c>
       <c r="AN316" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43519,7 +44219,7 @@
       </c>
       <c r="AN317" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43659,7 +44359,7 @@
       </c>
       <c r="AN318" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43799,7 +44499,7 @@
       </c>
       <c r="AN319" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -43931,7 +44631,7 @@
       </c>
       <c r="AN320" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44071,7 +44771,7 @@
       </c>
       <c r="AN321" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44211,7 +44911,7 @@
       </c>
       <c r="AN322" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44351,7 +45051,7 @@
       </c>
       <c r="AN323" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44487,7 +45187,7 @@
       </c>
       <c r="AN324" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44627,7 +45327,7 @@
       </c>
       <c r="AN325" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44767,7 +45467,7 @@
       </c>
       <c r="AN326" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44907,7 +45607,7 @@
       </c>
       <c r="AN327" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45047,7 +45747,7 @@
       </c>
       <c r="AN328" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45187,7 +45887,7 @@
       </c>
       <c r="AN329" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45327,7 +46027,7 @@
       </c>
       <c r="AN330" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45467,7 +46167,7 @@
       </c>
       <c r="AN331" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45607,7 +46307,7 @@
       </c>
       <c r="AN332" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45739,7 +46439,7 @@
       </c>
       <c r="AN333" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45879,7 +46579,7 @@
       </c>
       <c r="AN334" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46011,7 +46711,7 @@
       </c>
       <c r="AN335" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46151,7 +46851,7 @@
       </c>
       <c r="AN336" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46291,7 +46991,7 @@
       </c>
       <c r="AN337" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46431,7 +47131,7 @@
       </c>
       <c r="AN338" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46571,7 +47271,7 @@
       </c>
       <c r="AN339" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46711,7 +47411,7 @@
       </c>
       <c r="AN340" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46851,7 +47551,7 @@
       </c>
       <c r="AN341" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -46991,7 +47691,7 @@
       </c>
       <c r="AN342" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47131,7 +47831,7 @@
       </c>
       <c r="AN343" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47271,7 +47971,7 @@
       </c>
       <c r="AN344" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47411,7 +48111,7 @@
       </c>
       <c r="AN345" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47551,7 +48251,7 @@
       </c>
       <c r="AN346" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47691,7 +48391,7 @@
       </c>
       <c r="AN347" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47827,7 +48527,7 @@
       </c>
       <c r="AN348" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -47967,7 +48667,7 @@
       </c>
       <c r="AN349" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -48107,7 +48807,7 @@
       </c>
       <c r="AN350" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13799,7 +13799,7 @@
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14079,7 +14079,7 @@
       </c>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AN105" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="AN106" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="AN108" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="AN109" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AN110" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="AN111" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="AN113" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AN114" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="AN115" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="AN118" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="AN123" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="AN124" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17691,7 +17691,7 @@
       </c>
       <c r="AN125" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="AN126" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="AN127" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18111,7 +18111,7 @@
       </c>
       <c r="AN128" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="AN129" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="AN130" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="AN131" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="AN132" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="AN133" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="AN134" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="AN135" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AN136" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="AN138" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="AN139" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="AN140" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32315,7 +32315,7 @@
       </c>
       <c r="AN231" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32455,7 +32455,7 @@
       </c>
       <c r="AN232" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="AN233" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32735,7 +32735,7 @@
       </c>
       <c r="AN234" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32875,7 +32875,7 @@
       </c>
       <c r="AN235" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33015,7 +33015,7 @@
       </c>
       <c r="AN236" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="AN237" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="AN238" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33855,7 +33855,7 @@
       </c>
       <c r="AN242" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AN243" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="AN244" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="AN245" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="AN246" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="AN247" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="AN248" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="AN249" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="AN250" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="AN252" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35363,7 +35363,7 @@
       </c>
       <c r="AN253" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="AN254" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="AN255" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="AN256" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="AN257" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36047,7 +36047,7 @@
       </c>
       <c r="AN258" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="AN259" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36327,7 +36327,7 @@
       </c>
       <c r="AN260" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36467,7 +36467,7 @@
       </c>
       <c r="AN261" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="AN262" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36739,7 +36739,7 @@
       </c>
       <c r="AN263" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36875,7 +36875,7 @@
       </c>
       <c r="AN264" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37015,7 +37015,7 @@
       </c>
       <c r="AN265" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="AN266" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37287,7 +37287,7 @@
       </c>
       <c r="AN267" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       </c>
       <c r="AN268" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37559,7 +37559,7 @@
       </c>
       <c r="AN269" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37839,7 +37839,7 @@
       </c>
       <c r="AN271" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="AN272" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       </c>
       <c r="AN273" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="AN274" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38399,7 +38399,7 @@
       </c>
       <c r="AN275" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="AN276" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38679,7 +38679,7 @@
       </c>
       <c r="AN277" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38819,7 +38819,7 @@
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38959,7 +38959,7 @@
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39099,7 +39099,7 @@
       </c>
       <c r="AN280" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39239,7 +39239,7 @@
       </c>
       <c r="AN281" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39379,7 +39379,7 @@
       </c>
       <c r="AN282" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39511,7 +39511,7 @@
       </c>
       <c r="AN283" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39651,7 +39651,7 @@
       </c>
       <c r="AN284" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39791,7 +39791,7 @@
       </c>
       <c r="AN285" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -39931,7 +39931,7 @@
       </c>
       <c r="AN286" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40071,7 +40071,7 @@
       </c>
       <c r="AN287" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40211,7 +40211,7 @@
       </c>
       <c r="AN288" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40351,7 +40351,7 @@
       </c>
       <c r="AN289" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40483,7 +40483,7 @@
       </c>
       <c r="AN290" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40615,7 +40615,7 @@
       </c>
       <c r="AN291" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="AN292" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -40887,7 +40887,7 @@
       </c>
       <c r="AN293" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41027,7 +41027,7 @@
       </c>
       <c r="AN294" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41167,7 +41167,7 @@
       </c>
       <c r="AN295" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41299,7 +41299,7 @@
       </c>
       <c r="AN296" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="AN297" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41579,7 +41579,7 @@
       </c>
       <c r="AN298" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="AN299" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="AN300" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41995,7 +41995,7 @@
       </c>
       <c r="AN301" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="AN302" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="AN303" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42415,7 +42415,7 @@
       </c>
       <c r="AN304" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42555,7 +42555,7 @@
       </c>
       <c r="AN305" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42695,7 +42695,7 @@
       </c>
       <c r="AN306" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42827,7 +42827,7 @@
       </c>
       <c r="AN307" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42967,7 +42967,7 @@
       </c>
       <c r="AN308" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43107,7 +43107,7 @@
       </c>
       <c r="AN309" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43247,7 +43247,7 @@
       </c>
       <c r="AN310" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43387,7 +43387,7 @@
       </c>
       <c r="AN311" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43527,7 +43527,7 @@
       </c>
       <c r="AN312" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43667,7 +43667,7 @@
       </c>
       <c r="AN313" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43799,7 +43799,7 @@
       </c>
       <c r="AN314" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -43939,7 +43939,7 @@
       </c>
       <c r="AN315" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44079,7 +44079,7 @@
       </c>
       <c r="AN316" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44219,7 +44219,7 @@
       </c>
       <c r="AN317" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44359,7 +44359,7 @@
       </c>
       <c r="AN318" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44499,7 +44499,7 @@
       </c>
       <c r="AN319" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44631,7 +44631,7 @@
       </c>
       <c r="AN320" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="AN321" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44911,7 +44911,7 @@
       </c>
       <c r="AN322" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45051,7 +45051,7 @@
       </c>
       <c r="AN323" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45187,7 +45187,7 @@
       </c>
       <c r="AN324" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45327,7 +45327,7 @@
       </c>
       <c r="AN325" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45467,7 +45467,7 @@
       </c>
       <c r="AN326" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45607,7 +45607,7 @@
       </c>
       <c r="AN327" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45747,7 +45747,7 @@
       </c>
       <c r="AN328" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45887,7 +45887,7 @@
       </c>
       <c r="AN329" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46027,7 +46027,7 @@
       </c>
       <c r="AN330" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46167,7 +46167,7 @@
       </c>
       <c r="AN331" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46307,7 +46307,7 @@
       </c>
       <c r="AN332" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46439,7 +46439,7 @@
       </c>
       <c r="AN333" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46579,7 +46579,7 @@
       </c>
       <c r="AN334" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46711,7 +46711,7 @@
       </c>
       <c r="AN335" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46851,7 +46851,7 @@
       </c>
       <c r="AN336" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -46991,7 +46991,7 @@
       </c>
       <c r="AN337" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47131,7 +47131,7 @@
       </c>
       <c r="AN338" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47271,7 +47271,7 @@
       </c>
       <c r="AN339" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47411,7 +47411,7 @@
       </c>
       <c r="AN340" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47551,7 +47551,7 @@
       </c>
       <c r="AN341" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47691,7 +47691,7 @@
       </c>
       <c r="AN342" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47831,7 +47831,7 @@
       </c>
       <c r="AN343" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -47971,7 +47971,7 @@
       </c>
       <c r="AN344" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48111,7 +48111,7 @@
       </c>
       <c r="AN345" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48251,7 +48251,7 @@
       </c>
       <c r="AN346" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48391,7 +48391,7 @@
       </c>
       <c r="AN347" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48527,7 +48527,7 @@
       </c>
       <c r="AN348" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48667,7 +48667,7 @@
       </c>
       <c r="AN349" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -48807,13 +48807,13 @@
       </c>
       <c r="AN350" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B351" t="n">
         <v>390</v>
@@ -48843,12 +48843,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Visitante</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -48862,13 +48862,13 @@
         </is>
       </c>
       <c r="L351" t="n">
-        <v>0.2011418822184691</v>
+        <v>0.3429659269431761</v>
       </c>
       <c r="M351" t="n">
-        <v>0.2907877178053431</v>
+        <v>0.3322993245014851</v>
       </c>
       <c r="N351" t="n">
-        <v>0.5080703999761879</v>
+        <v>0.3247347485553387</v>
       </c>
       <c r="O351" t="n">
         <v>0.1020704514520514</v>
@@ -48949,7 +48949,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B352" t="n">
         <v>390</v>
@@ -49085,7 +49085,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B353" t="n">
         <v>390</v>
@@ -49221,7 +49221,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B354" t="n">
         <v>390</v>
@@ -49349,7 +49349,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B355" t="n">
         <v>390</v>
@@ -49485,7 +49485,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B356" t="n">
         <v>390</v>
@@ -49537,10 +49537,10 @@
         <v>0.3429659269431761</v>
       </c>
       <c r="M356" t="n">
-        <v>0.3322993245014852</v>
+        <v>0.3322993245014851</v>
       </c>
       <c r="N356" t="n">
-        <v>0.3247347485553388</v>
+        <v>0.3247347485553387</v>
       </c>
       <c r="O356" t="n">
         <v>0.1594213890890545</v>
@@ -49549,22 +49549,22 @@
         <v>0.8405786109109455</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.3438578129164601</v>
+        <v>0.3438578129164603</v>
       </c>
       <c r="R356" t="n">
-        <v>0.6561421870835399</v>
+        <v>0.6561421870835397</v>
       </c>
       <c r="S356" t="n">
-        <v>0.6069396571986342</v>
+        <v>0.6069396571986343</v>
       </c>
       <c r="T356" t="n">
-        <v>0.3930603428013658</v>
+        <v>0.3930603428013657</v>
       </c>
       <c r="U356" t="n">
         <v>0.7901421824726422</v>
       </c>
       <c r="V356" t="n">
-        <v>0.2098578175273578</v>
+        <v>0.2098578175273577</v>
       </c>
       <c r="W356" t="n">
         <v>0.4526499008485076</v>
@@ -50421,7 +50421,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B363" t="n">
         <v>390</v>
@@ -50456,7 +50456,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -50470,13 +50470,13 @@
         </is>
       </c>
       <c r="L363" t="n">
-        <v>0.6085261239854647</v>
+        <v>0.5503132402106193</v>
       </c>
       <c r="M363" t="n">
-        <v>0.243796652524204</v>
+        <v>0.2444196178791189</v>
       </c>
       <c r="N363" t="n">
-        <v>0.1476772234903314</v>
+        <v>0.2052671419102617</v>
       </c>
       <c r="O363" t="n">
         <v>0.09485128740002835</v>
@@ -50557,7 +50557,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B364" t="n">
         <v>390</v>
@@ -50693,7 +50693,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B365" t="n">
         <v>390</v>
@@ -50829,7 +50829,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B366" t="n">
         <v>390</v>
@@ -50965,7 +50965,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B367" t="n">
         <v>390</v>
@@ -51101,7 +51101,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B368" t="n">
         <v>390</v>
@@ -51150,19 +51150,19 @@
         </is>
       </c>
       <c r="L368" t="n">
-        <v>0.5503132402106192</v>
+        <v>0.5503132402106193</v>
       </c>
       <c r="M368" t="n">
-        <v>0.244419617879119</v>
+        <v>0.2444196178791189</v>
       </c>
       <c r="N368" t="n">
         <v>0.2052671419102617</v>
       </c>
       <c r="O368" t="n">
-        <v>0.09386840194002277</v>
+        <v>0.09386840194002288</v>
       </c>
       <c r="P368" t="n">
-        <v>0.9061315980599772</v>
+        <v>0.9061315980599771</v>
       </c>
       <c r="Q368" t="n">
         <v>0.2907946001345738</v>
@@ -51171,10 +51171,10 @@
         <v>0.7092053998654262</v>
       </c>
       <c r="S368" t="n">
-        <v>0.5601939395715149</v>
+        <v>0.5601939395715148</v>
       </c>
       <c r="T368" t="n">
-        <v>0.4398060604284851</v>
+        <v>0.4398060604284852</v>
       </c>
       <c r="U368" t="n">
         <v>0.8389483496533513</v>
@@ -51183,10 +51183,10 @@
         <v>0.1610516503466487</v>
       </c>
       <c r="W368" t="n">
-        <v>0.5500981273529454</v>
+        <v>0.5500981273529453</v>
       </c>
       <c r="X368" t="n">
-        <v>0.4499018726470546</v>
+        <v>0.4499018726470547</v>
       </c>
       <c r="Y368" t="n">
         <v>1.86</v>
@@ -51237,7 +51237,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B369" t="n">
         <v>390</v>
@@ -51272,7 +51272,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -51286,13 +51286,13 @@
         </is>
       </c>
       <c r="L369" t="n">
-        <v>0.5640704465102414</v>
+        <v>0.5032479285748984</v>
       </c>
       <c r="M369" t="n">
-        <v>0.2690406285215215</v>
+        <v>0.313933159221518</v>
       </c>
       <c r="N369" t="n">
-        <v>0.166888924968237</v>
+        <v>0.1828189122035836</v>
       </c>
       <c r="O369" t="n">
         <v>0.06102815402948403</v>
@@ -51373,7 +51373,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B370" t="n">
         <v>390</v>
@@ -51509,7 +51509,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B371" t="n">
         <v>390</v>
@@ -51645,7 +51645,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B372" t="n">
         <v>390</v>
@@ -51773,7 +51773,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B373" t="n">
         <v>390</v>
@@ -51901,7 +51901,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B374" t="n">
         <v>390</v>
@@ -51942,25 +51942,25 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
-        <v>0.5032479285748983</v>
+        <v>0.5032479285748984</v>
       </c>
       <c r="M374" t="n">
-        <v>0.3139331592215179</v>
+        <v>0.313933159221518</v>
       </c>
       <c r="N374" t="n">
-        <v>0.1828189122035837</v>
+        <v>0.1828189122035836</v>
       </c>
       <c r="O374" t="n">
-        <v>0.03290281907865744</v>
+        <v>0.03290281907865722</v>
       </c>
       <c r="P374" t="n">
-        <v>0.9670971809213426</v>
+        <v>0.9670971809213428</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.3685862319804459</v>
+        <v>0.368586231980446</v>
       </c>
       <c r="R374" t="n">
-        <v>0.6314137680195541</v>
+        <v>0.631413768019554</v>
       </c>
       <c r="S374" t="n">
         <v>0.5982532627776024</v>
@@ -51972,13 +51972,13 @@
         <v>0.8273966579308216</v>
       </c>
       <c r="V374" t="n">
-        <v>0.1726033420691783</v>
+        <v>0.1726033420691784</v>
       </c>
       <c r="W374" t="n">
-        <v>0.5515892768954772</v>
+        <v>0.5515892768954774</v>
       </c>
       <c r="X374" t="n">
-        <v>0.4484107231045228</v>
+        <v>0.4484107231045226</v>
       </c>
       <c r="Y374" t="n">
         <v>1.91</v>
@@ -52029,7 +52029,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B375" t="n">
         <v>390</v>
@@ -52078,13 +52078,13 @@
         </is>
       </c>
       <c r="L375" t="n">
-        <v>0.4093210062914372</v>
+        <v>0.4297381803308904</v>
       </c>
       <c r="M375" t="n">
-        <v>0.3678741805175928</v>
+        <v>0.3372471649105065</v>
       </c>
       <c r="N375" t="n">
-        <v>0.2228048131909701</v>
+        <v>0.2330146547586029</v>
       </c>
       <c r="O375" t="n">
         <v>0.13885858945712</v>
@@ -52165,7 +52165,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B376" t="n">
         <v>390</v>
@@ -52301,7 +52301,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B377" t="n">
         <v>390</v>
@@ -52437,7 +52437,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B378" t="n">
         <v>390</v>
@@ -52573,7 +52573,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B379" t="n">
         <v>390</v>
@@ -52709,7 +52709,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B380" t="n">
         <v>390</v>
@@ -52758,13 +52758,13 @@
         </is>
       </c>
       <c r="L380" t="n">
-        <v>0.4297381803308905</v>
+        <v>0.4297381803308904</v>
       </c>
       <c r="M380" t="n">
         <v>0.3372471649105065</v>
       </c>
       <c r="N380" t="n">
-        <v>0.233014654758603</v>
+        <v>0.2330146547586029</v>
       </c>
       <c r="O380" t="n">
         <v>0.06509688016033399</v>
@@ -52773,16 +52773,16 @@
         <v>0.934903119839666</v>
       </c>
       <c r="Q380" t="n">
-        <v>0.2903066358449774</v>
+        <v>0.2903066358449776</v>
       </c>
       <c r="R380" t="n">
-        <v>0.7096933641550226</v>
+        <v>0.7096933641550224</v>
       </c>
       <c r="S380" t="n">
-        <v>0.6478345105664303</v>
+        <v>0.64783451056643</v>
       </c>
       <c r="T380" t="n">
-        <v>0.3521654894335697</v>
+        <v>0.3521654894335699</v>
       </c>
       <c r="U380" t="n">
         <v>0.7887373925621955</v>
@@ -52845,7 +52845,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B381" t="n">
         <v>390</v>
@@ -52894,13 +52894,13 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>0.3783493792247689</v>
+        <v>0.4134723763376076</v>
       </c>
       <c r="M381" t="n">
-        <v>0.2850503593122609</v>
+        <v>0.2757685288000669</v>
       </c>
       <c r="N381" t="n">
-        <v>0.3366002614629702</v>
+        <v>0.3107590948623259</v>
       </c>
       <c r="O381" t="n">
         <v>0.2527962945917361</v>
@@ -52981,7 +52981,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B382" t="n">
         <v>390</v>
@@ -53117,7 +53117,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B383" t="n">
         <v>390</v>
@@ -53245,7 +53245,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B384" t="n">
         <v>390</v>
@@ -53381,7 +53381,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B385" t="n">
         <v>390</v>
@@ -53517,7 +53517,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B386" t="n">
         <v>390</v>
@@ -53566,31 +53566,31 @@
         </is>
       </c>
       <c r="L386" t="n">
-        <v>0.4134723763376074</v>
+        <v>0.4134723763376076</v>
       </c>
       <c r="M386" t="n">
         <v>0.2757685288000669</v>
       </c>
       <c r="N386" t="n">
-        <v>0.3107590948623258</v>
+        <v>0.3107590948623259</v>
       </c>
       <c r="O386" t="n">
-        <v>0.07404933541947822</v>
+        <v>0.07404933541947833</v>
       </c>
       <c r="P386" t="n">
-        <v>0.9259506645805218</v>
+        <v>0.9259506645805217</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.3812790268066502</v>
+        <v>0.3812790268066503</v>
       </c>
       <c r="R386" t="n">
-        <v>0.6187209731933498</v>
+        <v>0.6187209731933497</v>
       </c>
       <c r="S386" t="n">
         <v>0.7120694267462797</v>
       </c>
       <c r="T386" t="n">
-        <v>0.2879305732537203</v>
+        <v>0.2879305732537202</v>
       </c>
       <c r="U386" t="n">
         <v>0.8868522984459558</v>
@@ -53653,7 +53653,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B387" t="n">
         <v>390</v>
@@ -53683,7 +53683,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Visitante</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -53702,13 +53702,13 @@
         </is>
       </c>
       <c r="L387" t="n">
-        <v>0.2674762025986382</v>
+        <v>0.3815985662401618</v>
       </c>
       <c r="M387" t="n">
-        <v>0.3323066825251967</v>
+        <v>0.3334133461757773</v>
       </c>
       <c r="N387" t="n">
-        <v>0.4002171148761652</v>
+        <v>0.2849880875840611</v>
       </c>
       <c r="O387" t="n">
         <v>0.143264303018712</v>
@@ -53789,7 +53789,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B388" t="n">
         <v>390</v>
@@ -53925,7 +53925,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B389" t="n">
         <v>390</v>
@@ -54061,7 +54061,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B390" t="n">
         <v>390</v>
@@ -54197,7 +54197,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B391" t="n">
         <v>390</v>
@@ -54333,7 +54333,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B392" t="n">
         <v>390</v>
@@ -54380,25 +54380,25 @@
         <v>0.3334133461757773</v>
       </c>
       <c r="N392" t="n">
-        <v>0.2849880875840612</v>
+        <v>0.2849880875840611</v>
       </c>
       <c r="O392" t="n">
-        <v>0.1444480827458106</v>
+        <v>0.1444480827458107</v>
       </c>
       <c r="P392" t="n">
-        <v>0.8555519172541894</v>
+        <v>0.8555519172541893</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.3989284122995038</v>
+        <v>0.3989284122995039</v>
       </c>
       <c r="R392" t="n">
-        <v>0.6010715877004962</v>
+        <v>0.6010715877004961</v>
       </c>
       <c r="S392" t="n">
         <v>0.593455876156892</v>
       </c>
       <c r="T392" t="n">
-        <v>0.4065441238431081</v>
+        <v>0.406544123843108</v>
       </c>
       <c r="U392" t="n">
         <v>0.8502505954061139</v>
@@ -54407,7 +54407,7 @@
         <v>0.1497494045938861</v>
       </c>
       <c r="W392" t="n">
-        <v>0.4373463133143933</v>
+        <v>0.4373463133143934</v>
       </c>
       <c r="X392" t="n">
         <v>0.5626536866856067</v>
@@ -54461,7 +54461,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B393" t="n">
         <v>390</v>
@@ -54496,7 +54496,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -54510,13 +54510,13 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>0.4656075114594619</v>
+        <v>0.5792133233484628</v>
       </c>
       <c r="M393" t="n">
-        <v>0.2838489780337718</v>
+        <v>0.2324624955755505</v>
       </c>
       <c r="N393" t="n">
-        <v>0.2505435105067663</v>
+        <v>0.1883241810759868</v>
       </c>
       <c r="O393" t="n">
         <v>0.09159665960081764</v>
@@ -54597,7 +54597,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B394" t="n">
         <v>390</v>
@@ -54733,7 +54733,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B395" t="n">
         <v>390</v>
@@ -54869,7 +54869,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B396" t="n">
         <v>390</v>
@@ -55005,7 +55005,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B397" t="n">
         <v>390</v>
@@ -55141,7 +55141,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B398" t="n">
         <v>390</v>
@@ -55190,7 +55190,7 @@
         </is>
       </c>
       <c r="L398" t="n">
-        <v>0.5792133233484629</v>
+        <v>0.5792133233484628</v>
       </c>
       <c r="M398" t="n">
         <v>0.2324624955755505</v>
@@ -55199,16 +55199,16 @@
         <v>0.1883241810759868</v>
       </c>
       <c r="O398" t="n">
-        <v>0.05445591112131876</v>
+        <v>0.05445591112131887</v>
       </c>
       <c r="P398" t="n">
-        <v>0.9455440888786812</v>
+        <v>0.9455440888786811</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.3258649482344571</v>
+        <v>0.325864948234457</v>
       </c>
       <c r="R398" t="n">
-        <v>0.6741350517655429</v>
+        <v>0.674135051765543</v>
       </c>
       <c r="S398" t="n">
         <v>0.4946378891932037</v>
@@ -55223,10 +55223,10 @@
         <v>0.2331971554824679</v>
       </c>
       <c r="W398" t="n">
-        <v>0.4920442711405158</v>
+        <v>0.4920442711405159</v>
       </c>
       <c r="X398" t="n">
-        <v>0.5079557288594843</v>
+        <v>0.507955728859484</v>
       </c>
       <c r="Y398" t="n">
         <v>1.57</v>
@@ -55277,7 +55277,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B399" t="n">
         <v>390</v>
@@ -55312,7 +55312,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -55326,13 +55326,13 @@
         </is>
       </c>
       <c r="L399" t="n">
-        <v>0.4754403614542098</v>
+        <v>0.6353262209473198</v>
       </c>
       <c r="M399" t="n">
-        <v>0.1433167424138836</v>
+        <v>0.1711855435829157</v>
       </c>
       <c r="N399" t="n">
-        <v>0.3812428961319068</v>
+        <v>0.1934882354697649</v>
       </c>
       <c r="O399" t="n">
         <v>0.05373764801376313</v>
@@ -55413,7 +55413,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B400" t="n">
         <v>390</v>
@@ -55549,7 +55549,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B401" t="n">
         <v>390</v>
@@ -55685,7 +55685,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B402" t="n">
         <v>390</v>
@@ -55821,7 +55821,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B403" t="n">
         <v>390</v>
@@ -55957,7 +55957,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B404" t="n">
         <v>390</v>
@@ -56015,16 +56015,16 @@
         <v>0.1934882354697649</v>
       </c>
       <c r="O404" t="n">
-        <v>0.031490826664206</v>
+        <v>0.03149082666420611</v>
       </c>
       <c r="P404" t="n">
-        <v>0.968509173335794</v>
+        <v>0.9685091733357939</v>
       </c>
       <c r="Q404" t="n">
-        <v>0.2652485056649188</v>
+        <v>0.2652485056649186</v>
       </c>
       <c r="R404" t="n">
-        <v>0.7347514943350812</v>
+        <v>0.7347514943350814</v>
       </c>
       <c r="S404" t="n">
         <v>0.4982202925848063</v>
@@ -56033,16 +56033,16 @@
         <v>0.5017797074151937</v>
       </c>
       <c r="U404" t="n">
-        <v>0.7086189245957712</v>
+        <v>0.7086189245957711</v>
       </c>
       <c r="V404" t="n">
-        <v>0.2913810754042288</v>
+        <v>0.2913810754042289</v>
       </c>
       <c r="W404" t="n">
-        <v>0.5470911664608165</v>
+        <v>0.5470911664608163</v>
       </c>
       <c r="X404" t="n">
-        <v>0.4529088335391835</v>
+        <v>0.4529088335391837</v>
       </c>
       <c r="Y404" t="n">
         <v>1.61</v>
@@ -56093,7 +56093,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B405" t="n">
         <v>390</v>
@@ -56123,12 +56123,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Visitante</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -56142,13 +56142,13 @@
         </is>
       </c>
       <c r="L405" t="n">
-        <v>0.2243854660371182</v>
+        <v>0.3678274953893951</v>
       </c>
       <c r="M405" t="n">
-        <v>0.1729616485866504</v>
+        <v>0.2761646625437316</v>
       </c>
       <c r="N405" t="n">
-        <v>0.6026528853762314</v>
+        <v>0.3560078420668735</v>
       </c>
       <c r="O405" t="n">
         <v>0.09564563809742621</v>
@@ -56229,7 +56229,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B406" t="n">
         <v>390</v>
@@ -56365,7 +56365,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B407" t="n">
         <v>390</v>
@@ -56501,7 +56501,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B408" t="n">
         <v>390</v>
@@ -56637,7 +56637,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B409" t="n">
         <v>390</v>
@@ -56773,7 +56773,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B410" t="n">
         <v>390</v>
@@ -56814,31 +56814,31 @@
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
-        <v>0.3678274953893952</v>
+        <v>0.3678274953893951</v>
       </c>
       <c r="M410" t="n">
         <v>0.2761646625437316</v>
       </c>
       <c r="N410" t="n">
-        <v>0.3560078420668732</v>
+        <v>0.3560078420668735</v>
       </c>
       <c r="O410" t="n">
-        <v>0.1306546269481099</v>
+        <v>0.1306546269481101</v>
       </c>
       <c r="P410" t="n">
-        <v>0.8693453730518901</v>
+        <v>0.8693453730518899</v>
       </c>
       <c r="Q410" t="n">
-        <v>0.3877514148942766</v>
+        <v>0.3877514148942764</v>
       </c>
       <c r="R410" t="n">
-        <v>0.6122485851057234</v>
+        <v>0.6122485851057236</v>
       </c>
       <c r="S410" t="n">
-        <v>0.6274450384917455</v>
+        <v>0.6274450384917454</v>
       </c>
       <c r="T410" t="n">
-        <v>0.3725549615082545</v>
+        <v>0.3725549615082546</v>
       </c>
       <c r="U410" t="n">
         <v>0.8337786548610733</v>
@@ -56847,10 +56847,10 @@
         <v>0.1662213451389267</v>
       </c>
       <c r="W410" t="n">
-        <v>0.4427436752676189</v>
+        <v>0.4427436752676187</v>
       </c>
       <c r="X410" t="n">
-        <v>0.5572563247323812</v>
+        <v>0.5572563247323813</v>
       </c>
       <c r="Y410" t="n">
         <v>2.75</v>
@@ -56901,7 +56901,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B411" t="n">
         <v>390</v>
@@ -56950,13 +56950,13 @@
         </is>
       </c>
       <c r="L411" t="n">
-        <v>0.441358442087512</v>
+        <v>0.6290405024071875</v>
       </c>
       <c r="M411" t="n">
-        <v>0.2636707203278639</v>
+        <v>0.1816944810979464</v>
       </c>
       <c r="N411" t="n">
-        <v>0.2949708375846241</v>
+        <v>0.1892650164948664</v>
       </c>
       <c r="O411" t="n">
         <v>0.07656947436946315</v>
@@ -57037,7 +57037,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B412" t="n">
         <v>390</v>
@@ -57173,7 +57173,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B413" t="n">
         <v>390</v>
@@ -57309,7 +57309,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B414" t="n">
         <v>390</v>
@@ -57445,7 +57445,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B415" t="n">
         <v>390</v>
@@ -57581,7 +57581,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.32319444444</v>
       </c>
       <c r="B416" t="n">
         <v>390</v>
@@ -57630,7 +57630,7 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>0.6290405024071876</v>
+        <v>0.6290405024071875</v>
       </c>
       <c r="M416" t="n">
         <v>0.1816944810979464</v>
@@ -57639,10 +57639,10 @@
         <v>0.1892650164948664</v>
       </c>
       <c r="O416" t="n">
-        <v>0.03122995870045731</v>
+        <v>0.03122995870045708</v>
       </c>
       <c r="P416" t="n">
-        <v>0.9687700412995427</v>
+        <v>0.9687700412995429</v>
       </c>
       <c r="Q416" t="n">
         <v>0.3242852105707752</v>
@@ -57651,10 +57651,10 @@
         <v>0.6757147894292248</v>
       </c>
       <c r="S416" t="n">
-        <v>0.6268205566972486</v>
+        <v>0.6268205566972485</v>
       </c>
       <c r="T416" t="n">
-        <v>0.3731794433027514</v>
+        <v>0.3731794433027515</v>
       </c>
       <c r="U416" t="n">
         <v>0.8472269609792713</v>
@@ -57663,10 +57663,10 @@
         <v>0.1527730390207287</v>
       </c>
       <c r="W416" t="n">
-        <v>0.5225373595199285</v>
+        <v>0.5225373595199284</v>
       </c>
       <c r="X416" t="n">
-        <v>0.4774626404800715</v>
+        <v>0.4774626404800716</v>
       </c>
       <c r="Y416" t="n">
         <v>1.51</v>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -48813,7 +48813,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B351" t="n">
         <v>390</v>
@@ -48868,7 +48868,7 @@
         <v>0.3322993245014851</v>
       </c>
       <c r="N351" t="n">
-        <v>0.3247347485553387</v>
+        <v>0.3247347485553388</v>
       </c>
       <c r="O351" t="n">
         <v>0.1020704514520514</v>
@@ -48949,7 +48949,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B352" t="n">
         <v>390</v>
@@ -49085,7 +49085,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B353" t="n">
         <v>390</v>
@@ -49221,7 +49221,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B354" t="n">
         <v>390</v>
@@ -49349,7 +49349,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B355" t="n">
         <v>390</v>
@@ -49379,7 +49379,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Empate</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -49398,37 +49398,37 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>0.1965094526705545</v>
+        <v>0.2415293727085439</v>
       </c>
       <c r="M355" t="n">
-        <v>0.4631463312096707</v>
+        <v>0.3183811736902235</v>
       </c>
       <c r="N355" t="n">
-        <v>0.3403442161197748</v>
+        <v>0.4400894536012325</v>
       </c>
       <c r="O355" t="n">
-        <v>0.05251547132252699</v>
+        <v>0.1842756431078284</v>
       </c>
       <c r="P355" t="n">
-        <v>0.947484528677473</v>
+        <v>0.8157243568921716</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.6796040613289052</v>
+        <v>0.4786376418071928</v>
       </c>
       <c r="R355" t="n">
-        <v>0.3203959386710949</v>
+        <v>0.5213623581928072</v>
       </c>
       <c r="S355" t="n">
-        <v>0.7482550868651852</v>
+        <v>0.5782145137592576</v>
       </c>
       <c r="T355" t="n">
-        <v>0.2517449131348149</v>
+        <v>0.4217854862407425</v>
       </c>
       <c r="U355" t="n">
-        <v>0.7482550868651852</v>
+        <v>0.6031700210877029</v>
       </c>
       <c r="V355" t="n">
-        <v>0.2517449131348149</v>
+        <v>0.3968299789122972</v>
       </c>
       <c r="W355" t="n">
         <v>0.4986618098798136</v>
@@ -49485,7 +49485,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B356" t="n">
         <v>390</v>
@@ -49540,7 +49540,7 @@
         <v>0.3322993245014851</v>
       </c>
       <c r="N356" t="n">
-        <v>0.3247347485553387</v>
+        <v>0.3247347485553388</v>
       </c>
       <c r="O356" t="n">
         <v>0.1594213890890545</v>
@@ -49549,16 +49549,16 @@
         <v>0.8405786109109455</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.3438578129164603</v>
+        <v>0.3438578129164604</v>
       </c>
       <c r="R356" t="n">
-        <v>0.6561421870835397</v>
+        <v>0.6561421870835396</v>
       </c>
       <c r="S356" t="n">
         <v>0.6069396571986343</v>
       </c>
       <c r="T356" t="n">
-        <v>0.3930603428013657</v>
+        <v>0.3930603428013658</v>
       </c>
       <c r="U356" t="n">
         <v>0.7901421824726422</v>
@@ -49621,7 +49621,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B357" t="n">
         <v>325</v>
@@ -49757,7 +49757,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B358" t="n">
         <v>325</v>
@@ -49893,7 +49893,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B359" t="n">
         <v>325</v>
@@ -50029,7 +50029,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B360" t="n">
         <v>325</v>
@@ -50165,7 +50165,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B361" t="n">
         <v>325</v>
@@ -50206,37 +50206,37 @@
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
-        <v>0.7006899175767403</v>
+        <v>0.4932693171585404</v>
       </c>
       <c r="M361" t="n">
-        <v>0.2159490784299468</v>
+        <v>0.2965811130252543</v>
       </c>
       <c r="N361" t="n">
-        <v>0.08336100399331298</v>
+        <v>0.2101495698162055</v>
       </c>
       <c r="O361" t="n">
-        <v>0.000306409917731898</v>
+        <v>0.01057292927854558</v>
       </c>
       <c r="P361" t="n">
-        <v>0.9996935900822681</v>
+        <v>0.9894270707214544</v>
       </c>
       <c r="Q361" t="n">
-        <v>0.03248379756796649</v>
+        <v>0.03695055440952266</v>
       </c>
       <c r="R361" t="n">
-        <v>0.9675162024320335</v>
+        <v>0.9630494455904773</v>
       </c>
       <c r="S361" t="n">
-        <v>0.2077799100774491</v>
+        <v>0.1943850425090896</v>
       </c>
       <c r="T361" t="n">
-        <v>0.7922200899225509</v>
+        <v>0.8056149574909104</v>
       </c>
       <c r="U361" t="n">
-        <v>0.2077799100774491</v>
+        <v>0.1943850425090896</v>
       </c>
       <c r="V361" t="n">
-        <v>0.7922200899225509</v>
+        <v>0.8056149574909104</v>
       </c>
       <c r="W361" t="n">
         <v>0.3878158776577057</v>
@@ -50293,7 +50293,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45940.49365740741</v>
+        <v>45941.41020833333</v>
       </c>
       <c r="B362" t="n">
         <v>325</v>
@@ -50334,10 +50334,10 @@
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
-        <v>0.6506919052177619</v>
+        <v>0.6506919052177617</v>
       </c>
       <c r="M362" t="n">
-        <v>0.2452004030999282</v>
+        <v>0.2452004030999281</v>
       </c>
       <c r="N362" t="n">
         <v>0.1041076916823105</v>
@@ -50349,28 +50349,28 @@
         <v>0.7551702112908434</v>
       </c>
       <c r="Q362" t="n">
-        <v>0.3283895870013728</v>
+        <v>0.3283895870013729</v>
       </c>
       <c r="R362" t="n">
-        <v>0.6716104129986272</v>
+        <v>0.6716104129986271</v>
       </c>
       <c r="S362" t="n">
         <v>0.5482265833447206</v>
       </c>
       <c r="T362" t="n">
-        <v>0.4517734166552794</v>
+        <v>0.4517734166552793</v>
       </c>
       <c r="U362" t="n">
         <v>0.607249393639822</v>
       </c>
       <c r="V362" t="n">
-        <v>0.3927506063601779</v>
+        <v>0.392750606360178</v>
       </c>
       <c r="W362" t="n">
-        <v>0.4158445681314064</v>
+        <v>0.4158445681314063</v>
       </c>
       <c r="X362" t="n">
-        <v>0.5841554318685936</v>
+        <v>0.5841554318685938</v>
       </c>
       <c r="Y362" t="n">
         <v>1.22</v>
@@ -50421,7 +50421,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B363" t="n">
         <v>390</v>
@@ -50557,7 +50557,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B364" t="n">
         <v>390</v>
@@ -50693,7 +50693,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B365" t="n">
         <v>390</v>
@@ -50829,7 +50829,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B366" t="n">
         <v>390</v>
@@ -50965,7 +50965,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B367" t="n">
         <v>390</v>
@@ -50995,7 +50995,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -51014,37 +51014,37 @@
         </is>
       </c>
       <c r="L367" t="n">
-        <v>0.4428379900159204</v>
+        <v>0.323656760586769</v>
       </c>
       <c r="M367" t="n">
-        <v>0.2653447035741059</v>
+        <v>0.2737723242236736</v>
       </c>
       <c r="N367" t="n">
-        <v>0.2918173064099738</v>
+        <v>0.4025709151895573</v>
       </c>
       <c r="O367" t="n">
-        <v>0.003232437655791287</v>
+        <v>0.02450983897607906</v>
       </c>
       <c r="P367" t="n">
-        <v>0.9967675623442087</v>
+        <v>0.9754901610239209</v>
       </c>
       <c r="Q367" t="n">
-        <v>0.4301548701535519</v>
+        <v>0.6028685856147913</v>
       </c>
       <c r="R367" t="n">
-        <v>0.5698451298464481</v>
+        <v>0.3971314143852087</v>
       </c>
       <c r="S367" t="n">
-        <v>0.4496811005995853</v>
+        <v>0.8261371118502276</v>
       </c>
       <c r="T367" t="n">
-        <v>0.5503188994004147</v>
+        <v>0.1738628881497724</v>
       </c>
       <c r="U367" t="n">
-        <v>0.9821677799462648</v>
+        <v>0.8261371118502276</v>
       </c>
       <c r="V367" t="n">
-        <v>0.01783222005373523</v>
+        <v>0.1738628881497724</v>
       </c>
       <c r="W367" t="n">
         <v>0.4196558708594321</v>
@@ -51101,7 +51101,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B368" t="n">
         <v>390</v>
@@ -51165,16 +51165,16 @@
         <v>0.9061315980599771</v>
       </c>
       <c r="Q368" t="n">
-        <v>0.2907946001345738</v>
+        <v>0.2907946001345737</v>
       </c>
       <c r="R368" t="n">
-        <v>0.7092053998654262</v>
+        <v>0.7092053998654263</v>
       </c>
       <c r="S368" t="n">
-        <v>0.5601939395715148</v>
+        <v>0.5601939395715149</v>
       </c>
       <c r="T368" t="n">
-        <v>0.4398060604284852</v>
+        <v>0.4398060604284851</v>
       </c>
       <c r="U368" t="n">
         <v>0.8389483496533513</v>
@@ -51237,7 +51237,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B369" t="n">
         <v>390</v>
@@ -51286,13 +51286,13 @@
         </is>
       </c>
       <c r="L369" t="n">
-        <v>0.5032479285748984</v>
+        <v>0.5032479285748983</v>
       </c>
       <c r="M369" t="n">
         <v>0.313933159221518</v>
       </c>
       <c r="N369" t="n">
-        <v>0.1828189122035836</v>
+        <v>0.1828189122035837</v>
       </c>
       <c r="O369" t="n">
         <v>0.06102815402948403</v>
@@ -51373,7 +51373,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B370" t="n">
         <v>390</v>
@@ -51509,7 +51509,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B371" t="n">
         <v>390</v>
@@ -51645,7 +51645,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B372" t="n">
         <v>390</v>
@@ -51773,7 +51773,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B373" t="n">
         <v>390</v>
@@ -51803,7 +51803,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -51814,37 +51814,37 @@
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
-        <v>0.4616914748756129</v>
+        <v>0.3241951754490096</v>
       </c>
       <c r="M373" t="n">
-        <v>0.2792795875201975</v>
+        <v>0.31854179091832</v>
       </c>
       <c r="N373" t="n">
-        <v>0.2590289376041895</v>
+        <v>0.3572630336326703</v>
       </c>
       <c r="O373" t="n">
-        <v>0.004795922293999499</v>
+        <v>0.1390367946193941</v>
       </c>
       <c r="P373" t="n">
-        <v>0.9952040777060005</v>
+        <v>0.8609632053806059</v>
       </c>
       <c r="Q373" t="n">
-        <v>0.3984041314483312</v>
+        <v>0.4172926237034689</v>
       </c>
       <c r="R373" t="n">
-        <v>0.6015958685516688</v>
+        <v>0.5827073762965311</v>
       </c>
       <c r="S373" t="n">
-        <v>0.6538894348880804</v>
+        <v>0.6816275360999706</v>
       </c>
       <c r="T373" t="n">
-        <v>0.3461105651119196</v>
+        <v>0.3183724639000294</v>
       </c>
       <c r="U373" t="n">
-        <v>0.9732498109712574</v>
+        <v>0.6816275360999706</v>
       </c>
       <c r="V373" t="n">
-        <v>0.02675018902874263</v>
+        <v>0.3183724639000294</v>
       </c>
       <c r="W373" t="n">
         <v>0.3853052279019517</v>
@@ -51901,7 +51901,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B374" t="n">
         <v>390</v>
@@ -51942,28 +51942,28 @@
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
-        <v>0.5032479285748984</v>
+        <v>0.5032479285748983</v>
       </c>
       <c r="M374" t="n">
         <v>0.313933159221518</v>
       </c>
       <c r="N374" t="n">
-        <v>0.1828189122035836</v>
+        <v>0.1828189122035837</v>
       </c>
       <c r="O374" t="n">
-        <v>0.03290281907865722</v>
+        <v>0.03290281907865744</v>
       </c>
       <c r="P374" t="n">
-        <v>0.9670971809213428</v>
+        <v>0.9670971809213426</v>
       </c>
       <c r="Q374" t="n">
-        <v>0.368586231980446</v>
+        <v>0.3685862319804458</v>
       </c>
       <c r="R374" t="n">
-        <v>0.631413768019554</v>
+        <v>0.6314137680195542</v>
       </c>
       <c r="S374" t="n">
-        <v>0.5982532627776024</v>
+        <v>0.5982532627776025</v>
       </c>
       <c r="T374" t="n">
         <v>0.4017467372223976</v>
@@ -51975,10 +51975,10 @@
         <v>0.1726033420691784</v>
       </c>
       <c r="W374" t="n">
-        <v>0.5515892768954774</v>
+        <v>0.5515892768954773</v>
       </c>
       <c r="X374" t="n">
-        <v>0.4484107231045226</v>
+        <v>0.4484107231045227</v>
       </c>
       <c r="Y374" t="n">
         <v>1.91</v>
@@ -52029,7 +52029,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B375" t="n">
         <v>390</v>
@@ -52078,7 +52078,7 @@
         </is>
       </c>
       <c r="L375" t="n">
-        <v>0.4297381803308904</v>
+        <v>0.4297381803308905</v>
       </c>
       <c r="M375" t="n">
         <v>0.3372471649105065</v>
@@ -52165,7 +52165,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B376" t="n">
         <v>390</v>
@@ -52301,7 +52301,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B377" t="n">
         <v>390</v>
@@ -52437,7 +52437,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B378" t="n">
         <v>390</v>
@@ -52573,7 +52573,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B379" t="n">
         <v>390</v>
@@ -52622,37 +52622,37 @@
         </is>
       </c>
       <c r="L379" t="n">
-        <v>0.485421571044561</v>
+        <v>0.5992251828237452</v>
       </c>
       <c r="M379" t="n">
-        <v>0.2363429846823315</v>
+        <v>0.2976119990642267</v>
       </c>
       <c r="N379" t="n">
-        <v>0.2782354442731076</v>
+        <v>0.1031628181120281</v>
       </c>
       <c r="O379" t="n">
-        <v>0.004990255960187318</v>
+        <v>0.08513950050974617</v>
       </c>
       <c r="P379" t="n">
-        <v>0.9950097440398127</v>
+        <v>0.9148604994902538</v>
       </c>
       <c r="Q379" t="n">
-        <v>0.2997693242697942</v>
+        <v>0.5938256778855144</v>
       </c>
       <c r="R379" t="n">
-        <v>0.7002306757302058</v>
+        <v>0.4061743221144856</v>
       </c>
       <c r="S379" t="n">
-        <v>0.8389938876246106</v>
+        <v>0.6817451804526</v>
       </c>
       <c r="T379" t="n">
-        <v>0.1610061123753895</v>
+        <v>0.3182548195473999</v>
       </c>
       <c r="U379" t="n">
-        <v>0.8389938876246106</v>
+        <v>0.6817451804526</v>
       </c>
       <c r="V379" t="n">
-        <v>0.1610061123753895</v>
+        <v>0.3182548195473999</v>
       </c>
       <c r="W379" t="n">
         <v>0.4461624265203107</v>
@@ -52709,7 +52709,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B380" t="n">
         <v>390</v>
@@ -52758,7 +52758,7 @@
         </is>
       </c>
       <c r="L380" t="n">
-        <v>0.4297381803308904</v>
+        <v>0.4297381803308905</v>
       </c>
       <c r="M380" t="n">
         <v>0.3372471649105065</v>
@@ -52767,25 +52767,25 @@
         <v>0.2330146547586029</v>
       </c>
       <c r="O380" t="n">
-        <v>0.06509688016033399</v>
+        <v>0.06509688016033377</v>
       </c>
       <c r="P380" t="n">
-        <v>0.934903119839666</v>
+        <v>0.9349031198396662</v>
       </c>
       <c r="Q380" t="n">
-        <v>0.2903066358449776</v>
+        <v>0.2903066358449775</v>
       </c>
       <c r="R380" t="n">
-        <v>0.7096933641550224</v>
+        <v>0.7096933641550225</v>
       </c>
       <c r="S380" t="n">
-        <v>0.64783451056643</v>
+        <v>0.6478345105664302</v>
       </c>
       <c r="T380" t="n">
-        <v>0.3521654894335699</v>
+        <v>0.3521654894335698</v>
       </c>
       <c r="U380" t="n">
-        <v>0.7887373925621955</v>
+        <v>0.7887373925621957</v>
       </c>
       <c r="V380" t="n">
         <v>0.2112626074378044</v>
@@ -52845,7 +52845,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B381" t="n">
         <v>390</v>
@@ -52894,10 +52894,10 @@
         </is>
       </c>
       <c r="L381" t="n">
-        <v>0.4134723763376076</v>
+        <v>0.4134723763376075</v>
       </c>
       <c r="M381" t="n">
-        <v>0.2757685288000669</v>
+        <v>0.275768528800067</v>
       </c>
       <c r="N381" t="n">
         <v>0.3107590948623259</v>
@@ -52981,7 +52981,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B382" t="n">
         <v>390</v>
@@ -53117,7 +53117,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B383" t="n">
         <v>390</v>
@@ -53245,7 +53245,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B384" t="n">
         <v>390</v>
@@ -53381,7 +53381,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B385" t="n">
         <v>390</v>
@@ -53411,7 +53411,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Empate</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -53430,37 +53430,37 @@
         </is>
       </c>
       <c r="L385" t="n">
-        <v>0.3640557436140898</v>
+        <v>0.2722715438961565</v>
       </c>
       <c r="M385" t="n">
-        <v>0.3555713209480818</v>
+        <v>0.4901775317596897</v>
       </c>
       <c r="N385" t="n">
-        <v>0.2803729354378284</v>
+        <v>0.2375509243441538</v>
       </c>
       <c r="O385" t="n">
-        <v>0.9202681701717582</v>
+        <v>0.7159104374097646</v>
       </c>
       <c r="P385" t="n">
-        <v>0.07973182982824176</v>
+        <v>0.2840895625902354</v>
       </c>
       <c r="Q385" t="n">
-        <v>0.9202681701717582</v>
+        <v>0.7159104374097646</v>
       </c>
       <c r="R385" t="n">
-        <v>0.07973182982824176</v>
+        <v>0.2840895625902354</v>
       </c>
       <c r="S385" t="n">
-        <v>0.9202681701717582</v>
+        <v>0.7159104374097646</v>
       </c>
       <c r="T385" t="n">
-        <v>0.07973182982824176</v>
+        <v>0.2840895625902354</v>
       </c>
       <c r="U385" t="n">
-        <v>0.9202681701717582</v>
+        <v>0.7159104374097646</v>
       </c>
       <c r="V385" t="n">
-        <v>0.07973182982824176</v>
+        <v>0.2840895625902354</v>
       </c>
       <c r="W385" t="n">
         <v>0.4132478240061758</v>
@@ -53517,7 +53517,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B386" t="n">
         <v>390</v>
@@ -53566,25 +53566,25 @@
         </is>
       </c>
       <c r="L386" t="n">
-        <v>0.4134723763376076</v>
+        <v>0.4134723763376075</v>
       </c>
       <c r="M386" t="n">
-        <v>0.2757685288000669</v>
+        <v>0.275768528800067</v>
       </c>
       <c r="N386" t="n">
         <v>0.3107590948623259</v>
       </c>
       <c r="O386" t="n">
-        <v>0.07404933541947833</v>
+        <v>0.07404933541947822</v>
       </c>
       <c r="P386" t="n">
-        <v>0.9259506645805217</v>
+        <v>0.9259506645805218</v>
       </c>
       <c r="Q386" t="n">
-        <v>0.3812790268066503</v>
+        <v>0.38127902680665</v>
       </c>
       <c r="R386" t="n">
-        <v>0.6187209731933497</v>
+        <v>0.61872097319335</v>
       </c>
       <c r="S386" t="n">
         <v>0.7120694267462797</v>
@@ -53599,10 +53599,10 @@
         <v>0.1131477015540442</v>
       </c>
       <c r="W386" t="n">
-        <v>0.4443253995655359</v>
+        <v>0.444325399565536</v>
       </c>
       <c r="X386" t="n">
-        <v>0.5556746004344641</v>
+        <v>0.555674600434464</v>
       </c>
       <c r="Y386" t="n">
         <v>2.3</v>
@@ -53653,7 +53653,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B387" t="n">
         <v>390</v>
@@ -53789,7 +53789,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B388" t="n">
         <v>390</v>
@@ -53925,7 +53925,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B389" t="n">
         <v>390</v>
@@ -54061,7 +54061,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B390" t="n">
         <v>390</v>
@@ -54197,7 +54197,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B391" t="n">
         <v>390</v>
@@ -54227,7 +54227,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Empate</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -54246,37 +54246,37 @@
         </is>
       </c>
       <c r="L391" t="n">
-        <v>0.1637225949241595</v>
+        <v>0.1382866150333152</v>
       </c>
       <c r="M391" t="n">
-        <v>0.4247522863571578</v>
+        <v>0.3421051424874755</v>
       </c>
       <c r="N391" t="n">
-        <v>0.4115251187186826</v>
+        <v>0.5196082424792093</v>
       </c>
       <c r="O391" t="n">
-        <v>0.4212845303643652</v>
+        <v>0.6476089179404689</v>
       </c>
       <c r="P391" t="n">
-        <v>0.5787154696356348</v>
+        <v>0.352391082059531</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.4792543617295318</v>
+        <v>0.6476089179404689</v>
       </c>
       <c r="R391" t="n">
-        <v>0.5207456382704682</v>
+        <v>0.352391082059531</v>
       </c>
       <c r="S391" t="n">
-        <v>0.4792543617295318</v>
+        <v>0.7309942490544102</v>
       </c>
       <c r="T391" t="n">
-        <v>0.5207456382704682</v>
+        <v>0.2690057509455898</v>
       </c>
       <c r="U391" t="n">
-        <v>0.5389337724577163</v>
+        <v>0.7309942490544102</v>
       </c>
       <c r="V391" t="n">
-        <v>0.4610662275422837</v>
+        <v>0.2690057509455898</v>
       </c>
       <c r="W391" t="n">
         <v>0.4932836862596571</v>
@@ -54333,7 +54333,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B392" t="n">
         <v>390</v>
@@ -54389,16 +54389,16 @@
         <v>0.8555519172541893</v>
       </c>
       <c r="Q392" t="n">
-        <v>0.3989284122995039</v>
+        <v>0.3989284122995036</v>
       </c>
       <c r="R392" t="n">
-        <v>0.6010715877004961</v>
+        <v>0.6010715877004964</v>
       </c>
       <c r="S392" t="n">
         <v>0.593455876156892</v>
       </c>
       <c r="T392" t="n">
-        <v>0.406544123843108</v>
+        <v>0.4065441238431081</v>
       </c>
       <c r="U392" t="n">
         <v>0.8502505954061139</v>
@@ -54407,10 +54407,10 @@
         <v>0.1497494045938861</v>
       </c>
       <c r="W392" t="n">
-        <v>0.4373463133143934</v>
+        <v>0.4373463133143935</v>
       </c>
       <c r="X392" t="n">
-        <v>0.5626536866856067</v>
+        <v>0.5626536866856064</v>
       </c>
       <c r="Y392" t="n">
         <v>2.5</v>
@@ -54461,7 +54461,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B393" t="n">
         <v>390</v>
@@ -54510,7 +54510,7 @@
         </is>
       </c>
       <c r="L393" t="n">
-        <v>0.5792133233484628</v>
+        <v>0.5792133233484626</v>
       </c>
       <c r="M393" t="n">
         <v>0.2324624955755505</v>
@@ -54597,7 +54597,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B394" t="n">
         <v>390</v>
@@ -54733,7 +54733,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B395" t="n">
         <v>390</v>
@@ -54869,7 +54869,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B396" t="n">
         <v>390</v>
@@ -55005,7 +55005,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B397" t="n">
         <v>390</v>
@@ -55035,7 +55035,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Empate</t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -55054,37 +55054,37 @@
         </is>
       </c>
       <c r="L397" t="n">
-        <v>0.3231312558118901</v>
+        <v>0.4417684463983721</v>
       </c>
       <c r="M397" t="n">
-        <v>0.3414095354614936</v>
+        <v>0.4133142049142866</v>
       </c>
       <c r="N397" t="n">
-        <v>0.3354592087266164</v>
+        <v>0.1449173486873412</v>
       </c>
       <c r="O397" t="n">
-        <v>0.0005188841153550561</v>
+        <v>0.06102866169449284</v>
       </c>
       <c r="P397" t="n">
-        <v>0.9994811158846449</v>
+        <v>0.9389713383055072</v>
       </c>
       <c r="Q397" t="n">
-        <v>0.4503658690647233</v>
+        <v>0.6400233215550244</v>
       </c>
       <c r="R397" t="n">
-        <v>0.5496341309352767</v>
+        <v>0.3599766784449756</v>
       </c>
       <c r="S397" t="n">
-        <v>0.7118649944680954</v>
+        <v>0.8532468883363664</v>
       </c>
       <c r="T397" t="n">
-        <v>0.2881350055319046</v>
+        <v>0.1467531116636336</v>
       </c>
       <c r="U397" t="n">
-        <v>0.8791776967301904</v>
+        <v>0.8532468883363664</v>
       </c>
       <c r="V397" t="n">
-        <v>0.1208223032698095</v>
+        <v>0.1467531116636336</v>
       </c>
       <c r="W397" t="n">
         <v>0.3135088701228894</v>
@@ -55141,7 +55141,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B398" t="n">
         <v>390</v>
@@ -55190,7 +55190,7 @@
         </is>
       </c>
       <c r="L398" t="n">
-        <v>0.5792133233484628</v>
+        <v>0.5792133233484626</v>
       </c>
       <c r="M398" t="n">
         <v>0.2324624955755505</v>
@@ -55205,16 +55205,16 @@
         <v>0.9455440888786811</v>
       </c>
       <c r="Q398" t="n">
-        <v>0.325864948234457</v>
+        <v>0.3258649482344572</v>
       </c>
       <c r="R398" t="n">
-        <v>0.674135051765543</v>
+        <v>0.6741350517655428</v>
       </c>
       <c r="S398" t="n">
-        <v>0.4946378891932037</v>
+        <v>0.4946378891932036</v>
       </c>
       <c r="T398" t="n">
-        <v>0.5053621108067963</v>
+        <v>0.5053621108067964</v>
       </c>
       <c r="U398" t="n">
         <v>0.7668028445175321</v>
@@ -55223,7 +55223,7 @@
         <v>0.2331971554824679</v>
       </c>
       <c r="W398" t="n">
-        <v>0.4920442711405159</v>
+        <v>0.492044271140516</v>
       </c>
       <c r="X398" t="n">
         <v>0.507955728859484</v>
@@ -55277,7 +55277,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B399" t="n">
         <v>390</v>
@@ -55326,7 +55326,7 @@
         </is>
       </c>
       <c r="L399" t="n">
-        <v>0.6353262209473198</v>
+        <v>0.6353262209473196</v>
       </c>
       <c r="M399" t="n">
         <v>0.1711855435829157</v>
@@ -55413,7 +55413,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B400" t="n">
         <v>390</v>
@@ -55549,7 +55549,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B401" t="n">
         <v>390</v>
@@ -55685,7 +55685,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B402" t="n">
         <v>390</v>
@@ -55821,7 +55821,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B403" t="n">
         <v>390</v>
@@ -55851,7 +55851,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Visitante</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -55870,37 +55870,37 @@
         </is>
       </c>
       <c r="L403" t="n">
-        <v>0.4771879435547778</v>
+        <v>0.3106775428709934</v>
       </c>
       <c r="M403" t="n">
-        <v>0.2174498039103327</v>
+        <v>0.3289289777018282</v>
       </c>
       <c r="N403" t="n">
-        <v>0.3053622525348895</v>
+        <v>0.3603934794271784</v>
       </c>
       <c r="O403" t="n">
-        <v>0.0002505257367491076</v>
+        <v>0.01067702584496799</v>
       </c>
       <c r="P403" t="n">
-        <v>0.9997494742632509</v>
+        <v>0.989322974155032</v>
       </c>
       <c r="Q403" t="n">
-        <v>0.1873130426539031</v>
+        <v>0.2796422264418078</v>
       </c>
       <c r="R403" t="n">
-        <v>0.8126869573460969</v>
+        <v>0.7203577735581922</v>
       </c>
       <c r="S403" t="n">
-        <v>0.4141341566764984</v>
+        <v>0.6081057640489809</v>
       </c>
       <c r="T403" t="n">
-        <v>0.5858658433235016</v>
+        <v>0.3918942359510192</v>
       </c>
       <c r="U403" t="n">
-        <v>0.4141341566764984</v>
+        <v>0.6081057640489809</v>
       </c>
       <c r="V403" t="n">
-        <v>0.5858658433235016</v>
+        <v>0.3918942359510192</v>
       </c>
       <c r="W403" t="n">
         <v>0.6606033681862746</v>
@@ -55957,7 +55957,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B404" t="n">
         <v>390</v>
@@ -56006,7 +56006,7 @@
         </is>
       </c>
       <c r="L404" t="n">
-        <v>0.6353262209473198</v>
+        <v>0.6353262209473196</v>
       </c>
       <c r="M404" t="n">
         <v>0.1711855435829157</v>
@@ -56015,10 +56015,10 @@
         <v>0.1934882354697649</v>
       </c>
       <c r="O404" t="n">
-        <v>0.03149082666420611</v>
+        <v>0.03149082666420633</v>
       </c>
       <c r="P404" t="n">
-        <v>0.9685091733357939</v>
+        <v>0.9685091733357937</v>
       </c>
       <c r="Q404" t="n">
         <v>0.2652485056649186</v>
@@ -56027,22 +56027,22 @@
         <v>0.7347514943350814</v>
       </c>
       <c r="S404" t="n">
-        <v>0.4982202925848063</v>
+        <v>0.4982202925848064</v>
       </c>
       <c r="T404" t="n">
-        <v>0.5017797074151937</v>
+        <v>0.5017797074151936</v>
       </c>
       <c r="U404" t="n">
-        <v>0.7086189245957711</v>
+        <v>0.7086189245957712</v>
       </c>
       <c r="V404" t="n">
-        <v>0.2913810754042289</v>
+        <v>0.2913810754042287</v>
       </c>
       <c r="W404" t="n">
-        <v>0.5470911664608163</v>
+        <v>0.5470911664608165</v>
       </c>
       <c r="X404" t="n">
-        <v>0.4529088335391837</v>
+        <v>0.4529088335391835</v>
       </c>
       <c r="Y404" t="n">
         <v>1.61</v>
@@ -56093,7 +56093,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B405" t="n">
         <v>390</v>
@@ -56148,7 +56148,7 @@
         <v>0.2761646625437316</v>
       </c>
       <c r="N405" t="n">
-        <v>0.3560078420668735</v>
+        <v>0.3560078420668734</v>
       </c>
       <c r="O405" t="n">
         <v>0.09564563809742621</v>
@@ -56229,7 +56229,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B406" t="n">
         <v>390</v>
@@ -56365,7 +56365,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B407" t="n">
         <v>390</v>
@@ -56501,7 +56501,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B408" t="n">
         <v>390</v>
@@ -56637,7 +56637,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B409" t="n">
         <v>390</v>
@@ -56667,7 +56667,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Visitante</t>
+          <t>Empate</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -56686,37 +56686,37 @@
         </is>
       </c>
       <c r="L409" t="n">
-        <v>0.2428443633364521</v>
+        <v>0.3671384271254608</v>
       </c>
       <c r="M409" t="n">
-        <v>0.2837601045959024</v>
+        <v>0.3716801510431477</v>
       </c>
       <c r="N409" t="n">
-        <v>0.4733955320676456</v>
+        <v>0.2611814218313915</v>
       </c>
       <c r="O409" t="n">
-        <v>0.0657333355260652</v>
+        <v>0.1667266378889023</v>
       </c>
       <c r="P409" t="n">
-        <v>0.9342666644739348</v>
+        <v>0.8332733621110977</v>
       </c>
       <c r="Q409" t="n">
-        <v>0.4087868174737017</v>
+        <v>0.4069452426281472</v>
       </c>
       <c r="R409" t="n">
-        <v>0.5912131825262983</v>
+        <v>0.5930547573718528</v>
       </c>
       <c r="S409" t="n">
-        <v>0.4087868174737017</v>
+        <v>0.6069166891241684</v>
       </c>
       <c r="T409" t="n">
-        <v>0.5912131825262983</v>
+        <v>0.3930833108758316</v>
       </c>
       <c r="U409" t="n">
-        <v>0.8074311353743137</v>
+        <v>0.6069166891241684</v>
       </c>
       <c r="V409" t="n">
-        <v>0.1925688646256863</v>
+        <v>0.3930833108758316</v>
       </c>
       <c r="W409" t="n">
         <v>0.2140276918099504</v>
@@ -56773,7 +56773,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B410" t="n">
         <v>390</v>
@@ -56820,13 +56820,13 @@
         <v>0.2761646625437316</v>
       </c>
       <c r="N410" t="n">
-        <v>0.3560078420668735</v>
+        <v>0.3560078420668734</v>
       </c>
       <c r="O410" t="n">
-        <v>0.1306546269481101</v>
+        <v>0.13065462694811</v>
       </c>
       <c r="P410" t="n">
-        <v>0.8693453730518899</v>
+        <v>0.86934537305189</v>
       </c>
       <c r="Q410" t="n">
         <v>0.3877514148942764</v>
@@ -56844,13 +56844,13 @@
         <v>0.8337786548610733</v>
       </c>
       <c r="V410" t="n">
-        <v>0.1662213451389267</v>
+        <v>0.1662213451389268</v>
       </c>
       <c r="W410" t="n">
-        <v>0.4427436752676187</v>
+        <v>0.4427436752676188</v>
       </c>
       <c r="X410" t="n">
-        <v>0.5572563247323813</v>
+        <v>0.5572563247323812</v>
       </c>
       <c r="Y410" t="n">
         <v>2.75</v>
@@ -56901,7 +56901,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B411" t="n">
         <v>390</v>
@@ -56950,13 +56950,13 @@
         </is>
       </c>
       <c r="L411" t="n">
-        <v>0.6290405024071875</v>
+        <v>0.6290405024071871</v>
       </c>
       <c r="M411" t="n">
         <v>0.1816944810979464</v>
       </c>
       <c r="N411" t="n">
-        <v>0.1892650164948664</v>
+        <v>0.1892650164948663</v>
       </c>
       <c r="O411" t="n">
         <v>0.07656947436946315</v>
@@ -57037,7 +57037,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B412" t="n">
         <v>390</v>
@@ -57173,7 +57173,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B413" t="n">
         <v>390</v>
@@ -57309,7 +57309,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B414" t="n">
         <v>390</v>
@@ -57445,7 +57445,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B415" t="n">
         <v>390</v>
@@ -57494,37 +57494,37 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>0.4583975138138687</v>
+        <v>0.5311115231035207</v>
       </c>
       <c r="M415" t="n">
-        <v>0.2406932874630696</v>
+        <v>0.1936160636037748</v>
       </c>
       <c r="N415" t="n">
-        <v>0.3009091987230618</v>
+        <v>0.2752724132927044</v>
       </c>
       <c r="O415" t="n">
-        <v>0.07801414362070147</v>
+        <v>0.2605314423087598</v>
       </c>
       <c r="P415" t="n">
-        <v>0.9219858563792985</v>
+        <v>0.7394685576912402</v>
       </c>
       <c r="Q415" t="n">
-        <v>0.5482768000358502</v>
+        <v>0.5276885091107211</v>
       </c>
       <c r="R415" t="n">
-        <v>0.4517231999641498</v>
+        <v>0.4723114908892789</v>
       </c>
       <c r="S415" t="n">
-        <v>0.5482768000358502</v>
+        <v>0.7098087356681022</v>
       </c>
       <c r="T415" t="n">
-        <v>0.4517231999641498</v>
+        <v>0.2901912643318978</v>
       </c>
       <c r="U415" t="n">
-        <v>0.9326106641489759</v>
+        <v>0.7098087356681022</v>
       </c>
       <c r="V415" t="n">
-        <v>0.06738933585102409</v>
+        <v>0.2901912643318978</v>
       </c>
       <c r="W415" t="n">
         <v>0.24834187247593</v>
@@ -57581,7 +57581,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45941.32319444444</v>
+        <v>45941.40982638889</v>
       </c>
       <c r="B416" t="n">
         <v>390</v>
@@ -57630,31 +57630,31 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>0.6290405024071875</v>
+        <v>0.6290405024071871</v>
       </c>
       <c r="M416" t="n">
         <v>0.1816944810979464</v>
       </c>
       <c r="N416" t="n">
-        <v>0.1892650164948664</v>
+        <v>0.1892650164948663</v>
       </c>
       <c r="O416" t="n">
-        <v>0.03122995870045708</v>
+        <v>0.03122995870045719</v>
       </c>
       <c r="P416" t="n">
-        <v>0.9687700412995429</v>
+        <v>0.9687700412995428</v>
       </c>
       <c r="Q416" t="n">
-        <v>0.3242852105707752</v>
+        <v>0.324285210570775</v>
       </c>
       <c r="R416" t="n">
-        <v>0.6757147894292248</v>
+        <v>0.675714789429225</v>
       </c>
       <c r="S416" t="n">
-        <v>0.6268205566972485</v>
+        <v>0.6268205566972486</v>
       </c>
       <c r="T416" t="n">
-        <v>0.3731794433027515</v>
+        <v>0.3731794433027514</v>
       </c>
       <c r="U416" t="n">
         <v>0.8472269609792713</v>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -48939,11 +48939,15 @@
       <c r="AK351" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL351" t="inlineStr"/>
-      <c r="AM351" t="inlineStr"/>
+      <c r="AL351" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1</v>
+      </c>
       <c r="AN351" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49075,11 +49079,15 @@
       <c r="AK352" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL352" t="inlineStr"/>
-      <c r="AM352" t="inlineStr"/>
+      <c r="AL352" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1</v>
+      </c>
       <c r="AN352" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49211,11 +49219,15 @@
       <c r="AK353" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL353" t="inlineStr"/>
-      <c r="AM353" t="inlineStr"/>
+      <c r="AL353" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>1</v>
+      </c>
       <c r="AN353" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49339,11 +49351,15 @@
       <c r="AK354" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL354" t="inlineStr"/>
-      <c r="AM354" t="inlineStr"/>
+      <c r="AL354" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>1</v>
+      </c>
       <c r="AN354" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49475,11 +49491,15 @@
       <c r="AK355" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL355" t="inlineStr"/>
-      <c r="AM355" t="inlineStr"/>
+      <c r="AL355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>1</v>
+      </c>
       <c r="AN355" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49611,11 +49631,15 @@
       <c r="AK356" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL356" t="inlineStr"/>
-      <c r="AM356" t="inlineStr"/>
+      <c r="AL356" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>1</v>
+      </c>
       <c r="AN356" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49747,11 +49771,15 @@
       <c r="AK357" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL357" t="inlineStr"/>
-      <c r="AM357" t="inlineStr"/>
+      <c r="AL357" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1</v>
+      </c>
       <c r="AN357" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49883,11 +49911,15 @@
       <c r="AK358" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL358" t="inlineStr"/>
-      <c r="AM358" t="inlineStr"/>
+      <c r="AL358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1</v>
+      </c>
       <c r="AN358" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50019,11 +50051,15 @@
       <c r="AK359" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL359" t="inlineStr"/>
-      <c r="AM359" t="inlineStr"/>
+      <c r="AL359" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1</v>
+      </c>
       <c r="AN359" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50155,11 +50191,15 @@
       <c r="AK360" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL360" t="inlineStr"/>
-      <c r="AM360" t="inlineStr"/>
+      <c r="AL360" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1</v>
+      </c>
       <c r="AN360" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50283,11 +50323,15 @@
       <c r="AK361" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL361" t="inlineStr"/>
-      <c r="AM361" t="inlineStr"/>
+      <c r="AL361" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1</v>
+      </c>
       <c r="AN361" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50411,11 +50455,15 @@
       <c r="AK362" t="n">
         <v>1.4</v>
       </c>
-      <c r="AL362" t="inlineStr"/>
-      <c r="AM362" t="inlineStr"/>
+      <c r="AL362" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>1</v>
+      </c>
       <c r="AN362" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -2447,7 +2447,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="AN103" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AN105" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="AN106" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="AN108" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="AN109" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AN110" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="AN111" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="AN113" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AN114" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="AN115" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="AN118" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="AN135" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AN136" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="AN138" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="AN139" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="AN140" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="AN141" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="AN144" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="AN145" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="AN148" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="AN149" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       </c>
       <c r="AN150" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="AN151" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21439,7 +21439,7 @@
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="AN153" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="AN154" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="AN155" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="AN156" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22279,7 +22279,7 @@
       </c>
       <c r="AN158" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="AN160" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="AN161" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="AN163" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="AN164" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="AN165" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="AN166" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23679,7 +23679,7 @@
       </c>
       <c r="AN168" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="AN169" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="AN171" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="AN173" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="AN174" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="AN175" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="AN176" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25039,7 +25039,7 @@
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26259,7 +26259,7 @@
       </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26399,7 +26399,7 @@
       </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29003,7 +29003,7 @@
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29423,7 +29423,7 @@
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="AN212" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="AN213" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="AN215" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="AN217" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="AN219" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="AN220" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="AN222" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31195,7 +31195,7 @@
       </c>
       <c r="AN223" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="AN224" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="AN225" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31615,7 +31615,7 @@
       </c>
       <c r="AN226" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="AN227" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -31895,7 +31895,7 @@
       </c>
       <c r="AN228" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="AN229" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -32175,7 +32175,7 @@
       </c>
       <c r="AN230" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="AN237" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="AN238" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33855,7 +33855,7 @@
       </c>
       <c r="AN242" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AN243" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="AN244" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="AN245" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="AN246" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="AN247" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="AN248" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="AN249" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="AN250" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="AN252" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35363,7 +35363,7 @@
       </c>
       <c r="AN253" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="AN254" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="AN255" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="AN256" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="AN257" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36047,7 +36047,7 @@
       </c>
       <c r="AN258" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="AN259" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -36327,7 +36327,7 @@
       </c>
       <c r="AN260" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37287,7 +37287,7 @@
       </c>
       <c r="AN267" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       </c>
       <c r="AN268" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37559,7 +37559,7 @@
       </c>
       <c r="AN269" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37839,7 +37839,7 @@
       </c>
       <c r="AN271" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="AN272" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       </c>
       <c r="AN273" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="AN274" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38399,7 +38399,7 @@
       </c>
       <c r="AN275" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="AN276" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38679,7 +38679,7 @@
       </c>
       <c r="AN277" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -38819,7 +38819,7 @@
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="AN297" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41579,7 +41579,7 @@
       </c>
       <c r="AN298" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="AN299" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="AN300" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -41995,7 +41995,7 @@
       </c>
       <c r="AN301" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="AN302" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="AN321" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -44911,7 +44911,7 @@
       </c>
       <c r="AN322" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45051,7 +45051,7 @@
       </c>
       <c r="AN323" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45187,7 +45187,7 @@
       </c>
       <c r="AN324" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45327,7 +45327,7 @@
       </c>
       <c r="AN325" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -45467,7 +45467,7 @@
       </c>
       <c r="AN326" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -49779,7 +49779,7 @@
       </c>
       <c r="AN357" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -49919,7 +49919,7 @@
       </c>
       <c r="AN358" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -50059,7 +50059,7 @@
       </c>
       <c r="AN359" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -50199,7 +50199,7 @@
       </c>
       <c r="AN360" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -50331,7 +50331,7 @@
       </c>
       <c r="AN361" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -50463,7 +50463,7 @@
       </c>
       <c r="AN362" t="inlineStr">
         <is>
-          <t>finished</t>
+          <t>nostarted</t>
         </is>
       </c>
     </row>
@@ -50595,11 +50595,15 @@
       <c r="AK363" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL363" t="inlineStr"/>
-      <c r="AM363" t="inlineStr"/>
+      <c r="AL363" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>0</v>
+      </c>
       <c r="AN363" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50731,11 +50735,15 @@
       <c r="AK364" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL364" t="inlineStr"/>
-      <c r="AM364" t="inlineStr"/>
+      <c r="AL364" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>0</v>
+      </c>
       <c r="AN364" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50867,11 +50875,15 @@
       <c r="AK365" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL365" t="inlineStr"/>
-      <c r="AM365" t="inlineStr"/>
+      <c r="AL365" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>0</v>
+      </c>
       <c r="AN365" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51003,11 +51015,15 @@
       <c r="AK366" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL366" t="inlineStr"/>
-      <c r="AM366" t="inlineStr"/>
+      <c r="AL366" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>0</v>
+      </c>
       <c r="AN366" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51139,11 +51155,15 @@
       <c r="AK367" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL367" t="inlineStr"/>
-      <c r="AM367" t="inlineStr"/>
+      <c r="AL367" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>0</v>
+      </c>
       <c r="AN367" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51275,11 +51295,15 @@
       <c r="AK368" t="n">
         <v>1.14</v>
       </c>
-      <c r="AL368" t="inlineStr"/>
-      <c r="AM368" t="inlineStr"/>
+      <c r="AL368" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>0</v>
+      </c>
       <c r="AN368" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51411,11 +51435,15 @@
       <c r="AK369" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL369" t="inlineStr"/>
-      <c r="AM369" t="inlineStr"/>
+      <c r="AL369" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1</v>
+      </c>
       <c r="AN369" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51547,11 +51575,15 @@
       <c r="AK370" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL370" t="inlineStr"/>
-      <c r="AM370" t="inlineStr"/>
+      <c r="AL370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>1</v>
+      </c>
       <c r="AN370" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51683,11 +51715,15 @@
       <c r="AK371" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL371" t="inlineStr"/>
-      <c r="AM371" t="inlineStr"/>
+      <c r="AL371" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>1</v>
+      </c>
       <c r="AN371" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51811,11 +51847,15 @@
       <c r="AK372" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL372" t="inlineStr"/>
-      <c r="AM372" t="inlineStr"/>
+      <c r="AL372" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM372" t="n">
+        <v>1</v>
+      </c>
       <c r="AN372" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -51939,11 +51979,15 @@
       <c r="AK373" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL373" t="inlineStr"/>
-      <c r="AM373" t="inlineStr"/>
+      <c r="AL373" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM373" t="n">
+        <v>1</v>
+      </c>
       <c r="AN373" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52067,11 +52111,15 @@
       <c r="AK374" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL374" t="inlineStr"/>
-      <c r="AM374" t="inlineStr"/>
+      <c r="AL374" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>1</v>
+      </c>
       <c r="AN374" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52203,11 +52251,15 @@
       <c r="AK375" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL375" t="inlineStr"/>
-      <c r="AM375" t="inlineStr"/>
+      <c r="AL375" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>0</v>
+      </c>
       <c r="AN375" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52339,11 +52391,15 @@
       <c r="AK376" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL376" t="inlineStr"/>
-      <c r="AM376" t="inlineStr"/>
+      <c r="AL376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>0</v>
+      </c>
       <c r="AN376" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52475,11 +52531,15 @@
       <c r="AK377" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL377" t="inlineStr"/>
-      <c r="AM377" t="inlineStr"/>
+      <c r="AL377" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>0</v>
+      </c>
       <c r="AN377" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52611,11 +52671,15 @@
       <c r="AK378" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL378" t="inlineStr"/>
-      <c r="AM378" t="inlineStr"/>
+      <c r="AL378" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>0</v>
+      </c>
       <c r="AN378" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52747,11 +52811,15 @@
       <c r="AK379" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL379" t="inlineStr"/>
-      <c r="AM379" t="inlineStr"/>
+      <c r="AL379" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>0</v>
+      </c>
       <c r="AN379" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -52883,11 +52951,15 @@
       <c r="AK380" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL380" t="inlineStr"/>
-      <c r="AM380" t="inlineStr"/>
+      <c r="AL380" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM380" t="n">
+        <v>0</v>
+      </c>
       <c r="AN380" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53019,11 +53091,15 @@
       <c r="AK381" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL381" t="inlineStr"/>
-      <c r="AM381" t="inlineStr"/>
+      <c r="AL381" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>0</v>
+      </c>
       <c r="AN381" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53155,11 +53231,15 @@
       <c r="AK382" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL382" t="inlineStr"/>
-      <c r="AM382" t="inlineStr"/>
+      <c r="AL382" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM382" t="n">
+        <v>0</v>
+      </c>
       <c r="AN382" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53283,11 +53363,15 @@
       <c r="AK383" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL383" t="inlineStr"/>
-      <c r="AM383" t="inlineStr"/>
+      <c r="AL383" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>0</v>
+      </c>
       <c r="AN383" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53419,11 +53503,15 @@
       <c r="AK384" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL384" t="inlineStr"/>
-      <c r="AM384" t="inlineStr"/>
+      <c r="AL384" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM384" t="n">
+        <v>0</v>
+      </c>
       <c r="AN384" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53555,11 +53643,15 @@
       <c r="AK385" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL385" t="inlineStr"/>
-      <c r="AM385" t="inlineStr"/>
+      <c r="AL385" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM385" t="n">
+        <v>0</v>
+      </c>
       <c r="AN385" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -53691,11 +53783,15 @@
       <c r="AK386" t="n">
         <v>1.17</v>
       </c>
-      <c r="AL386" t="inlineStr"/>
-      <c r="AM386" t="inlineStr"/>
+      <c r="AL386" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM386" t="n">
+        <v>0</v>
+      </c>
       <c r="AN386" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -2447,7 +2447,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9819,7 @@
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12275,7 +12275,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       </c>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="AN102" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="AN103" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="AN104" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="AN105" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       </c>
       <c r="AN106" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15179,7 +15179,7 @@
       </c>
       <c r="AN107" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15319,7 @@
       </c>
       <c r="AN108" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="AN109" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AN110" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="AN111" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -15879,7 +15879,7 @@
       </c>
       <c r="AN112" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16019,7 +16019,7 @@
       </c>
       <c r="AN113" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="AN114" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="AN115" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="AN116" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="AN117" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="AN118" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="AN119" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="AN120" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="AN121" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="AN122" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19075,7 +19075,7 @@
       </c>
       <c r="AN135" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AN136" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="AN137" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="AN138" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="AN139" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19775,7 @@
       </c>
       <c r="AN140" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="AN141" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="AN142" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="AN143" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       </c>
       <c r="AN144" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20475,7 @@
       </c>
       <c r="AN145" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20607,7 +20607,7 @@
       </c>
       <c r="AN146" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="AN147" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="AN148" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="AN149" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       </c>
       <c r="AN150" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21299,7 +21299,7 @@
       </c>
       <c r="AN151" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21439,7 +21439,7 @@
       </c>
       <c r="AN152" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21579,7 +21579,7 @@
       </c>
       <c r="AN153" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="AN154" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="AN155" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="AN156" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="AN157" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22279,7 +22279,7 @@
       </c>
       <c r="AN158" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22419,7 +22419,7 @@
       </c>
       <c r="AN159" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="AN160" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="AN161" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="AN162" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -22979,7 +22979,7 @@
       </c>
       <c r="AN163" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="AN164" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="AN165" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="AN166" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
       </c>
       <c r="AN167" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23679,7 +23679,7 @@
       </c>
       <c r="AN168" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23819,7 +23819,7 @@
       </c>
       <c r="AN169" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="AN170" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24083,7 +24083,7 @@
       </c>
       <c r="AN171" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="AN172" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="AN173" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24487,7 +24487,7 @@
       </c>
       <c r="AN174" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24619,7 +24619,7 @@
       </c>
       <c r="AN175" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="AN176" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -24899,7 +24899,7 @@
       </c>
       <c r="AN177" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25039,7 +25039,7 @@
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="AN179" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="AN180" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="AN181" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
       </c>
       <c r="AN182" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="AN183" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="AN184" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="AN185" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26119,7 +26119,7 @@
       </c>
       <c r="AN186" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26259,7 +26259,7 @@
       </c>
       <c r="AN187" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26399,7 +26399,7 @@
       </c>
       <c r="AN188" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="AN189" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26671,7 +26671,7 @@
       </c>
       <c r="AN190" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="AN191" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="AN192" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       </c>
       <c r="AN193" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27223,7 +27223,7 @@
       </c>
       <c r="AN194" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="AN195" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27495,7 +27495,7 @@
       </c>
       <c r="AN196" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="AN197" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="AN198" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -27891,7 +27891,7 @@
       </c>
       <c r="AN199" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="AN200" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       </c>
       <c r="AN201" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28303,7 +28303,7 @@
       </c>
       <c r="AN202" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="AN203" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="AN204" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28723,7 +28723,7 @@
       </c>
       <c r="AN205" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="AN206" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29003,7 +29003,7 @@
       </c>
       <c r="AN207" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="AN208" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29283,7 +29283,7 @@
       </c>
       <c r="AN209" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29423,7 +29423,7 @@
       </c>
       <c r="AN210" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="AN211" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="AN212" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29835,7 +29835,7 @@
       </c>
       <c r="AN213" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="AN214" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="AN215" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="AN216" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="AN217" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="AN218" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="AN219" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30775,7 +30775,7 @@
       </c>
       <c r="AN220" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="AN221" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="AN222" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31195,7 +31195,7 @@
       </c>
       <c r="AN223" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="AN224" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="AN225" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31615,7 +31615,7 @@
       </c>
       <c r="AN226" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31755,7 +31755,7 @@
       </c>
       <c r="AN227" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -31895,7 +31895,7 @@
       </c>
       <c r="AN228" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="AN229" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -32175,7 +32175,7 @@
       </c>
       <c r="AN230" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="AN237" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33295,7 +33295,7 @@
       </c>
       <c r="AN238" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="AN239" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="AN240" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="AN241" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33855,7 +33855,7 @@
       </c>
       <c r="AN242" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -33995,7 +33995,7 @@
       </c>
       <c r="AN243" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="AN244" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="AN245" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="AN246" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="AN247" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34671,7 +34671,7 @@
       </c>
       <c r="AN248" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="AN249" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="AN250" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="AN251" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35223,7 +35223,7 @@
       </c>
       <c r="AN252" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35363,7 +35363,7 @@
       </c>
       <c r="AN253" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35495,7 +35495,7 @@
       </c>
       <c r="AN254" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="AN255" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="AN256" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -35915,7 +35915,7 @@
       </c>
       <c r="AN257" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36047,7 +36047,7 @@
       </c>
       <c r="AN258" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="AN259" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -36327,7 +36327,7 @@
       </c>
       <c r="AN260" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37287,7 +37287,7 @@
       </c>
       <c r="AN267" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37427,7 +37427,7 @@
       </c>
       <c r="AN268" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37559,7 +37559,7 @@
       </c>
       <c r="AN269" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="AN270" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37839,7 +37839,7 @@
       </c>
       <c r="AN271" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
       </c>
       <c r="AN272" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38119,7 +38119,7 @@
       </c>
       <c r="AN273" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38259,7 +38259,7 @@
       </c>
       <c r="AN274" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38399,7 +38399,7 @@
       </c>
       <c r="AN275" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="AN276" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38679,7 +38679,7 @@
       </c>
       <c r="AN277" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -38819,7 +38819,7 @@
       </c>
       <c r="AN278" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41439,7 +41439,7 @@
       </c>
       <c r="AN297" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41579,7 +41579,7 @@
       </c>
       <c r="AN298" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41719,7 +41719,7 @@
       </c>
       <c r="AN299" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41855,7 +41855,7 @@
       </c>
       <c r="AN300" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -41995,7 +41995,7 @@
       </c>
       <c r="AN301" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -42135,7 +42135,7 @@
       </c>
       <c r="AN302" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44771,7 +44771,7 @@
       </c>
       <c r="AN321" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -44911,7 +44911,7 @@
       </c>
       <c r="AN322" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45051,7 +45051,7 @@
       </c>
       <c r="AN323" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45187,7 +45187,7 @@
       </c>
       <c r="AN324" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45327,7 +45327,7 @@
       </c>
       <c r="AN325" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -45467,7 +45467,7 @@
       </c>
       <c r="AN326" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49779,7 +49779,7 @@
       </c>
       <c r="AN357" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -49919,7 +49919,7 @@
       </c>
       <c r="AN358" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50059,7 +50059,7 @@
       </c>
       <c r="AN359" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50199,7 +50199,7 @@
       </c>
       <c r="AN360" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50331,7 +50331,7 @@
       </c>
       <c r="AN361" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>
@@ -50463,7 +50463,7 @@
       </c>
       <c r="AN362" t="inlineStr">
         <is>
-          <t>nostarted</t>
+          <t>finished</t>
         </is>
       </c>
     </row>

--- a/PrevisaoJogos.xlsx
+++ b/PrevisaoJogos.xlsx
@@ -66005,7 +66005,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B477" t="n">
         <v>35</v>
@@ -66054,43 +66054,43 @@
         </is>
       </c>
       <c r="L477" t="n">
-        <v>0.3131223107137042</v>
+        <v>0.319726248556035</v>
       </c>
       <c r="M477" t="n">
-        <v>0.2644252726074148</v>
+        <v>0.2801847242627942</v>
       </c>
       <c r="N477" t="n">
-        <v>0.4224524166788812</v>
+        <v>0.4000890271811708</v>
       </c>
       <c r="O477" t="n">
-        <v>0.05189371993375702</v>
+        <v>0.05361239495012349</v>
       </c>
       <c r="P477" t="n">
-        <v>0.948106280066243</v>
+        <v>0.9463876050498765</v>
       </c>
       <c r="Q477" t="n">
-        <v>0.2056470809306304</v>
+        <v>0.2107045581044594</v>
       </c>
       <c r="R477" t="n">
-        <v>0.7943529190693696</v>
+        <v>0.7892954418955406</v>
       </c>
       <c r="S477" t="n">
-        <v>0.4327850363347361</v>
+        <v>0.4402213996809903</v>
       </c>
       <c r="T477" t="n">
-        <v>0.5672149636652639</v>
+        <v>0.5597786003190097</v>
       </c>
       <c r="U477" t="n">
-        <v>0.6567586786878894</v>
+        <v>0.6640492021656021</v>
       </c>
       <c r="V477" t="n">
-        <v>0.3432413213121107</v>
+        <v>0.3359507978343979</v>
       </c>
       <c r="W477" t="n">
-        <v>0.5915953208077537</v>
+        <v>0.5866275136731669</v>
       </c>
       <c r="X477" t="n">
-        <v>0.4084046791922463</v>
+        <v>0.4133724863268331</v>
       </c>
       <c r="Y477" t="n">
         <v>2.2</v>
@@ -66141,7 +66141,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B478" t="n">
         <v>35</v>
@@ -66190,43 +66190,43 @@
         </is>
       </c>
       <c r="L478" t="n">
-        <v>0.3172661561371447</v>
+        <v>0.3221740198657637</v>
       </c>
       <c r="M478" t="n">
-        <v>0.2422815732492558</v>
+        <v>0.2443025351465339</v>
       </c>
       <c r="N478" t="n">
-        <v>0.4404522706135995</v>
+        <v>0.4335234449877022</v>
       </c>
       <c r="O478" t="n">
-        <v>0.05189371993375702</v>
+        <v>0.05361239495012349</v>
       </c>
       <c r="P478" t="n">
-        <v>0.948106280066243</v>
+        <v>0.9463876050498765</v>
       </c>
       <c r="Q478" t="n">
-        <v>0.2056470809306304</v>
+        <v>0.2107045581044594</v>
       </c>
       <c r="R478" t="n">
-        <v>0.7943529190693696</v>
+        <v>0.7892954418955406</v>
       </c>
       <c r="S478" t="n">
-        <v>0.4327850363347361</v>
+        <v>0.4402213996809903</v>
       </c>
       <c r="T478" t="n">
-        <v>0.5672149636652639</v>
+        <v>0.5597786003190097</v>
       </c>
       <c r="U478" t="n">
-        <v>0.6567586786878894</v>
+        <v>0.6640492021656021</v>
       </c>
       <c r="V478" t="n">
-        <v>0.3432413213121107</v>
+        <v>0.3359507978343979</v>
       </c>
       <c r="W478" t="n">
-        <v>0.5915953208077537</v>
+        <v>0.5866275136731669</v>
       </c>
       <c r="X478" t="n">
-        <v>0.4084046791922463</v>
+        <v>0.4133724863268331</v>
       </c>
       <c r="Y478" t="n">
         <v>2.2</v>
@@ -66277,7 +66277,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B479" t="n">
         <v>35</v>
@@ -66312,28 +66312,52 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>1-1</t>
-        </is>
-      </c>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+          <t>2-0</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>btts_no</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>under_3_5</t>
+        </is>
+      </c>
       <c r="L479" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6034748660658965</v>
       </c>
       <c r="M479" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2148485910702875</v>
       </c>
       <c r="N479" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O479" t="inlineStr"/>
-      <c r="P479" t="inlineStr"/>
-      <c r="Q479" t="inlineStr"/>
-      <c r="R479" t="inlineStr"/>
-      <c r="S479" t="inlineStr"/>
-      <c r="T479" t="inlineStr"/>
-      <c r="U479" t="inlineStr"/>
-      <c r="V479" t="inlineStr"/>
+        <v>0.181676542863816</v>
+      </c>
+      <c r="O479" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R479" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S479" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T479" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U479" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V479" t="n">
+        <v>0.1</v>
+      </c>
       <c r="W479" t="n">
         <v>0</v>
       </c>
@@ -66389,7 +66413,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B480" t="n">
         <v>35</v>
@@ -66438,43 +66462,43 @@
         </is>
       </c>
       <c r="L480" t="n">
-        <v>0.2536809729683655</v>
+        <v>0.288984190049251</v>
       </c>
       <c r="M480" t="n">
-        <v>0.1774523156751016</v>
+        <v>0.07772067954000168</v>
       </c>
       <c r="N480" t="n">
-        <v>0.568866711356533</v>
+        <v>0.6332951304107473</v>
       </c>
       <c r="O480" t="n">
-        <v>0.01547259822030533</v>
+        <v>0.01452311066315926</v>
       </c>
       <c r="P480" t="n">
-        <v>0.9845274017796947</v>
+        <v>0.9854768893368407</v>
       </c>
       <c r="Q480" t="n">
-        <v>0.1200680390511737</v>
+        <v>0.09742134482495024</v>
       </c>
       <c r="R480" t="n">
-        <v>0.8799319609488263</v>
+        <v>0.9025786551750498</v>
       </c>
       <c r="S480" t="n">
-        <v>0.2996627028417901</v>
+        <v>0.3693266487457567</v>
       </c>
       <c r="T480" t="n">
-        <v>0.7003372971582099</v>
+        <v>0.6306733512542433</v>
       </c>
       <c r="U480" t="n">
-        <v>0.9369777128337009</v>
+        <v>0.9091368334853616</v>
       </c>
       <c r="V480" t="n">
-        <v>0.06302228716629908</v>
+        <v>0.0908631665146384</v>
       </c>
       <c r="W480" t="n">
-        <v>0.4977296956911452</v>
+        <v>0.498849895959521</v>
       </c>
       <c r="X480" t="n">
-        <v>0.5022703043088548</v>
+        <v>0.5011501040404791</v>
       </c>
       <c r="Y480" t="n">
         <v>2.2</v>
@@ -66525,7 +66549,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B481" t="n">
         <v>35</v>
@@ -66661,7 +66685,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45943.63280092592</v>
+        <v>45943.67325231482</v>
       </c>
       <c r="B482" t="n">
         <v>35</v>
@@ -66710,43 +66734,43 @@
         </is>
       </c>
       <c r="L482" t="n">
-        <v>0.3131223107137042</v>
+        <v>0.319726248556035</v>
       </c>
       <c r="M482" t="n">
-        <v>0.2644252726074148</v>
+        <v>0.2801847242627942</v>
       </c>
       <c r="N482" t="n">
-        <v>0.4224524166788812</v>
+        <v>0.4000890271811708</v>
       </c>
       <c r="O482" t="n">
-        <v>0.0367521670062313</v>
+        <v>0.05161098353041715</v>
       </c>
       <c r="P482" t="n">
-        <v>0.9632478329937687</v>
+        <v>0.9483890164695828</v>
       </c>
       <c r="Q482" t="n">
-        <v>0.2071571816883284</v>
+        <v>0.213602015346823</v>
       </c>
       <c r="R482" t="n">
-        <v>0.7928428183116716</v>
+        <v>0.786397984653177</v>
       </c>
       <c r="S482" t="n">
-        <v>0.448029269941478</v>
+        <v>0.4819221060269484</v>
       </c>
       <c r="T482" t="n">
-        <v>0.551970730058522</v>
+        <v>0.5180778939730516</v>
       </c>
       <c r="U482" t="n">
-        <v>0.7116690946148938</v>
+        <v>0.6973726418875583</v>
       </c>
       <c r="V482" t="n">
-        <v>0.2883309053851063</v>
+        <v>0.3026273581124417</v>
       </c>
       <c r="W482" t="n">
-        <v>0.6506613519877913</v>
+        <v>0.6167091211647768</v>
       </c>
       <c r="X482" t="n">
-        <v>0.3493386480122087</v>
+        <v>0.3832908788352232</v>
       </c>
       <c r="Y482" t="n">
         <v>2.2</v>
